--- a/BackTest/2019-10-24 BackTest ORBS.xlsx
+++ b/BackTest/2019-10-24 BackTest ORBS.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>1.000000000000005</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-20</v>
+      </c>
       <c r="L12" t="n">
         <v>13.7</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>1.100000000000005</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-9.090909090909179</v>
+      </c>
       <c r="L13" t="n">
         <v>13.68999999999999</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>1.200000000000005</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-9.090909090909033</v>
+      </c>
       <c r="L14" t="n">
         <v>13.66999999999999</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>1.200000000000005</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-9.090909090909033</v>
+      </c>
       <c r="L15" t="n">
         <v>13.65999999999999</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>1.200000000000005</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
       <c r="L16" t="n">
         <v>13.65</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>1.300000000000004</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>9.090909090909033</v>
+      </c>
       <c r="L17" t="n">
         <v>13.65999999999999</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>1.400000000000004</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-20.00000000000007</v>
+      </c>
       <c r="L18" t="n">
         <v>13.65999999999999</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>1.500000000000004</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>11.11111111111107</v>
+      </c>
       <c r="L19" t="n">
         <v>13.64999999999999</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>1.500000000000004</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-14.2857142857145</v>
+      </c>
       <c r="L20" t="n">
         <v>13.65999999999999</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>1.500000000000004</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>20</v>
+      </c>
       <c r="L21" t="n">
         <v>13.64999999999999</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>1.500000000000004</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
       <c r="L22" t="n">
         <v>13.65999999999999</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>1.700000000000005</v>
       </c>
       <c r="K23" t="n">
-        <v>5.882352941176434</v>
+        <v>60.00000000000014</v>
       </c>
       <c r="L23" t="n">
         <v>13.67999999999999</v>
@@ -1466,7 +1488,7 @@
         <v>1.900000000000006</v>
       </c>
       <c r="K24" t="n">
-        <v>-5.263157894736901</v>
+        <v>14.28571428571421</v>
       </c>
       <c r="L24" t="n">
         <v>13.68999999999999</v>
@@ -1515,7 +1537,7 @@
         <v>2.000000000000005</v>
       </c>
       <c r="K25" t="n">
-        <v>-5.263157894736812</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>13.68999999999999</v>
@@ -1564,7 +1586,7 @@
         <v>2.200000000000006</v>
       </c>
       <c r="K26" t="n">
-        <v>4.761904761904819</v>
+        <v>11.11111111111124</v>
       </c>
       <c r="L26" t="n">
         <v>13.70999999999999</v>
@@ -1613,7 +1635,7 @@
         <v>2.200000000000006</v>
       </c>
       <c r="K27" t="n">
-        <v>10.00000000000003</v>
+        <v>25.00000000000006</v>
       </c>
       <c r="L27" t="n">
         <v>13.71999999999999</v>
@@ -1662,7 +1684,7 @@
         <v>2.200000000000006</v>
       </c>
       <c r="K28" t="n">
-        <v>10.00000000000003</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L28" t="n">
         <v>13.73999999999999</v>
@@ -1711,7 +1733,7 @@
         <v>2.200000000000006</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L29" t="n">
         <v>13.75</v>
@@ -1760,7 +1782,7 @@
         <v>2.300000000000008</v>
       </c>
       <c r="K30" t="n">
-        <v>5.882352941176434</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>13.75</v>
@@ -1809,7 +1831,7 @@
         <v>2.300000000000008</v>
       </c>
       <c r="K31" t="n">
-        <v>-6.666666666666746</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>13.75</v>
@@ -1860,7 +1882,7 @@
         <v>2.300000000000008</v>
       </c>
       <c r="K32" t="n">
-        <v>7.69230769230765</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L32" t="n">
         <v>13.75</v>
@@ -1962,7 +1984,7 @@
         <v>2.500000000000007</v>
       </c>
       <c r="K34" t="n">
-        <v>-7.69230769230765</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L34" t="n">
         <v>13.71</v>
@@ -2013,7 +2035,7 @@
         <v>2.600000000000007</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>-50.00000000000022</v>
       </c>
       <c r="L35" t="n">
         <v>13.71</v>
@@ -2064,7 +2086,7 @@
         <v>2.600000000000007</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>-50.00000000000022</v>
       </c>
       <c r="L36" t="n">
         <v>13.68999999999999</v>
@@ -2115,7 +2137,7 @@
         <v>2.700000000000006</v>
       </c>
       <c r="K37" t="n">
-        <v>-14.28571428571421</v>
+        <v>-60.00000000000014</v>
       </c>
       <c r="L37" t="n">
         <v>13.65999999999999</v>
@@ -2166,7 +2188,7 @@
         <v>2.700000000000006</v>
       </c>
       <c r="K38" t="n">
-        <v>-7.69230769230765</v>
+        <v>-60.00000000000014</v>
       </c>
       <c r="L38" t="n">
         <v>13.62999999999999</v>
@@ -2217,7 +2239,7 @@
         <v>2.700000000000006</v>
       </c>
       <c r="K39" t="n">
-        <v>-16.66666666666657</v>
+        <v>-50</v>
       </c>
       <c r="L39" t="n">
         <v>13.59999999999999</v>
@@ -2268,7 +2290,7 @@
         <v>2.700000000000006</v>
       </c>
       <c r="K40" t="n">
-        <v>-16.66666666666657</v>
+        <v>-50</v>
       </c>
       <c r="L40" t="n">
         <v>13.57999999999999</v>
@@ -2319,7 +2341,7 @@
         <v>2.700000000000006</v>
       </c>
       <c r="K41" t="n">
-        <v>-16.66666666666657</v>
+        <v>-50</v>
       </c>
       <c r="L41" t="n">
         <v>13.55999999999999</v>
@@ -2370,7 +2392,7 @@
         <v>2.700000000000006</v>
       </c>
       <c r="K42" t="n">
-        <v>-16.66666666666657</v>
+        <v>-50</v>
       </c>
       <c r="L42" t="n">
         <v>13.54</v>
@@ -2421,7 +2443,7 @@
         <v>2.800000000000006</v>
       </c>
       <c r="K43" t="n">
-        <v>-45.4545454545454</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L43" t="n">
         <v>13.51</v>
@@ -2472,7 +2494,7 @@
         <v>3.100000000000007</v>
       </c>
       <c r="K44" t="n">
-        <v>-49.99999999999993</v>
+        <v>-100</v>
       </c>
       <c r="L44" t="n">
         <v>13.47</v>
@@ -2523,7 +2545,7 @@
         <v>3.100000000000007</v>
       </c>
       <c r="K45" t="n">
-        <v>-45.4545454545454</v>
+        <v>-100</v>
       </c>
       <c r="L45" t="n">
         <v>13.42</v>
@@ -2676,7 +2698,7 @@
         <v>3.500000000000007</v>
       </c>
       <c r="K48" t="n">
-        <v>-23.07692307692312</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
         <v>13.34999999999999</v>
@@ -2727,7 +2749,7 @@
         <v>3.500000000000007</v>
       </c>
       <c r="K49" t="n">
-        <v>-23.07692307692312</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
         <v>13.34999999999999</v>
@@ -2778,7 +2800,7 @@
         <v>3.600000000000007</v>
       </c>
       <c r="K50" t="n">
-        <v>-23.07692307692301</v>
+        <v>-11.11111111111107</v>
       </c>
       <c r="L50" t="n">
         <v>13.33999999999999</v>
@@ -2829,7 +2851,7 @@
         <v>3.800000000000006</v>
       </c>
       <c r="K51" t="n">
-        <v>-6.666666666666651</v>
+        <v>9.090909090909062</v>
       </c>
       <c r="L51" t="n">
         <v>13.34999999999999</v>
@@ -2880,7 +2902,7 @@
         <v>3.800000000000006</v>
       </c>
       <c r="K52" t="n">
-        <v>-6.666666666666651</v>
+        <v>19.99999999999993</v>
       </c>
       <c r="L52" t="n">
         <v>13.35999999999999</v>
@@ -2931,7 +2953,7 @@
         <v>3.900000000000006</v>
       </c>
       <c r="K53" t="n">
-        <v>-12.49999999999997</v>
+        <v>50.00000000000011</v>
       </c>
       <c r="L53" t="n">
         <v>13.36999999999999</v>
@@ -2982,7 +3004,7 @@
         <v>4.000000000000005</v>
       </c>
       <c r="K54" t="n">
-        <v>-6.666666666666651</v>
+        <v>33.33333333333346</v>
       </c>
       <c r="L54" t="n">
         <v>13.4</v>
@@ -3033,7 +3055,7 @@
         <v>4.000000000000005</v>
       </c>
       <c r="K55" t="n">
-        <v>-14.28571428571425</v>
+        <v>25.00000000000017</v>
       </c>
       <c r="L55" t="n">
         <v>13.43</v>
@@ -3084,7 +3106,7 @@
         <v>4.100000000000005</v>
       </c>
       <c r="K56" t="n">
-        <v>-19.99999999999995</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L56" t="n">
         <v>13.44</v>
@@ -3135,7 +3157,7 @@
         <v>4.200000000000005</v>
       </c>
       <c r="K57" t="n">
-        <v>-6.666666666666651</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L57" t="n">
         <v>13.46</v>
@@ -3237,7 +3259,7 @@
         <v>4.300000000000004</v>
       </c>
       <c r="K59" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L59" t="n">
         <v>13.46</v>
@@ -3288,7 +3310,7 @@
         <v>4.400000000000004</v>
       </c>
       <c r="K60" t="n">
-        <v>-5.882352941176458</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L60" t="n">
         <v>13.46</v>
@@ -3339,7 +3361,7 @@
         <v>4.500000000000004</v>
       </c>
       <c r="K61" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L61" t="n">
         <v>13.45</v>
@@ -3390,7 +3412,7 @@
         <v>4.600000000000003</v>
       </c>
       <c r="K62" t="n">
-        <v>5.263157894736832</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L62" t="n">
         <v>13.45</v>
@@ -3492,7 +3514,7 @@
         <v>5.000000000000002</v>
       </c>
       <c r="K64" t="n">
-        <v>26.31578947368428</v>
+        <v>20</v>
       </c>
       <c r="L64" t="n">
         <v>13.46</v>
@@ -3543,7 +3565,7 @@
         <v>5.200000000000001</v>
       </c>
       <c r="K65" t="n">
-        <v>14.28571428571436</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L65" t="n">
         <v>13.46</v>
@@ -3594,7 +3616,7 @@
         <v>5.4</v>
       </c>
       <c r="K66" t="n">
-        <v>18.18181818181825</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L66" t="n">
         <v>13.49</v>
@@ -3645,7 +3667,7 @@
         <v>5.4</v>
       </c>
       <c r="K67" t="n">
-        <v>18.18181818181825</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L67" t="n">
         <v>13.51</v>
@@ -3696,7 +3718,7 @@
         <v>5.4</v>
       </c>
       <c r="K68" t="n">
-        <v>5.263157894736842</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L68" t="n">
         <v>13.52</v>
@@ -3747,7 +3769,7 @@
         <v>5.4</v>
       </c>
       <c r="K69" t="n">
-        <v>5.263157894736842</v>
+        <v>20</v>
       </c>
       <c r="L69" t="n">
         <v>13.53</v>
@@ -3900,7 +3922,7 @@
         <v>5.4</v>
       </c>
       <c r="K72" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L72" t="n">
         <v>13.55999999999999</v>
@@ -3951,7 +3973,7 @@
         <v>5.5</v>
       </c>
       <c r="K73" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L73" t="n">
         <v>13.56999999999999</v>
@@ -4002,7 +4024,7 @@
         <v>5.5</v>
       </c>
       <c r="K74" t="n">
-        <v>6.666666666666667</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L74" t="n">
         <v>13.55999999999999</v>
@@ -4053,7 +4075,7 @@
         <v>5.5</v>
       </c>
       <c r="K75" t="n">
-        <v>6.666666666666667</v>
+        <v>-100</v>
       </c>
       <c r="L75" t="n">
         <v>13.56999999999999</v>
@@ -4104,7 +4126,7 @@
         <v>5.5</v>
       </c>
       <c r="K76" t="n">
-        <v>14.28571428571428</v>
+        <v>-100</v>
       </c>
       <c r="L76" t="n">
         <v>13.55999999999999</v>
@@ -4155,7 +4177,7 @@
         <v>5.6</v>
       </c>
       <c r="K77" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L77" t="n">
         <v>13.55999999999999</v>
@@ -4206,7 +4228,7 @@
         <v>5.6</v>
       </c>
       <c r="K78" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L78" t="n">
         <v>13.55999999999999</v>
@@ -4257,7 +4279,7 @@
         <v>5.6</v>
       </c>
       <c r="K79" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L79" t="n">
         <v>13.55999999999999</v>
@@ -4308,7 +4330,7 @@
         <v>5.799999999999999</v>
       </c>
       <c r="K80" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="L80" t="n">
         <v>13.54</v>
@@ -4359,7 +4381,7 @@
         <v>5.799999999999999</v>
       </c>
       <c r="K81" t="n">
-        <v>-7.692307692307693</v>
+        <v>-50</v>
       </c>
       <c r="L81" t="n">
         <v>13.52</v>
@@ -4410,7 +4432,7 @@
         <v>5.999999999999998</v>
       </c>
       <c r="K82" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L82" t="n">
         <v>13.52</v>
@@ -4461,7 +4483,7 @@
         <v>6.099999999999998</v>
       </c>
       <c r="K83" t="n">
-        <v>23.07692307692308</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L83" t="n">
         <v>13.54</v>
@@ -4512,7 +4534,7 @@
         <v>6.099999999999998</v>
       </c>
       <c r="K84" t="n">
-        <v>9.090909090909092</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L84" t="n">
         <v>13.55999999999999</v>
@@ -4614,7 +4636,7 @@
         <v>6.099999999999998</v>
       </c>
       <c r="K86" t="n">
-        <v>14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L86" t="n">
         <v>13.59999999999999</v>
@@ -4767,7 +4789,7 @@
         <v>6.199999999999998</v>
       </c>
       <c r="K89" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L89" t="n">
         <v>13.59999999999999</v>
@@ -4818,7 +4840,7 @@
         <v>6.199999999999998</v>
       </c>
       <c r="K90" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L90" t="n">
         <v>13.61999999999999</v>
@@ -4920,7 +4942,7 @@
         <v>6.299999999999997</v>
       </c>
       <c r="K92" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L92" t="n">
         <v>13.64999999999999</v>
@@ -4971,7 +4993,7 @@
         <v>6.299999999999997</v>
       </c>
       <c r="K93" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L93" t="n">
         <v>13.64999999999999</v>
@@ -5022,7 +5044,7 @@
         <v>6.299999999999997</v>
       </c>
       <c r="K94" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L94" t="n">
         <v>13.64999999999999</v>
@@ -5073,7 +5095,7 @@
         <v>6.299999999999997</v>
       </c>
       <c r="K95" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L95" t="n">
         <v>13.64999999999999</v>
@@ -5124,7 +5146,7 @@
         <v>6.299999999999997</v>
       </c>
       <c r="K96" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="L96" t="n">
         <v>13.64999999999999</v>
@@ -5175,7 +5197,7 @@
         <v>6.499999999999996</v>
       </c>
       <c r="K97" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L97" t="n">
         <v>13.63999999999999</v>
@@ -5226,7 +5248,7 @@
         <v>6.499999999999996</v>
       </c>
       <c r="K98" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L98" t="n">
         <v>13.62999999999999</v>
@@ -5277,7 +5299,7 @@
         <v>6.499999999999996</v>
       </c>
       <c r="K99" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L99" t="n">
         <v>13.61999999999999</v>
@@ -5328,7 +5350,7 @@
         <v>6.499999999999996</v>
       </c>
       <c r="K100" t="n">
-        <v>14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L100" t="n">
         <v>13.60999999999999</v>
@@ -5379,7 +5401,7 @@
         <v>6.599999999999996</v>
       </c>
       <c r="K101" t="n">
-        <v>25</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L101" t="n">
         <v>13.60999999999999</v>
@@ -5430,7 +5452,7 @@
         <v>6.699999999999996</v>
       </c>
       <c r="K102" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L102" t="n">
         <v>13.60999999999999</v>
@@ -5481,7 +5503,7 @@
         <v>6.799999999999995</v>
       </c>
       <c r="K103" t="n">
-        <v>-14.28571428571428</v>
+        <v>-20</v>
       </c>
       <c r="L103" t="n">
         <v>13.59999999999999</v>
@@ -5532,7 +5554,7 @@
         <v>6.799999999999995</v>
       </c>
       <c r="K104" t="n">
-        <v>-14.28571428571428</v>
+        <v>-20</v>
       </c>
       <c r="L104" t="n">
         <v>13.58999999999999</v>
@@ -5634,7 +5656,7 @@
         <v>6.899999999999995</v>
       </c>
       <c r="K106" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L106" t="n">
         <v>13.58999999999999</v>
@@ -5685,7 +5707,7 @@
         <v>6.999999999999996</v>
       </c>
       <c r="K107" t="n">
-        <v>25.00000000000017</v>
+        <v>60.00000000000014</v>
       </c>
       <c r="L107" t="n">
         <v>13.61999999999999</v>
@@ -5736,7 +5758,7 @@
         <v>7.099999999999998</v>
       </c>
       <c r="K108" t="n">
-        <v>11.11111111111107</v>
+        <v>33.33333333333314</v>
       </c>
       <c r="L108" t="n">
         <v>13.63999999999999</v>
@@ -5787,7 +5809,7 @@
         <v>7.199999999999998</v>
       </c>
       <c r="K109" t="n">
-        <v>0</v>
+        <v>14.28571428571421</v>
       </c>
       <c r="L109" t="n">
         <v>13.64999999999999</v>
@@ -5838,7 +5860,7 @@
         <v>7.299999999999997</v>
       </c>
       <c r="K110" t="n">
-        <v>9.090909090909062</v>
+        <v>14.28571428571421</v>
       </c>
       <c r="L110" t="n">
         <v>13.66999999999999</v>
@@ -5889,7 +5911,7 @@
         <v>7.399999999999997</v>
       </c>
       <c r="K111" t="n">
-        <v>0</v>
+        <v>-14.28571428571421</v>
       </c>
       <c r="L111" t="n">
         <v>13.66999999999999</v>
@@ -5940,7 +5962,7 @@
         <v>7.399999999999997</v>
       </c>
       <c r="K112" t="n">
-        <v>-9.090909090909062</v>
+        <v>0</v>
       </c>
       <c r="L112" t="n">
         <v>13.65999999999999</v>
@@ -5991,7 +6013,7 @@
         <v>7.499999999999996</v>
       </c>
       <c r="K113" t="n">
-        <v>0</v>
+        <v>14.28571428571421</v>
       </c>
       <c r="L113" t="n">
         <v>13.66999999999999</v>
@@ -6042,7 +6064,7 @@
         <v>7.599999999999996</v>
       </c>
       <c r="K114" t="n">
-        <v>-7.692307692307672</v>
+        <v>-14.28571428571421</v>
       </c>
       <c r="L114" t="n">
         <v>13.66999999999999</v>
@@ -6093,7 +6115,7 @@
         <v>7.599999999999996</v>
       </c>
       <c r="K115" t="n">
-        <v>-7.692307692307672</v>
+        <v>-14.28571428571421</v>
       </c>
       <c r="L115" t="n">
         <v>13.65999999999999</v>
@@ -6144,7 +6166,7 @@
         <v>7.599999999999996</v>
       </c>
       <c r="K116" t="n">
-        <v>-7.692307692307672</v>
+        <v>-33.33333333333353</v>
       </c>
       <c r="L116" t="n">
         <v>13.64999999999999</v>
@@ -6195,7 +6217,7 @@
         <v>7.599999999999996</v>
       </c>
       <c r="K117" t="n">
-        <v>9.090909090909062</v>
+        <v>-20</v>
       </c>
       <c r="L117" t="n">
         <v>13.62999999999999</v>
@@ -6246,7 +6268,7 @@
         <v>7.599999999999996</v>
       </c>
       <c r="K118" t="n">
-        <v>9.090909090909062</v>
+        <v>0</v>
       </c>
       <c r="L118" t="n">
         <v>13.61999999999999</v>
@@ -6297,7 +6319,7 @@
         <v>7.599999999999996</v>
       </c>
       <c r="K119" t="n">
-        <v>9.090909090909062</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L119" t="n">
         <v>13.61999999999999</v>
@@ -6348,7 +6370,7 @@
         <v>7.699999999999996</v>
       </c>
       <c r="K120" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L120" t="n">
         <v>13.59999999999999</v>
@@ -6450,7 +6472,7 @@
         <v>7.799999999999995</v>
       </c>
       <c r="K122" t="n">
-        <v>-9.090909090909062</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L122" t="n">
         <v>13.59999999999999</v>
@@ -6552,7 +6574,7 @@
         <v>7.899999999999995</v>
       </c>
       <c r="K124" t="n">
-        <v>-9.090909090909062</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L124" t="n">
         <v>13.57999999999999</v>
@@ -6603,7 +6625,7 @@
         <v>7.899999999999995</v>
       </c>
       <c r="K125" t="n">
-        <v>-19.99999999999993</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L125" t="n">
         <v>13.56999999999999</v>
@@ -6654,7 +6676,7 @@
         <v>7.899999999999995</v>
       </c>
       <c r="K126" t="n">
-        <v>-19.99999999999993</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L126" t="n">
         <v>13.55999999999999</v>
@@ -6705,7 +6727,7 @@
         <v>8.099999999999994</v>
       </c>
       <c r="K127" t="n">
-        <v>-45.45454545454554</v>
+        <v>-60</v>
       </c>
       <c r="L127" t="n">
         <v>13.53</v>
@@ -6756,7 +6778,7 @@
         <v>8.099999999999994</v>
       </c>
       <c r="K128" t="n">
-        <v>-40</v>
+        <v>-60</v>
       </c>
       <c r="L128" t="n">
         <v>13.5</v>
@@ -6807,7 +6829,7 @@
         <v>8.099999999999994</v>
       </c>
       <c r="K129" t="n">
-        <v>-33.33333333333333</v>
+        <v>-50</v>
       </c>
       <c r="L129" t="n">
         <v>13.47</v>
@@ -6858,7 +6880,7 @@
         <v>8.099999999999994</v>
       </c>
       <c r="K130" t="n">
-        <v>-50</v>
+        <v>-100</v>
       </c>
       <c r="L130" t="n">
         <v>13.45</v>
@@ -6909,7 +6931,7 @@
         <v>8.199999999999994</v>
       </c>
       <c r="K131" t="n">
-        <v>-25</v>
+        <v>-50</v>
       </c>
       <c r="L131" t="n">
         <v>13.43</v>
@@ -7011,7 +7033,7 @@
         <v>8.399999999999993</v>
       </c>
       <c r="K133" t="n">
-        <v>-11.11111111111111</v>
+        <v>20</v>
       </c>
       <c r="L133" t="n">
         <v>13.43</v>
@@ -7062,7 +7084,7 @@
         <v>8.399999999999993</v>
       </c>
       <c r="K134" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L134" t="n">
         <v>13.44</v>
@@ -7113,7 +7135,7 @@
         <v>8.399999999999993</v>
       </c>
       <c r="K135" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L135" t="n">
         <v>13.45</v>
@@ -7164,7 +7186,7 @@
         <v>8.399999999999993</v>
       </c>
       <c r="K136" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L136" t="n">
         <v>13.46</v>
@@ -7215,7 +7237,7 @@
         <v>8.399999999999993</v>
       </c>
       <c r="K137" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L137" t="n">
         <v>13.49</v>
@@ -7266,7 +7288,7 @@
         <v>8.499999999999993</v>
       </c>
       <c r="K138" t="n">
-        <v>-11.11111111111111</v>
+        <v>50</v>
       </c>
       <c r="L138" t="n">
         <v>13.51</v>
@@ -7317,7 +7339,7 @@
         <v>8.599999999999993</v>
       </c>
       <c r="K139" t="n">
-        <v>-20</v>
+        <v>20</v>
       </c>
       <c r="L139" t="n">
         <v>13.52</v>
@@ -7368,7 +7390,7 @@
         <v>8.799999999999994</v>
       </c>
       <c r="K140" t="n">
-        <v>-27.27272727272739</v>
+        <v>-33.33333333333353</v>
       </c>
       <c r="L140" t="n">
         <v>13.50999999999999</v>
@@ -7419,7 +7441,7 @@
         <v>8.899999999999995</v>
       </c>
       <c r="K141" t="n">
-        <v>-27.27272727272718</v>
+        <v>-59.99999999999957</v>
       </c>
       <c r="L141" t="n">
         <v>13.49999999999999</v>
@@ -7470,7 +7492,7 @@
         <v>8.999999999999995</v>
       </c>
       <c r="K142" t="n">
-        <v>-16.66666666666662</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L142" t="n">
         <v>13.48</v>
@@ -7521,7 +7543,7 @@
         <v>8.999999999999995</v>
       </c>
       <c r="K143" t="n">
-        <v>-16.66666666666662</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L143" t="n">
         <v>13.46</v>
@@ -7572,7 +7594,7 @@
         <v>9.099999999999994</v>
       </c>
       <c r="K144" t="n">
-        <v>-16.66666666666662</v>
+        <v>-42.85714285714264</v>
       </c>
       <c r="L144" t="n">
         <v>13.43</v>
@@ -7623,7 +7645,7 @@
         <v>9.099999999999994</v>
       </c>
       <c r="K145" t="n">
-        <v>-16.66666666666662</v>
+        <v>-42.85714285714264</v>
       </c>
       <c r="L145" t="n">
         <v>13.4</v>
@@ -7674,7 +7696,7 @@
         <v>9.099999999999994</v>
       </c>
       <c r="K146" t="n">
-        <v>-16.66666666666662</v>
+        <v>-42.85714285714264</v>
       </c>
       <c r="L146" t="n">
         <v>13.37</v>
@@ -7725,7 +7747,7 @@
         <v>9.199999999999994</v>
       </c>
       <c r="K147" t="n">
-        <v>9.090909090909062</v>
+        <v>-14.28571428571421</v>
       </c>
       <c r="L147" t="n">
         <v>13.35</v>
@@ -7776,7 +7798,7 @@
         <v>9.299999999999994</v>
       </c>
       <c r="K148" t="n">
-        <v>16.66666666666662</v>
+        <v>14.28571428571421</v>
       </c>
       <c r="L148" t="n">
         <v>13.35</v>
@@ -7827,7 +7849,7 @@
         <v>9.599999999999994</v>
       </c>
       <c r="K149" t="n">
-        <v>-6.666666666666761</v>
+        <v>0</v>
       </c>
       <c r="L149" t="n">
         <v>13.33</v>
@@ -7929,7 +7951,7 @@
         <v>9.699999999999996</v>
       </c>
       <c r="K151" t="n">
-        <v>-6.666666666666635</v>
+        <v>-14.28571428571421</v>
       </c>
       <c r="L151" t="n">
         <v>13.34</v>
@@ -7980,7 +8002,7 @@
         <v>9.699999999999996</v>
       </c>
       <c r="K152" t="n">
-        <v>-23.07692307692295</v>
+        <v>-14.28571428571421</v>
       </c>
       <c r="L152" t="n">
         <v>13.33</v>
@@ -8031,7 +8053,7 @@
         <v>9.699999999999996</v>
       </c>
       <c r="K153" t="n">
-        <v>-23.07692307692295</v>
+        <v>0</v>
       </c>
       <c r="L153" t="n">
         <v>13.32</v>
@@ -8082,7 +8104,7 @@
         <v>9.999999999999996</v>
       </c>
       <c r="K154" t="n">
-        <v>-37.49999999999991</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L154" t="n">
         <v>13.29</v>
@@ -8133,7 +8155,7 @@
         <v>10.1</v>
       </c>
       <c r="K155" t="n">
-        <v>-41.17647058823518</v>
+        <v>-39.99999999999996</v>
       </c>
       <c r="L155" t="n">
         <v>13.25</v>
@@ -8184,7 +8206,7 @@
         <v>10.4</v>
       </c>
       <c r="K156" t="n">
-        <v>-49.99999999999991</v>
+        <v>-66.66666666666656</v>
       </c>
       <c r="L156" t="n">
         <v>13.18</v>
@@ -8235,7 +8257,7 @@
         <v>10.5</v>
       </c>
       <c r="K157" t="n">
-        <v>-52.38095238095228</v>
+        <v>-83.33333333333314</v>
       </c>
       <c r="L157" t="n">
         <v>13.09</v>
@@ -8286,7 +8308,7 @@
         <v>10.6</v>
       </c>
       <c r="K158" t="n">
-        <v>-52.38095238095228</v>
+        <v>-79.99999999999974</v>
       </c>
       <c r="L158" t="n">
         <v>12.98</v>
@@ -8337,7 +8359,7 @@
         <v>10.9</v>
       </c>
       <c r="K159" t="n">
-        <v>-56.52173913043471</v>
+        <v>-100</v>
       </c>
       <c r="L159" t="n">
         <v>12.87</v>
@@ -8388,7 +8410,7 @@
         <v>11.1</v>
       </c>
       <c r="K160" t="n">
-        <v>-56.52173913043468</v>
+        <v>-100</v>
       </c>
       <c r="L160" t="n">
         <v>12.73</v>
@@ -8439,7 +8461,7 @@
         <v>11.4</v>
       </c>
       <c r="K161" t="n">
-        <v>-44.00000000000006</v>
+        <v>-64.70588235294129</v>
       </c>
       <c r="L161" t="n">
         <v>12.62</v>
@@ -8490,7 +8512,7 @@
         <v>11.59999999999999</v>
       </c>
       <c r="K162" t="n">
-        <v>-53.84615384615387</v>
+        <v>-68.42105263157904</v>
       </c>
       <c r="L162" t="n">
         <v>12.49000000000001</v>
@@ -8541,7 +8563,7 @@
         <v>11.79999999999999</v>
       </c>
       <c r="K163" t="n">
-        <v>-42.85714285714291</v>
+        <v>-44.44444444444456</v>
       </c>
       <c r="L163" t="n">
         <v>12.38000000000001</v>
@@ -8592,7 +8614,7 @@
         <v>11.79999999999999</v>
       </c>
       <c r="K164" t="n">
-        <v>-40.7407407407408</v>
+        <v>-41.17647058823542</v>
       </c>
       <c r="L164" t="n">
         <v>12.30000000000001</v>
@@ -8643,7 +8665,7 @@
         <v>11.99999999999999</v>
       </c>
       <c r="K165" t="n">
-        <v>-44.8275862068966</v>
+        <v>-37.50000000000007</v>
       </c>
       <c r="L165" t="n">
         <v>12.21</v>
@@ -8694,7 +8716,7 @@
         <v>12.09999999999999</v>
       </c>
       <c r="K166" t="n">
-        <v>-40.00000000000006</v>
+        <v>-25.00000000000008</v>
       </c>
       <c r="L166" t="n">
         <v>12.16000000000001</v>
@@ -8745,7 +8767,7 @@
         <v>12.09999999999999</v>
       </c>
       <c r="K167" t="n">
-        <v>-44.8275862068966</v>
+        <v>-20.0000000000001</v>
       </c>
       <c r="L167" t="n">
         <v>12.12</v>
@@ -8796,7 +8818,7 @@
         <v>12.29999999999999</v>
       </c>
       <c r="K168" t="n">
-        <v>-39.99999999999997</v>
+        <v>14.28571428571439</v>
       </c>
       <c r="L168" t="n">
         <v>12.11</v>
@@ -8847,7 +8869,7 @@
         <v>12.29999999999999</v>
       </c>
       <c r="K169" t="n">
-        <v>-33.33333333333329</v>
+        <v>33.33333333333343</v>
       </c>
       <c r="L169" t="n">
         <v>12.13000000000001</v>
@@ -8898,7 +8920,7 @@
         <v>12.29999999999999</v>
       </c>
       <c r="K170" t="n">
-        <v>-38.46153846153849</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L170" t="n">
         <v>12.17000000000001</v>
@@ -8949,7 +8971,7 @@
         <v>12.29999999999999</v>
       </c>
       <c r="K171" t="n">
-        <v>-38.46153846153849</v>
+        <v>42.857142857143</v>
       </c>
       <c r="L171" t="n">
         <v>12.18000000000001</v>
@@ -9000,7 +9022,7 @@
         <v>12.29999999999999</v>
       </c>
       <c r="K172" t="n">
-        <v>-38.46153846153849</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L172" t="n">
         <v>12.21000000000001</v>
@@ -9051,7 +9073,7 @@
         <v>12.29999999999999</v>
       </c>
       <c r="K173" t="n">
-        <v>-38.46153846153849</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L173" t="n">
         <v>12.22000000000001</v>
@@ -9102,7 +9124,7 @@
         <v>12.4</v>
       </c>
       <c r="K174" t="n">
-        <v>-33.33333333333338</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L174" t="n">
         <v>12.22000000000001</v>
@@ -9153,7 +9175,7 @@
         <v>12.4</v>
       </c>
       <c r="K175" t="n">
-        <v>-30.43478260869572</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L175" t="n">
         <v>12.24000000000001</v>
@@ -9204,7 +9226,7 @@
         <v>12.49999999999999</v>
       </c>
       <c r="K176" t="n">
-        <v>-23.80952380952383</v>
+        <v>0</v>
       </c>
       <c r="L176" t="n">
         <v>12.24000000000001</v>
@@ -9255,7 +9277,7 @@
         <v>12.59999999999999</v>
       </c>
       <c r="K177" t="n">
-        <v>-23.80952380952383</v>
+        <v>-100</v>
       </c>
       <c r="L177" t="n">
         <v>12.23000000000001</v>
@@ -9306,7 +9328,7 @@
         <v>12.69999999999999</v>
       </c>
       <c r="K178" t="n">
-        <v>-23.80952380952383</v>
+        <v>-100</v>
       </c>
       <c r="L178" t="n">
         <v>12.19000000000001</v>
@@ -9357,7 +9379,7 @@
         <v>12.69999999999999</v>
       </c>
       <c r="K179" t="n">
-        <v>-11.11111111111109</v>
+        <v>-100</v>
       </c>
       <c r="L179" t="n">
         <v>12.15000000000001</v>
@@ -9408,7 +9430,7 @@
         <v>12.89999999999999</v>
       </c>
       <c r="K180" t="n">
-        <v>11.11111111111109</v>
+        <v>-33.33333333333353</v>
       </c>
       <c r="L180" t="n">
         <v>12.13000000000001</v>
@@ -9459,7 +9481,7 @@
         <v>12.89999999999999</v>
       </c>
       <c r="K181" t="n">
-        <v>-6.666666666666651</v>
+        <v>-33.33333333333353</v>
       </c>
       <c r="L181" t="n">
         <v>12.11000000000001</v>
@@ -9510,7 +9532,7 @@
         <v>12.89999999999999</v>
       </c>
       <c r="K182" t="n">
-        <v>7.692307692307672</v>
+        <v>-33.33333333333353</v>
       </c>
       <c r="L182" t="n">
         <v>12.09000000000001</v>
@@ -9561,7 +9583,7 @@
         <v>12.89999999999999</v>
       </c>
       <c r="K183" t="n">
-        <v>-9.090909090909062</v>
+        <v>-20</v>
       </c>
       <c r="L183" t="n">
         <v>12.07000000000001</v>
@@ -9612,7 +9634,7 @@
         <v>12.89999999999999</v>
       </c>
       <c r="K184" t="n">
-        <v>-9.090909090909062</v>
+        <v>-20</v>
       </c>
       <c r="L184" t="n">
         <v>12.06000000000001</v>
@@ -9663,7 +9685,7 @@
         <v>12.89999999999999</v>
       </c>
       <c r="K185" t="n">
-        <v>11.11111111111107</v>
+        <v>0</v>
       </c>
       <c r="L185" t="n">
         <v>12.05000000000001</v>
@@ -9714,7 +9736,7 @@
         <v>12.99999999999999</v>
       </c>
       <c r="K186" t="n">
-        <v>-11.11111111111107</v>
+        <v>0</v>
       </c>
       <c r="L186" t="n">
         <v>12.04000000000002</v>
@@ -9765,7 +9787,7 @@
         <v>12.99999999999999</v>
       </c>
       <c r="K187" t="n">
-        <v>-11.11111111111107</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L187" t="n">
         <v>12.04000000000002</v>
@@ -9816,7 +9838,7 @@
         <v>12.99999999999999</v>
       </c>
       <c r="K188" t="n">
-        <v>-42.857142857143</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L188" t="n">
         <v>12.05000000000002</v>
@@ -9867,7 +9889,7 @@
         <v>13.09999999999999</v>
       </c>
       <c r="K189" t="n">
-        <v>-50.00000000000011</v>
+        <v>-100</v>
       </c>
       <c r="L189" t="n">
         <v>12.05000000000002</v>
@@ -9918,7 +9940,7 @@
         <v>13.29999999999999</v>
       </c>
       <c r="K190" t="n">
-        <v>-20.00000000000014</v>
+        <v>0</v>
       </c>
       <c r="L190" t="n">
         <v>12.05000000000002</v>
@@ -9969,7 +9991,7 @@
         <v>13.39999999999999</v>
       </c>
       <c r="K191" t="n">
-        <v>-27.27272727272739</v>
+        <v>-20</v>
       </c>
       <c r="L191" t="n">
         <v>12.04000000000002</v>
@@ -10020,7 +10042,7 @@
         <v>13.39999999999999</v>
       </c>
       <c r="K192" t="n">
-        <v>-27.27272727272739</v>
+        <v>-20</v>
       </c>
       <c r="L192" t="n">
         <v>12.03000000000002</v>
@@ -10071,7 +10093,7 @@
         <v>13.49999999999999</v>
       </c>
       <c r="K193" t="n">
-        <v>-16.66666666666679</v>
+        <v>0</v>
       </c>
       <c r="L193" t="n">
         <v>12.03000000000002</v>
@@ -10122,7 +10144,7 @@
         <v>13.59999999999999</v>
       </c>
       <c r="K194" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L194" t="n">
         <v>12.04000000000002</v>
@@ -10173,7 +10195,7 @@
         <v>13.59999999999999</v>
       </c>
       <c r="K195" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L195" t="n">
         <v>12.05000000000002</v>
@@ -10224,7 +10246,7 @@
         <v>13.59999999999999</v>
       </c>
       <c r="K196" t="n">
-        <v>9.090909090909092</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L196" t="n">
         <v>12.07000000000002</v>
@@ -10275,7 +10297,7 @@
         <v>13.59999999999999</v>
       </c>
       <c r="K197" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L197" t="n">
         <v>12.09000000000001</v>
@@ -10326,7 +10348,7 @@
         <v>13.69999999999999</v>
       </c>
       <c r="K198" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L198" t="n">
         <v>12.10000000000001</v>
@@ -10377,7 +10399,7 @@
         <v>13.79999999999999</v>
       </c>
       <c r="K199" t="n">
-        <v>27.27272727272727</v>
+        <v>20</v>
       </c>
       <c r="L199" t="n">
         <v>12.13000000000001</v>
@@ -10428,7 +10450,7 @@
         <v>13.79999999999999</v>
       </c>
       <c r="K200" t="n">
-        <v>11.11111111111111</v>
+        <v>50</v>
       </c>
       <c r="L200" t="n">
         <v>12.14000000000001</v>
@@ -10479,7 +10501,7 @@
         <v>13.79999999999999</v>
       </c>
       <c r="K201" t="n">
-        <v>11.11111111111111</v>
+        <v>50</v>
       </c>
       <c r="L201" t="n">
         <v>12.16000000000001</v>
@@ -10530,7 +10552,7 @@
         <v>13.79999999999999</v>
       </c>
       <c r="K202" t="n">
-        <v>11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L202" t="n">
         <v>12.18000000000001</v>
@@ -10581,7 +10603,7 @@
         <v>13.79999999999999</v>
       </c>
       <c r="K203" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L203" t="n">
         <v>12.19000000000001</v>
@@ -10632,7 +10654,7 @@
         <v>13.79999999999999</v>
       </c>
       <c r="K204" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L204" t="n">
         <v>12.19000000000001</v>
@@ -10683,7 +10705,7 @@
         <v>13.79999999999999</v>
       </c>
       <c r="K205" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L205" t="n">
         <v>12.19000000000001</v>
@@ -10734,7 +10756,7 @@
         <v>13.89999999999999</v>
       </c>
       <c r="K206" t="n">
-        <v>33.33333333333346</v>
+        <v>33.33333333333373</v>
       </c>
       <c r="L206" t="n">
         <v>12.20000000000001</v>
@@ -10785,7 +10807,7 @@
         <v>13.89999999999999</v>
       </c>
       <c r="K207" t="n">
-        <v>33.33333333333346</v>
+        <v>100</v>
       </c>
       <c r="L207" t="n">
         <v>12.21000000000001</v>
@@ -10836,7 +10858,7 @@
         <v>13.99999999999999</v>
       </c>
       <c r="K208" t="n">
-        <v>19.99999999999993</v>
+        <v>0</v>
       </c>
       <c r="L208" t="n">
         <v>12.22000000000001</v>
@@ -10887,7 +10909,7 @@
         <v>14.09999999999999</v>
       </c>
       <c r="K209" t="n">
-        <v>19.99999999999993</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L209" t="n">
         <v>12.21000000000001</v>
@@ -10938,7 +10960,7 @@
         <v>14.09999999999999</v>
       </c>
       <c r="K210" t="n">
-        <v>0</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L210" t="n">
         <v>12.20000000000001</v>
@@ -10989,7 +11011,7 @@
         <v>14.09999999999999</v>
       </c>
       <c r="K211" t="n">
-        <v>14.28571428571421</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L211" t="n">
         <v>12.19000000000001</v>
@@ -11040,7 +11062,7 @@
         <v>14.09999999999999</v>
       </c>
       <c r="K212" t="n">
-        <v>14.28571428571421</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L212" t="n">
         <v>12.18000000000001</v>
@@ -11091,7 +11113,7 @@
         <v>14.19999999999999</v>
       </c>
       <c r="K213" t="n">
-        <v>-14.28571428571421</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L213" t="n">
         <v>12.16000000000001</v>
@@ -11142,7 +11164,7 @@
         <v>14.29999999999999</v>
       </c>
       <c r="K214" t="n">
-        <v>-14.28571428571421</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L214" t="n">
         <v>12.15000000000001</v>
@@ -11193,7 +11215,7 @@
         <v>14.29999999999999</v>
       </c>
       <c r="K215" t="n">
-        <v>-14.28571428571421</v>
+        <v>-50.00000000000022</v>
       </c>
       <c r="L215" t="n">
         <v>12.14000000000001</v>
@@ -11244,7 +11266,7 @@
         <v>14.39999999999999</v>
       </c>
       <c r="K216" t="n">
-        <v>-24.99999999999989</v>
+        <v>-60.00000000000014</v>
       </c>
       <c r="L216" t="n">
         <v>12.11000000000001</v>
@@ -11295,7 +11317,7 @@
         <v>14.49999999999999</v>
       </c>
       <c r="K217" t="n">
-        <v>-11.11111111111107</v>
+        <v>-20</v>
       </c>
       <c r="L217" t="n">
         <v>12.09000000000001</v>
@@ -11346,7 +11368,7 @@
         <v>14.59999999999999</v>
       </c>
       <c r="K218" t="n">
-        <v>-11.11111111111107</v>
+        <v>-20</v>
       </c>
       <c r="L218" t="n">
         <v>12.07000000000001</v>
@@ -11397,7 +11419,7 @@
         <v>14.69999999999999</v>
       </c>
       <c r="K219" t="n">
-        <v>-11.11111111111107</v>
+        <v>0</v>
       </c>
       <c r="L219" t="n">
         <v>12.07000000000001</v>
@@ -11448,7 +11470,7 @@
         <v>14.69999999999999</v>
       </c>
       <c r="K220" t="n">
-        <v>-11.11111111111107</v>
+        <v>0</v>
       </c>
       <c r="L220" t="n">
         <v>12.07000000000001</v>
@@ -11499,7 +11521,7 @@
         <v>14.69999999999999</v>
       </c>
       <c r="K221" t="n">
-        <v>-11.11111111111107</v>
+        <v>0</v>
       </c>
       <c r="L221" t="n">
         <v>12.07000000000001</v>
@@ -11550,7 +11572,7 @@
         <v>14.79999999999999</v>
       </c>
       <c r="K222" t="n">
-        <v>-19.99999999999993</v>
+        <v>0</v>
       </c>
       <c r="L222" t="n">
         <v>12.06000000000001</v>
@@ -11601,7 +11623,7 @@
         <v>14.89999999999999</v>
       </c>
       <c r="K223" t="n">
-        <v>-9.090909090909062</v>
+        <v>0</v>
       </c>
       <c r="L223" t="n">
         <v>12.07000000000001</v>
@@ -11652,7 +11674,7 @@
         <v>14.99999999999999</v>
       </c>
       <c r="K224" t="n">
-        <v>-16.66666666666662</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L224" t="n">
         <v>12.06000000000001</v>
@@ -11703,7 +11725,7 @@
         <v>14.99999999999999</v>
       </c>
       <c r="K225" t="n">
-        <v>-16.66666666666662</v>
+        <v>0</v>
       </c>
       <c r="L225" t="n">
         <v>12.05000000000001</v>
@@ -11754,7 +11776,7 @@
         <v>15.09999999999999</v>
       </c>
       <c r="K226" t="n">
-        <v>-16.66666666666679</v>
+        <v>0</v>
       </c>
       <c r="L226" t="n">
         <v>12.06000000000001</v>
@@ -11805,7 +11827,7 @@
         <v>15.09999999999999</v>
       </c>
       <c r="K227" t="n">
-        <v>-16.66666666666679</v>
+        <v>20</v>
       </c>
       <c r="L227" t="n">
         <v>12.06000000000001</v>
@@ -11856,7 +11878,7 @@
         <v>15.09999999999999</v>
       </c>
       <c r="K228" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L228" t="n">
         <v>12.07000000000001</v>
@@ -11907,7 +11929,7 @@
         <v>15.29999999999999</v>
       </c>
       <c r="K229" t="n">
-        <v>16.66666666666679</v>
+        <v>33.33333333333353</v>
       </c>
       <c r="L229" t="n">
         <v>12.09000000000001</v>
@@ -11958,7 +11980,7 @@
         <v>15.29999999999999</v>
       </c>
       <c r="K230" t="n">
-        <v>16.66666666666679</v>
+        <v>33.33333333333353</v>
       </c>
       <c r="L230" t="n">
         <v>12.11000000000001</v>
@@ -12009,7 +12031,7 @@
         <v>15.29999999999999</v>
       </c>
       <c r="K231" t="n">
-        <v>16.66666666666679</v>
+        <v>60.00000000000014</v>
       </c>
       <c r="L231" t="n">
         <v>12.13000000000001</v>
@@ -12060,7 +12082,7 @@
         <v>15.39999999999999</v>
       </c>
       <c r="K232" t="n">
-        <v>7.692307692307672</v>
+        <v>19.99999999999986</v>
       </c>
       <c r="L232" t="n">
         <v>12.15000000000001</v>
@@ -12111,7 +12133,7 @@
         <v>15.39999999999999</v>
       </c>
       <c r="K233" t="n">
-        <v>16.66666666666662</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L233" t="n">
         <v>12.16000000000001</v>
@@ -12162,7 +12184,7 @@
         <v>15.49999999999999</v>
       </c>
       <c r="K234" t="n">
-        <v>0</v>
+        <v>19.99999999999986</v>
       </c>
       <c r="L234" t="n">
         <v>12.17000000000001</v>
@@ -12213,7 +12235,7 @@
         <v>15.59999999999999</v>
       </c>
       <c r="K235" t="n">
-        <v>7.692307692307672</v>
+        <v>19.99999999999986</v>
       </c>
       <c r="L235" t="n">
         <v>12.19000000000001</v>
@@ -12264,7 +12286,7 @@
         <v>15.59999999999999</v>
       </c>
       <c r="K236" t="n">
-        <v>16.66666666666662</v>
+        <v>19.99999999999986</v>
       </c>
       <c r="L236" t="n">
         <v>12.20000000000001</v>
@@ -12315,7 +12337,7 @@
         <v>15.59999999999999</v>
       </c>
       <c r="K237" t="n">
-        <v>9.090909090909062</v>
+        <v>19.99999999999986</v>
       </c>
       <c r="L237" t="n">
         <v>12.21000000000001</v>
@@ -12366,7 +12388,7 @@
         <v>15.69999999999999</v>
       </c>
       <c r="K238" t="n">
-        <v>27.27272727272731</v>
+        <v>0</v>
       </c>
       <c r="L238" t="n">
         <v>12.23000000000001</v>
@@ -12417,7 +12439,7 @@
         <v>15.69999999999999</v>
       </c>
       <c r="K239" t="n">
-        <v>20.00000000000007</v>
+        <v>0</v>
       </c>
       <c r="L239" t="n">
         <v>12.23000000000001</v>
@@ -12468,7 +12490,7 @@
         <v>15.69999999999999</v>
       </c>
       <c r="K240" t="n">
-        <v>20.00000000000007</v>
+        <v>0</v>
       </c>
       <c r="L240" t="n">
         <v>12.23000000000001</v>
@@ -12519,7 +12541,7 @@
         <v>15.79999999999999</v>
       </c>
       <c r="K241" t="n">
-        <v>27.27272727272731</v>
+        <v>50.00000000000022</v>
       </c>
       <c r="L241" t="n">
         <v>12.24000000000001</v>
@@ -12570,7 +12592,7 @@
         <v>15.79999999999999</v>
       </c>
       <c r="K242" t="n">
-        <v>39.99999999999996</v>
+        <v>50.00000000000022</v>
       </c>
       <c r="L242" t="n">
         <v>12.26000000000001</v>
@@ -12621,7 +12643,7 @@
         <v>15.99999999999999</v>
       </c>
       <c r="K243" t="n">
-        <v>45.4545454545454</v>
+        <v>100</v>
       </c>
       <c r="L243" t="n">
         <v>12.30000000000001</v>
@@ -12672,7 +12694,7 @@
         <v>16.19999999999999</v>
       </c>
       <c r="K244" t="n">
-        <v>33.33333333333338</v>
+        <v>33.33333333333363</v>
       </c>
       <c r="L244" t="n">
         <v>12.33000000000001</v>
@@ -12723,7 +12745,7 @@
         <v>16.29999999999999</v>
       </c>
       <c r="K245" t="n">
-        <v>38.46153846153844</v>
+        <v>42.857142857143</v>
       </c>
       <c r="L245" t="n">
         <v>12.36000000000001</v>
@@ -12774,7 +12796,7 @@
         <v>16.39999999999999</v>
       </c>
       <c r="K246" t="n">
-        <v>38.46153846153839</v>
+        <v>50</v>
       </c>
       <c r="L246" t="n">
         <v>12.40000000000001</v>
@@ -12825,7 +12847,7 @@
         <v>16.39999999999999</v>
       </c>
       <c r="K247" t="n">
-        <v>38.46153846153839</v>
+        <v>42.85714285714275</v>
       </c>
       <c r="L247" t="n">
         <v>12.44000000000001</v>
@@ -12876,7 +12898,7 @@
         <v>16.39999999999999</v>
       </c>
       <c r="K248" t="n">
-        <v>38.46153846153839</v>
+        <v>42.85714285714275</v>
       </c>
       <c r="L248" t="n">
         <v>12.47000000000001</v>
@@ -12927,7 +12949,7 @@
         <v>16.39999999999999</v>
       </c>
       <c r="K249" t="n">
-        <v>27.27272727272714</v>
+        <v>42.85714285714275</v>
       </c>
       <c r="L249" t="n">
         <v>12.50000000000002</v>
@@ -12978,7 +13000,7 @@
         <v>16.39999999999999</v>
       </c>
       <c r="K250" t="n">
-        <v>27.27272727272714</v>
+        <v>33.33333333333324</v>
       </c>
       <c r="L250" t="n">
         <v>12.53000000000002</v>
@@ -13029,7 +13051,7 @@
         <v>16.39999999999999</v>
       </c>
       <c r="K251" t="n">
-        <v>27.27272727272714</v>
+        <v>33.33333333333324</v>
       </c>
       <c r="L251" t="n">
         <v>12.55000000000002</v>
@@ -13080,7 +13102,7 @@
         <v>16.69999999999999</v>
       </c>
       <c r="K252" t="n">
-        <v>7.692307692307819</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L252" t="n">
         <v>12.54000000000002</v>
@@ -13131,7 +13153,7 @@
         <v>16.99999999999999</v>
       </c>
       <c r="K253" t="n">
-        <v>25.00000000000011</v>
+        <v>25</v>
       </c>
       <c r="L253" t="n">
         <v>12.54000000000002</v>
@@ -13182,7 +13204,7 @@
         <v>16.99999999999999</v>
       </c>
       <c r="K254" t="n">
-        <v>33.33333333333346</v>
+        <v>14.28571428571432</v>
       </c>
       <c r="L254" t="n">
         <v>12.56000000000002</v>
@@ -13233,7 +13255,7 @@
         <v>16.99999999999999</v>
       </c>
       <c r="K255" t="n">
-        <v>28.5714285714287</v>
+        <v>0</v>
       </c>
       <c r="L255" t="n">
         <v>12.57000000000002</v>
@@ -13284,7 +13306,7 @@
         <v>17.09999999999999</v>
       </c>
       <c r="K256" t="n">
-        <v>20.0000000000001</v>
+        <v>-14.28571428571432</v>
       </c>
       <c r="L256" t="n">
         <v>12.56000000000002</v>
@@ -13335,7 +13357,7 @@
         <v>17.09999999999999</v>
       </c>
       <c r="K257" t="n">
-        <v>20.0000000000001</v>
+        <v>-14.28571428571432</v>
       </c>
       <c r="L257" t="n">
         <v>12.55000000000002</v>
@@ -13386,7 +13408,7 @@
         <v>17.09999999999999</v>
       </c>
       <c r="K258" t="n">
-        <v>14.28571428571428</v>
+        <v>-14.28571428571432</v>
       </c>
       <c r="L258" t="n">
         <v>12.54000000000002</v>
@@ -13437,7 +13459,7 @@
         <v>17.39999999999999</v>
       </c>
       <c r="K259" t="n">
-        <v>-5.882352941176569</v>
+        <v>-40.00000000000018</v>
       </c>
       <c r="L259" t="n">
         <v>12.50000000000002</v>
@@ -13488,7 +13510,7 @@
         <v>17.39999999999999</v>
       </c>
       <c r="K260" t="n">
-        <v>-5.882352941176569</v>
+        <v>-40.00000000000018</v>
       </c>
       <c r="L260" t="n">
         <v>12.46000000000002</v>
@@ -13539,7 +13561,7 @@
         <v>17.39999999999999</v>
       </c>
       <c r="K261" t="n">
-        <v>-12.5000000000001</v>
+        <v>-14.2857142857145</v>
       </c>
       <c r="L261" t="n">
         <v>12.42000000000002</v>
@@ -13590,7 +13612,7 @@
         <v>17.39999999999999</v>
       </c>
       <c r="K262" t="n">
-        <v>-12.5000000000001</v>
+        <v>-99.99999999999956</v>
       </c>
       <c r="L262" t="n">
         <v>12.41000000000001</v>
@@ -13641,7 +13663,7 @@
         <v>17.39999999999999</v>
       </c>
       <c r="K263" t="n">
-        <v>-28.57142857142867</v>
+        <v>-99.99999999999956</v>
       </c>
       <c r="L263" t="n">
         <v>12.37000000000002</v>
@@ -13692,7 +13714,7 @@
         <v>17.39999999999999</v>
       </c>
       <c r="K264" t="n">
-        <v>-16.66666666666677</v>
+        <v>-99.99999999999956</v>
       </c>
       <c r="L264" t="n">
         <v>12.33000000000002</v>
@@ -13743,7 +13765,7 @@
         <v>17.39999999999999</v>
       </c>
       <c r="K265" t="n">
-        <v>-27.27272727272739</v>
+        <v>-100</v>
       </c>
       <c r="L265" t="n">
         <v>12.29000000000002</v>
@@ -13794,7 +13816,7 @@
         <v>17.49999999999999</v>
       </c>
       <c r="K266" t="n">
-        <v>-27.27272727272723</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L266" t="n">
         <v>12.27000000000002</v>
@@ -13845,7 +13867,7 @@
         <v>17.49999999999999</v>
       </c>
       <c r="K267" t="n">
-        <v>-27.27272727272723</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L267" t="n">
         <v>12.25000000000002</v>
@@ -13896,7 +13918,7 @@
         <v>17.59999999999999</v>
       </c>
       <c r="K268" t="n">
-        <v>-33.33333333333338</v>
+        <v>0</v>
       </c>
       <c r="L268" t="n">
         <v>12.22000000000002</v>
@@ -13947,7 +13969,7 @@
         <v>17.69999999999999</v>
       </c>
       <c r="K269" t="n">
-        <v>-23.07692307692298</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L269" t="n">
         <v>12.23000000000002</v>
@@ -13998,7 +14020,7 @@
         <v>17.69999999999999</v>
       </c>
       <c r="K270" t="n">
-        <v>-23.07692307692298</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L270" t="n">
         <v>12.24000000000002</v>
@@ -14049,7 +14071,7 @@
         <v>17.69999999999999</v>
       </c>
       <c r="K271" t="n">
-        <v>-23.07692307692298</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L271" t="n">
         <v>12.25000000000002</v>
@@ -14100,7 +14122,7 @@
         <v>17.89999999999999</v>
       </c>
       <c r="K272" t="n">
-        <v>-16.66666666666671</v>
+        <v>-19.99999999999979</v>
       </c>
       <c r="L272" t="n">
         <v>12.24000000000002</v>
@@ -14151,7 +14173,7 @@
         <v>17.89999999999999</v>
       </c>
       <c r="K273" t="n">
-        <v>-55.5555555555552</v>
+        <v>-19.99999999999979</v>
       </c>
       <c r="L273" t="n">
         <v>12.23000000000002</v>
@@ -14202,7 +14224,7 @@
         <v>18.09999999999999</v>
       </c>
       <c r="K274" t="n">
-        <v>-27.27272727272696</v>
+        <v>14.28571428571436</v>
       </c>
       <c r="L274" t="n">
         <v>12.24000000000002</v>
@@ -14253,7 +14275,7 @@
         <v>18.09999999999999</v>
       </c>
       <c r="K275" t="n">
-        <v>-27.27272727272696</v>
+        <v>0</v>
       </c>
       <c r="L275" t="n">
         <v>12.25000000000002</v>
@@ -14304,7 +14326,7 @@
         <v>18.2</v>
       </c>
       <c r="K276" t="n">
-        <v>-27.27272727272713</v>
+        <v>-14.28571428571436</v>
       </c>
       <c r="L276" t="n">
         <v>12.24000000000002</v>
@@ -14355,7 +14377,7 @@
         <v>18.4</v>
       </c>
       <c r="K277" t="n">
-        <v>-7.692307692307598</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L277" t="n">
         <v>12.25000000000002</v>
@@ -14406,7 +14428,7 @@
         <v>18.5</v>
       </c>
       <c r="K278" t="n">
-        <v>-14.28571428571411</v>
+        <v>0</v>
       </c>
       <c r="L278" t="n">
         <v>12.26000000000002</v>
@@ -14457,7 +14479,7 @@
         <v>18.5</v>
       </c>
       <c r="K279" t="n">
-        <v>9.09090909090912</v>
+        <v>0</v>
       </c>
       <c r="L279" t="n">
         <v>12.26000000000002</v>
@@ -14508,7 +14530,7 @@
         <v>18.7</v>
       </c>
       <c r="K280" t="n">
-        <v>23.07692307692293</v>
+        <v>19.99999999999979</v>
       </c>
       <c r="L280" t="n">
         <v>12.28000000000001</v>
@@ -14559,7 +14581,7 @@
         <v>18.8</v>
       </c>
       <c r="K281" t="n">
-        <v>14.28571428571427</v>
+        <v>33.3333333333332</v>
       </c>
       <c r="L281" t="n">
         <v>12.29000000000001</v>
@@ -14610,7 +14632,7 @@
         <v>18.8</v>
       </c>
       <c r="K282" t="n">
-        <v>14.28571428571427</v>
+        <v>33.3333333333332</v>
       </c>
       <c r="L282" t="n">
         <v>12.32000000000001</v>
@@ -14661,7 +14683,7 @@
         <v>18.9</v>
       </c>
       <c r="K283" t="n">
-        <v>6.666666666666714</v>
+        <v>0</v>
       </c>
       <c r="L283" t="n">
         <v>12.34000000000001</v>
@@ -14712,7 +14734,7 @@
         <v>19.1</v>
       </c>
       <c r="K284" t="n">
-        <v>17.64705882352935</v>
+        <v>19.99999999999986</v>
       </c>
       <c r="L284" t="n">
         <v>12.36000000000002</v>
@@ -14763,7 +14785,7 @@
         <v>19.1</v>
       </c>
       <c r="K285" t="n">
-        <v>17.64705882352935</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L285" t="n">
         <v>12.38000000000001</v>
@@ -14814,7 +14836,7 @@
         <v>19.4</v>
       </c>
       <c r="K286" t="n">
-        <v>-5.263157894736891</v>
+        <v>-20.00000000000011</v>
       </c>
       <c r="L286" t="n">
         <v>12.38000000000001</v>
@@ -14916,7 +14938,7 @@
         <v>19.6</v>
       </c>
       <c r="K288" t="n">
-        <v>0</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L288" t="n">
         <v>12.36000000000001</v>
@@ -14967,7 +14989,7 @@
         <v>19.6</v>
       </c>
       <c r="K289" t="n">
-        <v>-5.263157894736891</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L289" t="n">
         <v>12.35000000000001</v>
@@ -15018,7 +15040,7 @@
         <v>19.8</v>
       </c>
       <c r="K290" t="n">
-        <v>4.761904761904718</v>
+        <v>0</v>
       </c>
       <c r="L290" t="n">
         <v>12.34000000000001</v>
@@ -15069,7 +15091,7 @@
         <v>19.90000000000001</v>
       </c>
       <c r="K291" t="n">
-        <v>0</v>
+        <v>-9.090909090908989</v>
       </c>
       <c r="L291" t="n">
         <v>12.33000000000001</v>
@@ -15120,7 +15142,7 @@
         <v>20.00000000000001</v>
       </c>
       <c r="K292" t="n">
-        <v>14.28571428571421</v>
+        <v>9.090909090908989</v>
       </c>
       <c r="L292" t="n">
         <v>12.33000000000001</v>
@@ -15171,7 +15193,7 @@
         <v>20.10000000000001</v>
       </c>
       <c r="K293" t="n">
-        <v>18.18181818181806</v>
+        <v>0</v>
       </c>
       <c r="L293" t="n">
         <v>12.35000000000001</v>
@@ -15222,7 +15244,7 @@
         <v>20.20000000000001</v>
       </c>
       <c r="K294" t="n">
-        <v>14.28571428571413</v>
+        <v>9.090909090908958</v>
       </c>
       <c r="L294" t="n">
         <v>12.36000000000001</v>
@@ -15273,7 +15295,7 @@
         <v>20.30000000000001</v>
       </c>
       <c r="K295" t="n">
-        <v>9.090909090908989</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L295" t="n">
         <v>12.36000000000001</v>
@@ -15324,7 +15346,7 @@
         <v>20.30000000000001</v>
       </c>
       <c r="K296" t="n">
-        <v>14.28571428571421</v>
+        <v>24.99999999999956</v>
       </c>
       <c r="L296" t="n">
         <v>12.39000000000001</v>
@@ -15375,7 +15397,7 @@
         <v>20.40000000000001</v>
       </c>
       <c r="K297" t="n">
-        <v>0</v>
+        <v>24.99999999999978</v>
       </c>
       <c r="L297" t="n">
         <v>12.40000000000001</v>
@@ -15426,7 +15448,7 @@
         <v>20.50000000000001</v>
       </c>
       <c r="K298" t="n">
-        <v>9.999999999999893</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L298" t="n">
         <v>12.43000000000001</v>
@@ -15477,7 +15499,7 @@
         <v>20.60000000000002</v>
       </c>
       <c r="K299" t="n">
-        <v>4.761904761904709</v>
+        <v>0</v>
       </c>
       <c r="L299" t="n">
         <v>12.45000000000001</v>
@@ -15528,7 +15550,7 @@
         <v>20.70000000000002</v>
       </c>
       <c r="K300" t="n">
-        <v>-9.999999999999876</v>
+        <v>0</v>
       </c>
       <c r="L300" t="n">
         <v>12.44000000000001</v>
@@ -15630,7 +15652,7 @@
         <v>20.80000000000002</v>
       </c>
       <c r="K302" t="n">
-        <v>0</v>
+        <v>-14.28571428571403</v>
       </c>
       <c r="L302" t="n">
         <v>12.45000000000001</v>
@@ -15681,7 +15703,7 @@
         <v>20.80000000000002</v>
       </c>
       <c r="K303" t="n">
-        <v>5.263157894736768</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L303" t="n">
         <v>12.44000000000001</v>
@@ -15732,7 +15754,7 @@
         <v>20.80000000000002</v>
       </c>
       <c r="K304" t="n">
-        <v>-5.882352941176379</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L304" t="n">
         <v>12.42000000000001</v>
@@ -15783,7 +15805,7 @@
         <v>21.00000000000002</v>
       </c>
       <c r="K305" t="n">
-        <v>5.263157894736768</v>
+        <v>14.28571428571411</v>
       </c>
       <c r="L305" t="n">
         <v>12.43000000000001</v>
@@ -15834,7 +15856,7 @@
         <v>21.20000000000002</v>
       </c>
       <c r="K306" t="n">
-        <v>11.11111111111106</v>
+        <v>0</v>
       </c>
       <c r="L306" t="n">
         <v>12.42000000000001</v>
@@ -15885,7 +15907,7 @@
         <v>21.40000000000002</v>
       </c>
       <c r="K307" t="n">
-        <v>15.78947368421033</v>
+        <v>11.11111111111104</v>
       </c>
       <c r="L307" t="n">
         <v>12.44000000000001</v>
@@ -15936,7 +15958,7 @@
         <v>21.60000000000002</v>
       </c>
       <c r="K308" t="n">
-        <v>9.999999999999982</v>
+        <v>0</v>
       </c>
       <c r="L308" t="n">
         <v>12.43000000000001</v>
@@ -15987,7 +16009,7 @@
         <v>21.70000000000002</v>
       </c>
       <c r="K309" t="n">
-        <v>4.761904761904794</v>
+        <v>0</v>
       </c>
       <c r="L309" t="n">
         <v>12.42000000000001</v>
@@ -16038,7 +16060,7 @@
         <v>21.70000000000002</v>
       </c>
       <c r="K310" t="n">
-        <v>-5.263157894736787</v>
+        <v>-11.11111111111109</v>
       </c>
       <c r="L310" t="n">
         <v>12.42000000000001</v>
@@ -16089,7 +16111,7 @@
         <v>21.80000000000002</v>
       </c>
       <c r="K311" t="n">
-        <v>5.263157894736787</v>
+        <v>0</v>
       </c>
       <c r="L311" t="n">
         <v>12.42000000000001</v>
@@ -16140,7 +16162,7 @@
         <v>22.00000000000002</v>
       </c>
       <c r="K312" t="n">
-        <v>-9.999999999999982</v>
+        <v>-16.66666666666671</v>
       </c>
       <c r="L312" t="n">
         <v>12.40000000000001</v>
@@ -16191,7 +16213,7 @@
         <v>22.10000000000002</v>
       </c>
       <c r="K313" t="n">
-        <v>-9.999999999999893</v>
+        <v>-7.69230769230764</v>
       </c>
       <c r="L313" t="n">
         <v>12.39000000000001</v>
@@ -16242,7 +16264,7 @@
         <v>22.10000000000002</v>
       </c>
       <c r="K314" t="n">
-        <v>-15.78947368421036</v>
+        <v>-27.27272727272705</v>
       </c>
       <c r="L314" t="n">
         <v>12.38000000000001</v>
@@ -16344,7 +16366,7 @@
         <v>22.10000000000002</v>
       </c>
       <c r="K316" t="n">
-        <v>-11.111111111111</v>
+        <v>-42.85714285714231</v>
       </c>
       <c r="L316" t="n">
         <v>12.34000000000001</v>
@@ -16395,7 +16417,7 @@
         <v>22.20000000000002</v>
       </c>
       <c r="K317" t="n">
-        <v>-11.1111111111111</v>
+        <v>-33.33333333333304</v>
       </c>
       <c r="L317" t="n">
         <v>12.30000000000001</v>
@@ -16446,7 +16468,7 @@
         <v>22.50000000000002</v>
       </c>
       <c r="K318" t="n">
-        <v>0</v>
+        <v>24.99999999999967</v>
       </c>
       <c r="L318" t="n">
         <v>12.31000000000001</v>
@@ -16497,7 +16519,7 @@
         <v>22.50000000000002</v>
       </c>
       <c r="K319" t="n">
-        <v>5.263157894736798</v>
+        <v>24.99999999999967</v>
       </c>
       <c r="L319" t="n">
         <v>12.33000000000001</v>
@@ -16548,7 +16570,7 @@
         <v>22.50000000000002</v>
       </c>
       <c r="K320" t="n">
-        <v>11.11111111111102</v>
+        <v>14.28571428571411</v>
       </c>
       <c r="L320" t="n">
         <v>12.35000000000001</v>
@@ -16599,7 +16621,7 @@
         <v>22.50000000000002</v>
       </c>
       <c r="K321" t="n">
-        <v>5.882352941176427</v>
+        <v>59.99999999999972</v>
       </c>
       <c r="L321" t="n">
         <v>12.36000000000001</v>
@@ -16650,7 +16672,7 @@
         <v>22.70000000000002</v>
       </c>
       <c r="K322" t="n">
-        <v>-5.263157894736808</v>
+        <v>0</v>
       </c>
       <c r="L322" t="n">
         <v>12.37000000000001</v>
@@ -16701,7 +16723,7 @@
         <v>22.90000000000003</v>
       </c>
       <c r="K323" t="n">
-        <v>-14.28571428571426</v>
+        <v>-25</v>
       </c>
       <c r="L323" t="n">
         <v>12.35000000000001</v>
@@ -16752,7 +16774,7 @@
         <v>22.90000000000003</v>
       </c>
       <c r="K324" t="n">
-        <v>-14.28571428571426</v>
+        <v>-25</v>
       </c>
       <c r="L324" t="n">
         <v>12.33000000000001</v>
@@ -16803,7 +16825,7 @@
         <v>23.00000000000003</v>
       </c>
       <c r="K325" t="n">
-        <v>-19.99999999999991</v>
+        <v>-11.1111111111112</v>
       </c>
       <c r="L325" t="n">
         <v>12.32000000000001</v>
@@ -16854,7 +16876,7 @@
         <v>23.00000000000003</v>
       </c>
       <c r="K326" t="n">
-        <v>-11.1111111111111</v>
+        <v>0</v>
       </c>
       <c r="L326" t="n">
         <v>12.31000000000001</v>
@@ -16905,7 +16927,7 @@
         <v>23.10000000000003</v>
       </c>
       <c r="K327" t="n">
-        <v>-29.41176470588212</v>
+        <v>-66.66666666666617</v>
       </c>
       <c r="L327" t="n">
         <v>12.30000000000001</v>
@@ -16956,7 +16978,7 @@
         <v>23.20000000000003</v>
       </c>
       <c r="K328" t="n">
-        <v>-24.99999999999978</v>
+        <v>-71.42857142857078</v>
       </c>
       <c r="L328" t="n">
         <v>12.25000000000002</v>
@@ -17007,7 +17029,7 @@
         <v>23.20000000000003</v>
       </c>
       <c r="K329" t="n">
-        <v>-19.99999999999986</v>
+        <v>-71.42857142857078</v>
       </c>
       <c r="L329" t="n">
         <v>12.20000000000002</v>
@@ -17058,7 +17080,7 @@
         <v>23.20000000000003</v>
       </c>
       <c r="K330" t="n">
-        <v>-19.99999999999986</v>
+        <v>-71.42857142857078</v>
       </c>
       <c r="L330" t="n">
         <v>12.15000000000002</v>
@@ -17109,7 +17131,7 @@
         <v>23.20000000000003</v>
       </c>
       <c r="K331" t="n">
-        <v>-28.57142857142833</v>
+        <v>-59.99999999999929</v>
       </c>
       <c r="L331" t="n">
         <v>12.10000000000002</v>
@@ -17160,7 +17182,7 @@
         <v>23.30000000000003</v>
       </c>
       <c r="K332" t="n">
-        <v>-7.692307692307598</v>
+        <v>0</v>
       </c>
       <c r="L332" t="n">
         <v>12.08000000000002</v>
@@ -17211,7 +17233,7 @@
         <v>23.30000000000003</v>
       </c>
       <c r="K333" t="n">
-        <v>-16.66666666666662</v>
+        <v>0</v>
       </c>
       <c r="L333" t="n">
         <v>12.08000000000002</v>
@@ -17262,7 +17284,7 @@
         <v>23.30000000000003</v>
       </c>
       <c r="K334" t="n">
-        <v>-16.66666666666662</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L334" t="n">
         <v>12.08000000000002</v>
@@ -17313,7 +17335,7 @@
         <v>23.30000000000003</v>
       </c>
       <c r="K335" t="n">
-        <v>-16.66666666666662</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L335" t="n">
         <v>12.07000000000002</v>
@@ -17364,7 +17386,7 @@
         <v>23.30000000000003</v>
       </c>
       <c r="K336" t="n">
-        <v>-16.66666666666662</v>
+        <v>0</v>
       </c>
       <c r="L336" t="n">
         <v>12.06000000000002</v>
@@ -17415,7 +17437,7 @@
         <v>23.40000000000003</v>
       </c>
       <c r="K337" t="n">
-        <v>0</v>
+        <v>99.99999999999822</v>
       </c>
       <c r="L337" t="n">
         <v>12.07000000000002</v>
@@ -17466,7 +17488,7 @@
         <v>23.40000000000003</v>
       </c>
       <c r="K338" t="n">
-        <v>-33.33333333333307</v>
+        <v>99.99999999999822</v>
       </c>
       <c r="L338" t="n">
         <v>12.09000000000002</v>
@@ -17517,7 +17539,7 @@
         <v>23.50000000000004</v>
       </c>
       <c r="K339" t="n">
-        <v>-39.99999999999961</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L339" t="n">
         <v>12.10000000000002</v>
@@ -17568,7 +17590,7 @@
         <v>23.50000000000004</v>
       </c>
       <c r="K340" t="n">
-        <v>-39.99999999999961</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L340" t="n">
         <v>12.11000000000002</v>
@@ -17619,7 +17641,7 @@
         <v>23.50000000000004</v>
       </c>
       <c r="K341" t="n">
-        <v>-39.99999999999961</v>
+        <v>0</v>
       </c>
       <c r="L341" t="n">
         <v>12.12000000000002</v>
@@ -17670,7 +17692,7 @@
         <v>23.60000000000004</v>
       </c>
       <c r="K342" t="n">
-        <v>-33.33333333333294</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L342" t="n">
         <v>12.11000000000002</v>
@@ -17721,7 +17743,7 @@
         <v>23.60000000000004</v>
       </c>
       <c r="K343" t="n">
-        <v>-14.28571428571403</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L343" t="n">
         <v>12.10000000000002</v>
@@ -17772,7 +17794,7 @@
         <v>23.60000000000004</v>
       </c>
       <c r="K344" t="n">
-        <v>-14.28571428571403</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L344" t="n">
         <v>12.09000000000002</v>
@@ -17823,7 +17845,7 @@
         <v>23.80000000000004</v>
       </c>
       <c r="K345" t="n">
-        <v>0</v>
+        <v>19.99999999999979</v>
       </c>
       <c r="L345" t="n">
         <v>12.10000000000002</v>
@@ -17925,7 +17947,7 @@
         <v>23.90000000000003</v>
       </c>
       <c r="K347" t="n">
-        <v>0</v>
+        <v>-19.99999999999993</v>
       </c>
       <c r="L347" t="n">
         <v>12.10000000000002</v>
@@ -17976,7 +17998,7 @@
         <v>24.00000000000004</v>
       </c>
       <c r="K348" t="n">
-        <v>0</v>
+        <v>-19.99999999999993</v>
       </c>
       <c r="L348" t="n">
         <v>12.08000000000002</v>
@@ -18027,7 +18049,7 @@
         <v>24.00000000000004</v>
       </c>
       <c r="K349" t="n">
-        <v>0</v>
+        <v>-19.99999999999993</v>
       </c>
       <c r="L349" t="n">
         <v>12.07000000000002</v>
@@ -18078,7 +18100,7 @@
         <v>24.00000000000004</v>
       </c>
       <c r="K350" t="n">
-        <v>0</v>
+        <v>-19.99999999999993</v>
       </c>
       <c r="L350" t="n">
         <v>12.06000000000002</v>
@@ -18129,7 +18151,7 @@
         <v>24.10000000000004</v>
       </c>
       <c r="K351" t="n">
-        <v>11.111111111111</v>
+        <v>19.99999999999993</v>
       </c>
       <c r="L351" t="n">
         <v>12.06000000000002</v>
@@ -18180,7 +18202,7 @@
         <v>24.10000000000004</v>
       </c>
       <c r="K352" t="n">
-        <v>0</v>
+        <v>19.99999999999993</v>
       </c>
       <c r="L352" t="n">
         <v>12.07000000000002</v>
@@ -18231,7 +18253,7 @@
         <v>24.10000000000004</v>
       </c>
       <c r="K353" t="n">
-        <v>0</v>
+        <v>19.99999999999993</v>
       </c>
       <c r="L353" t="n">
         <v>12.08000000000002</v>
@@ -18282,7 +18304,7 @@
         <v>24.20000000000004</v>
       </c>
       <c r="K354" t="n">
-        <v>11.111111111111</v>
+        <v>0</v>
       </c>
       <c r="L354" t="n">
         <v>12.10000000000002</v>
@@ -18333,7 +18355,7 @@
         <v>24.20000000000004</v>
       </c>
       <c r="K355" t="n">
-        <v>11.111111111111</v>
+        <v>0</v>
       </c>
       <c r="L355" t="n">
         <v>12.10000000000002</v>
@@ -18384,7 +18406,7 @@
         <v>24.20000000000004</v>
       </c>
       <c r="K356" t="n">
-        <v>11.111111111111</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L356" t="n">
         <v>12.10000000000002</v>
@@ -18435,7 +18457,7 @@
         <v>24.30000000000004</v>
       </c>
       <c r="K357" t="n">
-        <v>-11.111111111111</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L357" t="n">
         <v>12.10000000000002</v>
@@ -18486,7 +18508,7 @@
         <v>24.30000000000004</v>
       </c>
       <c r="K358" t="n">
-        <v>-11.111111111111</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L358" t="n">
         <v>12.11000000000002</v>
@@ -18537,7 +18559,7 @@
         <v>24.40000000000004</v>
       </c>
       <c r="K359" t="n">
-        <v>11.111111111111</v>
+        <v>49.99999999999911</v>
       </c>
       <c r="L359" t="n">
         <v>12.13000000000001</v>
@@ -18588,7 +18610,7 @@
         <v>24.40000000000004</v>
       </c>
       <c r="K360" t="n">
-        <v>11.111111111111</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L360" t="n">
         <v>12.15000000000001</v>
@@ -18639,7 +18661,7 @@
         <v>24.40000000000004</v>
       </c>
       <c r="K361" t="n">
-        <v>11.111111111111</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L361" t="n">
         <v>12.16000000000001</v>
@@ -18690,7 +18712,7 @@
         <v>24.50000000000004</v>
       </c>
       <c r="K362" t="n">
-        <v>33.3333333333332</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L362" t="n">
         <v>12.18000000000002</v>
@@ -18741,7 +18763,7 @@
         <v>24.50000000000004</v>
       </c>
       <c r="K363" t="n">
-        <v>33.3333333333332</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L363" t="n">
         <v>12.20000000000002</v>
@@ -18792,7 +18814,7 @@
         <v>24.60000000000004</v>
       </c>
       <c r="K364" t="n">
-        <v>39.99999999999975</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L364" t="n">
         <v>12.22000000000002</v>
@@ -18843,7 +18865,7 @@
         <v>24.60000000000004</v>
       </c>
       <c r="K365" t="n">
-        <v>24.99999999999989</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L365" t="n">
         <v>12.24000000000002</v>
@@ -18894,7 +18916,7 @@
         <v>24.60000000000004</v>
       </c>
       <c r="K366" t="n">
-        <v>24.99999999999989</v>
+        <v>99.99999999999881</v>
       </c>
       <c r="L366" t="n">
         <v>12.26000000000002</v>
@@ -18945,7 +18967,7 @@
         <v>24.70000000000005</v>
       </c>
       <c r="K367" t="n">
-        <v>49.99999999999933</v>
+        <v>99.99999999999866</v>
       </c>
       <c r="L367" t="n">
         <v>12.30000000000001</v>
@@ -18996,7 +19018,7 @@
         <v>24.80000000000005</v>
       </c>
       <c r="K368" t="n">
-        <v>74.99999999999889</v>
+        <v>99.99999999999866</v>
       </c>
       <c r="L368" t="n">
         <v>12.35000000000001</v>
@@ -19047,7 +19069,7 @@
         <v>24.80000000000005</v>
       </c>
       <c r="K369" t="n">
-        <v>74.99999999999889</v>
+        <v>99.99999999999866</v>
       </c>
       <c r="L369" t="n">
         <v>12.39000000000001</v>
@@ -19098,7 +19120,7 @@
         <v>24.80000000000005</v>
       </c>
       <c r="K370" t="n">
-        <v>74.99999999999889</v>
+        <v>99.99999999999866</v>
       </c>
       <c r="L370" t="n">
         <v>12.43000000000001</v>
@@ -19149,7 +19171,7 @@
         <v>24.80000000000005</v>
       </c>
       <c r="K371" t="n">
-        <v>71.42857142857041</v>
+        <v>99.99999999999822</v>
       </c>
       <c r="L371" t="n">
         <v>12.47000000000001</v>
@@ -19200,7 +19222,7 @@
         <v>25.00000000000005</v>
       </c>
       <c r="K372" t="n">
-        <v>33.33333333333307</v>
+        <v>19.99999999999979</v>
       </c>
       <c r="L372" t="n">
         <v>12.48000000000001</v>
@@ -19251,7 +19273,7 @@
         <v>25.10000000000004</v>
       </c>
       <c r="K373" t="n">
-        <v>19.99999999999996</v>
+        <v>-19.99999999999993</v>
       </c>
       <c r="L373" t="n">
         <v>12.48000000000001</v>
@@ -19302,7 +19324,7 @@
         <v>25.20000000000005</v>
       </c>
       <c r="K374" t="n">
-        <v>19.99999999999996</v>
+        <v>0</v>
       </c>
       <c r="L374" t="n">
         <v>12.48000000000001</v>
@@ -19353,7 +19375,7 @@
         <v>25.30000000000005</v>
       </c>
       <c r="K375" t="n">
-        <v>9.09090909090915</v>
+        <v>-14.28571428571418</v>
       </c>
       <c r="L375" t="n">
         <v>12.47000000000001</v>
@@ -19404,7 +19426,7 @@
         <v>25.50000000000005</v>
       </c>
       <c r="K376" t="n">
-        <v>23.07692307692299</v>
+        <v>0</v>
       </c>
       <c r="L376" t="n">
         <v>12.48000000000001</v>
@@ -19455,7 +19477,7 @@
         <v>25.50000000000005</v>
       </c>
       <c r="K377" t="n">
-        <v>33.33333333333319</v>
+        <v>-14.28571428571425</v>
       </c>
       <c r="L377" t="n">
         <v>12.48000000000001</v>
@@ -19506,7 +19528,7 @@
         <v>25.60000000000004</v>
       </c>
       <c r="K378" t="n">
-        <v>23.07692307692306</v>
+        <v>-25</v>
       </c>
       <c r="L378" t="n">
         <v>12.46000000000001</v>
@@ -19557,7 +19579,7 @@
         <v>25.70000000000005</v>
       </c>
       <c r="K379" t="n">
-        <v>7.692307692307776</v>
+        <v>-33.33333333333326</v>
       </c>
       <c r="L379" t="n">
         <v>12.43000000000002</v>
@@ -19608,7 +19630,7 @@
         <v>25.70000000000005</v>
       </c>
       <c r="K380" t="n">
-        <v>7.692307692307776</v>
+        <v>-33.33333333333326</v>
       </c>
       <c r="L380" t="n">
         <v>12.40000000000002</v>
@@ -19659,7 +19681,7 @@
         <v>25.80000000000005</v>
       </c>
       <c r="K381" t="n">
-        <v>14.2857142857143</v>
+        <v>0</v>
       </c>
       <c r="L381" t="n">
         <v>12.38000000000002</v>
@@ -19761,7 +19783,7 @@
         <v>25.90000000000005</v>
       </c>
       <c r="K383" t="n">
-        <v>0</v>
+        <v>-14.28571428571418</v>
       </c>
       <c r="L383" t="n">
         <v>12.37000000000002</v>
@@ -19812,7 +19834,7 @@
         <v>25.90000000000005</v>
       </c>
       <c r="K384" t="n">
-        <v>-7.69230769230764</v>
+        <v>0</v>
       </c>
       <c r="L384" t="n">
         <v>12.36000000000002</v>
@@ -19863,7 +19885,7 @@
         <v>25.90000000000005</v>
       </c>
       <c r="K385" t="n">
-        <v>-7.69230769230764</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L385" t="n">
         <v>12.36000000000002</v>
@@ -19914,7 +19936,7 @@
         <v>25.90000000000005</v>
       </c>
       <c r="K386" t="n">
-        <v>-7.69230769230764</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L386" t="n">
         <v>12.34000000000002</v>
@@ -19965,7 +19987,7 @@
         <v>25.90000000000005</v>
       </c>
       <c r="K387" t="n">
-        <v>-16.66666666666657</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L387" t="n">
         <v>12.32000000000002</v>
@@ -20016,7 +20038,7 @@
         <v>26.00000000000005</v>
       </c>
       <c r="K388" t="n">
-        <v>-33.33333333333328</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L388" t="n">
         <v>12.30000000000002</v>
@@ -20067,7 +20089,7 @@
         <v>26.00000000000005</v>
       </c>
       <c r="K389" t="n">
-        <v>-33.33333333333328</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L389" t="n">
         <v>12.29000000000002</v>
@@ -20118,7 +20140,7 @@
         <v>26.00000000000005</v>
       </c>
       <c r="K390" t="n">
-        <v>-33.33333333333328</v>
+        <v>-99.99999999999912</v>
       </c>
       <c r="L390" t="n">
         <v>12.28000000000002</v>
@@ -20169,7 +20191,7 @@
         <v>26.10000000000005</v>
       </c>
       <c r="K391" t="n">
-        <v>-38.46153846153834</v>
+        <v>-99.99999999999912</v>
       </c>
       <c r="L391" t="n">
         <v>12.25000000000002</v>
@@ -20220,7 +20242,7 @@
         <v>26.20000000000005</v>
       </c>
       <c r="K392" t="n">
-        <v>-16.66666666666666</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L392" t="n">
         <v>12.24000000000002</v>
@@ -20322,7 +20344,7 @@
         <v>26.30000000000005</v>
       </c>
       <c r="K394" t="n">
-        <v>-9.090909090908989</v>
+        <v>0</v>
       </c>
       <c r="L394" t="n">
         <v>12.24000000000002</v>
@@ -20373,7 +20395,7 @@
         <v>26.40000000000006</v>
       </c>
       <c r="K395" t="n">
-        <v>9.090909090908989</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L395" t="n">
         <v>12.25000000000002</v>
@@ -20424,7 +20446,7 @@
         <v>26.50000000000006</v>
       </c>
       <c r="K396" t="n">
-        <v>0</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L396" t="n">
         <v>12.27000000000002</v>
@@ -20475,7 +20497,7 @@
         <v>26.60000000000006</v>
       </c>
       <c r="K397" t="n">
-        <v>9.090909090908958</v>
+        <v>66.66666666666578</v>
       </c>
       <c r="L397" t="n">
         <v>12.30000000000002</v>
@@ -20526,7 +20548,7 @@
         <v>26.80000000000006</v>
       </c>
       <c r="K398" t="n">
-        <v>0</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L398" t="n">
         <v>12.32000000000002</v>
@@ -20577,7 +20599,7 @@
         <v>26.80000000000006</v>
       </c>
       <c r="K399" t="n">
-        <v>9.090909090908958</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L399" t="n">
         <v>12.34000000000002</v>
@@ -20628,7 +20650,7 @@
         <v>26.90000000000006</v>
       </c>
       <c r="K400" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L400" t="n">
         <v>12.35000000000002</v>
@@ -20679,7 +20701,7 @@
         <v>27.10000000000005</v>
       </c>
       <c r="K401" t="n">
-        <v>7.692307692307619</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L401" t="n">
         <v>12.39000000000002</v>
@@ -20730,7 +20752,7 @@
         <v>27.10000000000005</v>
       </c>
       <c r="K402" t="n">
-        <v>16.66666666666652</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L402" t="n">
         <v>12.42000000000002</v>
@@ -20832,7 +20854,7 @@
         <v>27.40000000000006</v>
       </c>
       <c r="K404" t="n">
-        <v>6.666666666666611</v>
+        <v>0</v>
       </c>
       <c r="L404" t="n">
         <v>12.43000000000002</v>
@@ -20883,7 +20905,7 @@
         <v>27.50000000000006</v>
       </c>
       <c r="K405" t="n">
-        <v>12.49999999999989</v>
+        <v>0</v>
       </c>
       <c r="L405" t="n">
         <v>12.44000000000002</v>
@@ -20934,7 +20956,7 @@
         <v>27.50000000000006</v>
       </c>
       <c r="K406" t="n">
-        <v>12.49999999999989</v>
+        <v>-11.11111111111109</v>
       </c>
       <c r="L406" t="n">
         <v>12.44000000000002</v>
@@ -20985,7 +21007,7 @@
         <v>27.50000000000006</v>
       </c>
       <c r="K407" t="n">
-        <v>12.49999999999989</v>
+        <v>14.28571428571425</v>
       </c>
       <c r="L407" t="n">
         <v>12.43000000000002</v>
@@ -21036,7 +21058,7 @@
         <v>27.50000000000006</v>
       </c>
       <c r="K408" t="n">
-        <v>19.99999999999995</v>
+        <v>14.28571428571425</v>
       </c>
       <c r="L408" t="n">
         <v>12.44000000000002</v>
@@ -21087,7 +21109,7 @@
         <v>27.50000000000006</v>
       </c>
       <c r="K409" t="n">
-        <v>19.99999999999995</v>
+        <v>33.33333333333314</v>
       </c>
       <c r="L409" t="n">
         <v>12.45000000000002</v>
@@ -21138,7 +21160,7 @@
         <v>27.60000000000006</v>
       </c>
       <c r="K410" t="n">
-        <v>12.5</v>
+        <v>-19.99999999999979</v>
       </c>
       <c r="L410" t="n">
         <v>12.46000000000002</v>
@@ -21189,7 +21211,7 @@
         <v>27.80000000000006</v>
       </c>
       <c r="K411" t="n">
-        <v>29.41176470588224</v>
+        <v>14.28571428571418</v>
       </c>
       <c r="L411" t="n">
         <v>12.47000000000002</v>
@@ -21240,7 +21262,7 @@
         <v>27.80000000000006</v>
       </c>
       <c r="K412" t="n">
-        <v>24.99999999999994</v>
+        <v>59.99999999999937</v>
       </c>
       <c r="L412" t="n">
         <v>12.48000000000002</v>
@@ -21291,7 +21313,7 @@
         <v>27.80000000000006</v>
       </c>
       <c r="K413" t="n">
-        <v>19.99999999999988</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L413" t="n">
         <v>12.51000000000002</v>
@@ -21342,7 +21364,7 @@
         <v>27.80000000000006</v>
       </c>
       <c r="K414" t="n">
-        <v>19.99999999999988</v>
+        <v>33.33333333333314</v>
       </c>
       <c r="L414" t="n">
         <v>12.53000000000002</v>
@@ -21393,7 +21415,7 @@
         <v>27.90000000000006</v>
       </c>
       <c r="K415" t="n">
-        <v>6.666666666666643</v>
+        <v>0</v>
       </c>
       <c r="L415" t="n">
         <v>12.53000000000002</v>
@@ -21444,7 +21466,7 @@
         <v>28.00000000000006</v>
       </c>
       <c r="K416" t="n">
-        <v>-6.666666666666643</v>
+        <v>-19.99999999999993</v>
       </c>
       <c r="L416" t="n">
         <v>12.52000000000002</v>
@@ -21495,7 +21517,7 @@
         <v>28.00000000000006</v>
       </c>
       <c r="K417" t="n">
-        <v>-14.28571428571425</v>
+        <v>-19.99999999999993</v>
       </c>
       <c r="L417" t="n">
         <v>12.51000000000002</v>
@@ -21546,7 +21568,7 @@
         <v>28.10000000000006</v>
       </c>
       <c r="K418" t="n">
-        <v>7.692307692307661</v>
+        <v>0</v>
       </c>
       <c r="L418" t="n">
         <v>12.51000000000002</v>
@@ -21597,7 +21619,7 @@
         <v>28.10000000000006</v>
       </c>
       <c r="K419" t="n">
-        <v>7.692307692307661</v>
+        <v>19.99999999999993</v>
       </c>
       <c r="L419" t="n">
         <v>12.51000000000002</v>
@@ -21648,7 +21670,7 @@
         <v>28.10000000000006</v>
       </c>
       <c r="K420" t="n">
-        <v>16.66666666666657</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L420" t="n">
         <v>12.52000000000002</v>
@@ -21699,7 +21721,7 @@
         <v>28.10000000000006</v>
       </c>
       <c r="K421" t="n">
-        <v>0</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L421" t="n">
         <v>12.51000000000002</v>
@@ -21750,7 +21772,7 @@
         <v>28.10000000000006</v>
       </c>
       <c r="K422" t="n">
-        <v>0</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L422" t="n">
         <v>12.50000000000002</v>
@@ -21801,7 +21823,7 @@
         <v>28.10000000000006</v>
       </c>
       <c r="K423" t="n">
-        <v>24.99999999999978</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L423" t="n">
         <v>12.49000000000002</v>
@@ -21852,7 +21874,7 @@
         <v>28.20000000000006</v>
       </c>
       <c r="K424" t="n">
-        <v>0</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L424" t="n">
         <v>12.47000000000002</v>
@@ -21903,7 +21925,7 @@
         <v>28.20000000000006</v>
       </c>
       <c r="K425" t="n">
-        <v>-14.28571428571418</v>
+        <v>0</v>
       </c>
       <c r="L425" t="n">
         <v>12.46000000000002</v>
@@ -21954,7 +21976,7 @@
         <v>28.20000000000006</v>
       </c>
       <c r="K426" t="n">
-        <v>-14.28571428571418</v>
+        <v>0</v>
       </c>
       <c r="L426" t="n">
         <v>12.46000000000002</v>
@@ -22056,7 +22078,7 @@
         <v>28.40000000000006</v>
       </c>
       <c r="K428" t="n">
-        <v>-11.111111111111</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L428" t="n">
         <v>12.46000000000002</v>
@@ -22107,7 +22129,7 @@
         <v>28.40000000000006</v>
       </c>
       <c r="K429" t="n">
-        <v>-11.111111111111</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L429" t="n">
         <v>12.45000000000002</v>
@@ -22158,7 +22180,7 @@
         <v>28.60000000000007</v>
       </c>
       <c r="K430" t="n">
-        <v>-19.99999999999996</v>
+        <v>-59.99999999999929</v>
       </c>
       <c r="L430" t="n">
         <v>12.42000000000002</v>
@@ -22209,7 +22231,7 @@
         <v>28.70000000000007</v>
       </c>
       <c r="K431" t="n">
-        <v>-33.33333333333287</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L431" t="n">
         <v>12.40000000000002</v>
@@ -22260,7 +22282,7 @@
         <v>28.70000000000007</v>
       </c>
       <c r="K432" t="n">
-        <v>-33.33333333333287</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L432" t="n">
         <v>12.38000000000002</v>
@@ -22311,7 +22333,7 @@
         <v>28.80000000000007</v>
       </c>
       <c r="K433" t="n">
-        <v>-19.99999999999972</v>
+        <v>0</v>
       </c>
       <c r="L433" t="n">
         <v>12.37000000000002</v>
@@ -22362,7 +22384,7 @@
         <v>28.90000000000007</v>
       </c>
       <c r="K434" t="n">
-        <v>-9.090909090908958</v>
+        <v>14.28571428571403</v>
       </c>
       <c r="L434" t="n">
         <v>12.38000000000002</v>
@@ -22413,7 +22435,7 @@
         <v>28.90000000000007</v>
       </c>
       <c r="K435" t="n">
-        <v>0</v>
+        <v>14.28571428571403</v>
       </c>
       <c r="L435" t="n">
         <v>12.39000000000002</v>
@@ -22464,7 +22486,7 @@
         <v>28.90000000000007</v>
       </c>
       <c r="K436" t="n">
-        <v>11.11111111111091</v>
+        <v>0</v>
       </c>
       <c r="L436" t="n">
         <v>12.40000000000002</v>
@@ -22515,7 +22537,7 @@
         <v>28.90000000000007</v>
       </c>
       <c r="K437" t="n">
-        <v>11.11111111111091</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L437" t="n">
         <v>12.40000000000002</v>
@@ -22566,7 +22588,7 @@
         <v>28.90000000000007</v>
       </c>
       <c r="K438" t="n">
-        <v>0</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L438" t="n">
         <v>12.41000000000002</v>
@@ -22617,7 +22639,7 @@
         <v>28.90000000000007</v>
       </c>
       <c r="K439" t="n">
-        <v>0</v>
+        <v>99.99999999999881</v>
       </c>
       <c r="L439" t="n">
         <v>12.42000000000002</v>
@@ -22668,7 +22690,7 @@
         <v>29.10000000000007</v>
       </c>
       <c r="K440" t="n">
-        <v>-19.99999999999972</v>
+        <v>0</v>
       </c>
       <c r="L440" t="n">
         <v>12.43000000000002</v>
@@ -22719,7 +22741,7 @@
         <v>29.10000000000007</v>
       </c>
       <c r="K441" t="n">
-        <v>-19.99999999999972</v>
+        <v>0</v>
       </c>
       <c r="L441" t="n">
         <v>12.43000000000002</v>
@@ -22770,7 +22792,7 @@
         <v>29.10000000000007</v>
       </c>
       <c r="K442" t="n">
-        <v>-19.99999999999972</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L442" t="n">
         <v>12.43000000000002</v>
@@ -22821,7 +22843,7 @@
         <v>29.20000000000007</v>
       </c>
       <c r="K443" t="n">
-        <v>-9.090909090908989</v>
+        <v>-33.33333333333353</v>
       </c>
       <c r="L443" t="n">
         <v>12.43000000000002</v>
@@ -22872,7 +22894,7 @@
         <v>29.20000000000007</v>
       </c>
       <c r="K444" t="n">
-        <v>0</v>
+        <v>-33.33333333333353</v>
       </c>
       <c r="L444" t="n">
         <v>12.42000000000002</v>
@@ -22923,7 +22945,7 @@
         <v>29.50000000000007</v>
       </c>
       <c r="K445" t="n">
-        <v>-23.07692307692299</v>
+        <v>-66.66666666666697</v>
       </c>
       <c r="L445" t="n">
         <v>12.38000000000002</v>
@@ -22974,7 +22996,7 @@
         <v>29.60000000000007</v>
       </c>
       <c r="K446" t="n">
-        <v>-14.2857142857143</v>
+        <v>-42.85714285714322</v>
       </c>
       <c r="L446" t="n">
         <v>12.35000000000002</v>
@@ -23025,7 +23047,7 @@
         <v>29.60000000000007</v>
       </c>
       <c r="K447" t="n">
-        <v>-23.07692307692306</v>
+        <v>-42.85714285714322</v>
       </c>
       <c r="L447" t="n">
         <v>12.32000000000002</v>
@@ -23076,7 +23098,7 @@
         <v>29.70000000000007</v>
       </c>
       <c r="K448" t="n">
-        <v>-23.07692307692306</v>
+        <v>-50.00000000000022</v>
       </c>
       <c r="L448" t="n">
         <v>12.28000000000002</v>
@@ -23127,7 +23149,7 @@
         <v>29.80000000000007</v>
       </c>
       <c r="K449" t="n">
-        <v>-14.2857142857143</v>
+        <v>-14.2857142857145</v>
       </c>
       <c r="L449" t="n">
         <v>12.25000000000002</v>
@@ -23178,7 +23200,7 @@
         <v>29.90000000000007</v>
       </c>
       <c r="K450" t="n">
-        <v>-7.69230769230764</v>
+        <v>-25.00000000000011</v>
       </c>
       <c r="L450" t="n">
         <v>12.23000000000002</v>
@@ -23229,7 +23251,7 @@
         <v>30.20000000000007</v>
       </c>
       <c r="K451" t="n">
-        <v>6.666666666666628</v>
+        <v>9.090909090909047</v>
       </c>
       <c r="L451" t="n">
         <v>12.24000000000002</v>
@@ -23284,7 +23306,7 @@
         <v>30.20000000000007</v>
       </c>
       <c r="K452" t="n">
-        <v>6.666666666666628</v>
+        <v>0</v>
       </c>
       <c r="L452" t="n">
         <v>12.25000000000002</v>
@@ -23341,7 +23363,7 @@
         <v>30.30000000000007</v>
       </c>
       <c r="K453" t="n">
-        <v>-6.666666666666643</v>
+        <v>-9.090909090909047</v>
       </c>
       <c r="L453" t="n">
         <v>12.24000000000001</v>
@@ -23398,7 +23420,7 @@
         <v>30.30000000000007</v>
       </c>
       <c r="K454" t="n">
-        <v>-14.28571428571425</v>
+        <v>25.00000000000011</v>
       </c>
       <c r="L454" t="n">
         <v>12.23000000000001</v>
@@ -23455,7 +23477,7 @@
         <v>30.30000000000007</v>
       </c>
       <c r="K455" t="n">
-        <v>-14.28571428571425</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L455" t="n">
         <v>12.25000000000002</v>
@@ -23512,7 +23534,7 @@
         <v>30.40000000000007</v>
       </c>
       <c r="K456" t="n">
-        <v>-20.00000000000005</v>
+        <v>0</v>
       </c>
       <c r="L456" t="n">
         <v>12.25000000000002</v>
@@ -23569,7 +23591,7 @@
         <v>30.50000000000007</v>
       </c>
       <c r="K457" t="n">
-        <v>-12.49999999999994</v>
+        <v>25</v>
       </c>
       <c r="L457" t="n">
         <v>12.26000000000002</v>
@@ -23626,7 +23648,7 @@
         <v>30.60000000000007</v>
       </c>
       <c r="K458" t="n">
-        <v>-17.64705882352942</v>
+        <v>0</v>
       </c>
       <c r="L458" t="n">
         <v>12.27000000000002</v>
@@ -23683,7 +23705,7 @@
         <v>30.70000000000007</v>
       </c>
       <c r="K459" t="n">
-        <v>-11.11111111111104</v>
+        <v>25</v>
       </c>
       <c r="L459" t="n">
         <v>12.28000000000002</v>
@@ -23740,7 +23762,7 @@
         <v>30.80000000000008</v>
       </c>
       <c r="K460" t="n">
-        <v>-5.882352941176532</v>
+        <v>-33.33333333333324</v>
       </c>
       <c r="L460" t="n">
         <v>12.29000000000002</v>
@@ -23797,7 +23819,7 @@
         <v>30.90000000000008</v>
       </c>
       <c r="K461" t="n">
-        <v>0</v>
+        <v>-14.28571428571411</v>
       </c>
       <c r="L461" t="n">
         <v>12.28000000000002</v>
@@ -23899,7 +23921,7 @@
         <v>31.10000000000008</v>
       </c>
       <c r="K463" t="n">
-        <v>5.263157894736798</v>
+        <v>24.99999999999967</v>
       </c>
       <c r="L463" t="n">
         <v>12.29000000000002</v>
@@ -23950,7 +23972,7 @@
         <v>31.10000000000008</v>
       </c>
       <c r="K464" t="n">
-        <v>5.263157894736798</v>
+        <v>24.99999999999967</v>
       </c>
       <c r="L464" t="n">
         <v>12.31000000000002</v>
@@ -24001,7 +24023,7 @@
         <v>31.30000000000008</v>
       </c>
       <c r="K465" t="n">
-        <v>11.11111111111112</v>
+        <v>11.1111111111112</v>
       </c>
       <c r="L465" t="n">
         <v>12.31000000000002</v>
@@ -24052,7 +24074,7 @@
         <v>31.50000000000007</v>
       </c>
       <c r="K466" t="n">
-        <v>15.78947368421049</v>
+        <v>19.99999999999986</v>
       </c>
       <c r="L466" t="n">
         <v>12.34000000000002</v>
@@ -24103,7 +24125,7 @@
         <v>31.50000000000007</v>
       </c>
       <c r="K467" t="n">
-        <v>15.78947368421049</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L467" t="n">
         <v>12.36000000000002</v>
@@ -24154,7 +24176,7 @@
         <v>31.50000000000007</v>
       </c>
       <c r="K468" t="n">
-        <v>22.22222222222215</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L468" t="n">
         <v>12.39000000000002</v>
@@ -24205,7 +24227,7 @@
         <v>31.60000000000007</v>
       </c>
       <c r="K469" t="n">
-        <v>22.22222222222219</v>
+        <v>50.00000000000022</v>
       </c>
       <c r="L469" t="n">
         <v>12.42000000000002</v>
@@ -24256,7 +24278,7 @@
         <v>31.80000000000008</v>
       </c>
       <c r="K470" t="n">
-        <v>36.84210526315784</v>
+        <v>55.55555555555565</v>
       </c>
       <c r="L470" t="n">
         <v>12.48000000000002</v>
@@ -24307,7 +24329,7 @@
         <v>31.80000000000008</v>
       </c>
       <c r="K471" t="n">
-        <v>24.99999999999994</v>
+        <v>55.55555555555565</v>
       </c>
       <c r="L471" t="n">
         <v>12.53000000000002</v>
@@ -24358,7 +24380,7 @@
         <v>31.80000000000008</v>
       </c>
       <c r="K472" t="n">
-        <v>24.99999999999994</v>
+        <v>42.857142857143</v>
       </c>
       <c r="L472" t="n">
         <v>12.58000000000002</v>
@@ -24409,7 +24431,7 @@
         <v>31.90000000000008</v>
       </c>
       <c r="K473" t="n">
-        <v>37.49999999999978</v>
+        <v>50</v>
       </c>
       <c r="L473" t="n">
         <v>12.62000000000002</v>
@@ -24460,7 +24482,7 @@
         <v>32.10000000000008</v>
       </c>
       <c r="K474" t="n">
-        <v>44.4444444444441</v>
+        <v>99.99999999999933</v>
       </c>
       <c r="L474" t="n">
         <v>12.68000000000002</v>
@@ -24511,7 +24533,7 @@
         <v>32.10000000000008</v>
       </c>
       <c r="K475" t="n">
-        <v>44.4444444444441</v>
+        <v>99.99999999999912</v>
       </c>
       <c r="L475" t="n">
         <v>12.76000000000002</v>
@@ -24562,7 +24584,7 @@
         <v>32.20000000000008</v>
       </c>
       <c r="K476" t="n">
-        <v>44.4444444444442</v>
+        <v>71.42857142857078</v>
       </c>
       <c r="L476" t="n">
         <v>12.81000000000002</v>
@@ -24613,7 +24635,7 @@
         <v>32.30000000000008</v>
       </c>
       <c r="K477" t="n">
-        <v>44.4444444444441</v>
+        <v>74.99999999999922</v>
       </c>
       <c r="L477" t="n">
         <v>12.87000000000002</v>
@@ -24664,7 +24686,7 @@
         <v>32.30000000000008</v>
       </c>
       <c r="K478" t="n">
-        <v>52.94117647058795</v>
+        <v>71.42857142857041</v>
       </c>
       <c r="L478" t="n">
         <v>12.93000000000002</v>
@@ -24715,7 +24737,7 @@
         <v>32.30000000000008</v>
       </c>
       <c r="K479" t="n">
-        <v>49.99999999999967</v>
+        <v>59.99999999999893</v>
       </c>
       <c r="L479" t="n">
         <v>12.98000000000002</v>
@@ -24766,7 +24788,7 @@
         <v>32.40000000000008</v>
       </c>
       <c r="K480" t="n">
-        <v>49.99999999999978</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L480" t="n">
         <v>13.00000000000002</v>
@@ -24817,7 +24839,7 @@
         <v>32.50000000000009</v>
       </c>
       <c r="K481" t="n">
-        <v>37.49999999999978</v>
+        <v>14.28571428571403</v>
       </c>
       <c r="L481" t="n">
         <v>13.01000000000002</v>
@@ -24868,7 +24890,7 @@
         <v>32.50000000000009</v>
       </c>
       <c r="K482" t="n">
-        <v>37.49999999999978</v>
+        <v>0</v>
       </c>
       <c r="L482" t="n">
         <v>13.02000000000002</v>
@@ -24919,7 +24941,7 @@
         <v>32.60000000000009</v>
       </c>
       <c r="K483" t="n">
-        <v>33.3333333333331</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L483" t="n">
         <v>13.03000000000002</v>
@@ -24970,7 +24992,7 @@
         <v>32.60000000000009</v>
       </c>
       <c r="K484" t="n">
-        <v>33.3333333333331</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L484" t="n">
         <v>13.02000000000002</v>
@@ -25021,7 +25043,7 @@
         <v>32.80000000000008</v>
       </c>
       <c r="K485" t="n">
-        <v>59.99999999999962</v>
+        <v>33.33333333333314</v>
       </c>
       <c r="L485" t="n">
         <v>13.03000000000002</v>
@@ -25072,7 +25094,7 @@
         <v>32.80000000000008</v>
       </c>
       <c r="K486" t="n">
-        <v>53.84615384615346</v>
+        <v>19.99999999999993</v>
       </c>
       <c r="L486" t="n">
         <v>13.05000000000001</v>
@@ -25123,7 +25145,7 @@
         <v>32.80000000000008</v>
       </c>
       <c r="K487" t="n">
-        <v>53.84615384615346</v>
+        <v>19.99999999999993</v>
       </c>
       <c r="L487" t="n">
         <v>13.06000000000001</v>
@@ -25174,7 +25196,7 @@
         <v>32.80000000000008</v>
       </c>
       <c r="K488" t="n">
-        <v>53.84615384615346</v>
+        <v>19.99999999999993</v>
       </c>
       <c r="L488" t="n">
         <v>13.07000000000001</v>
@@ -25225,7 +25247,7 @@
         <v>32.90000000000008</v>
       </c>
       <c r="K489" t="n">
-        <v>53.84615384615346</v>
+        <v>60.00000000000014</v>
       </c>
       <c r="L489" t="n">
         <v>13.09000000000001</v>
@@ -25276,7 +25298,7 @@
         <v>33.00000000000009</v>
       </c>
       <c r="K490" t="n">
-        <v>33.33333333333294</v>
+        <v>59.99999999999979</v>
       </c>
       <c r="L490" t="n">
         <v>13.11000000000001</v>
@@ -25327,7 +25349,7 @@
         <v>33.10000000000009</v>
       </c>
       <c r="K491" t="n">
-        <v>23.07692307692279</v>
+        <v>33.33333333333314</v>
       </c>
       <c r="L491" t="n">
         <v>13.13000000000001</v>
@@ -25378,7 +25400,7 @@
         <v>33.10000000000009</v>
       </c>
       <c r="K492" t="n">
-        <v>23.07692307692279</v>
+        <v>19.99999999999993</v>
       </c>
       <c r="L492" t="n">
         <v>13.15000000000001</v>
@@ -25429,7 +25451,7 @@
         <v>33.10000000000009</v>
       </c>
       <c r="K493" t="n">
-        <v>16.66666666666647</v>
+        <v>19.99999999999993</v>
       </c>
       <c r="L493" t="n">
         <v>13.16000000000001</v>
@@ -25480,7 +25502,7 @@
         <v>33.10000000000009</v>
       </c>
       <c r="K494" t="n">
-        <v>0</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L494" t="n">
         <v>13.17000000000001</v>
@@ -25531,7 +25553,7 @@
         <v>33.20000000000009</v>
       </c>
       <c r="K495" t="n">
-        <v>-9.090909090908989</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L495" t="n">
         <v>13.15000000000001</v>

--- a/BackTest/2019-10-24 BackTest ORBS.xlsx
+++ b/BackTest/2019-10-24 BackTest ORBS.xlsx
@@ -6261,13 +6261,17 @@
         <v>13.17833333333333</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K168" t="n">
+        <v>12.1</v>
+      </c>
       <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
@@ -6296,14 +6300,22 @@
         <v>13.15666666666667</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K169" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6331,14 +6343,22 @@
         <v>13.13333333333333</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K170" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6474,7 +6494,7 @@
         <v>0</v>
       </c>
       <c r="I174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
@@ -6509,7 +6529,7 @@
         <v>0</v>
       </c>
       <c r="I175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
@@ -6786,13 +6806,17 @@
         <v>12.81333333333333</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K183" t="n">
+        <v>12.1</v>
+      </c>
       <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
@@ -6821,14 +6845,22 @@
         <v>12.78999999999999</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K184" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -6856,14 +6888,22 @@
         <v>12.76666666666666</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K185" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -6891,14 +6931,22 @@
         <v>12.74166666666666</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K186" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -6926,14 +6974,22 @@
         <v>12.72</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>12</v>
+      </c>
+      <c r="K187" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -6967,8 +7023,14 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7002,8 +7064,14 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7031,18 +7099,20 @@
         <v>12.655</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="n">
         <v>12.1</v>
       </c>
-      <c r="L190" t="inlineStr"/>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7070,20 +7140,18 @@
         <v>12.63166666666666</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="n">
-        <v>12</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="n">
         <v>12.1</v>
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M191" t="n">
@@ -7113,20 +7181,18 @@
         <v>12.605</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="n">
-        <v>12</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="n">
         <v>12.1</v>
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M192" t="n">
@@ -7156,20 +7222,18 @@
         <v>12.58</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="n">
-        <v>12</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="n">
         <v>12.1</v>
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M193" t="n">
@@ -7199,14 +7263,12 @@
         <v>12.55666666666666</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="n">
-        <v>12.2</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="n">
         <v>12.1</v>
       </c>
@@ -7242,14 +7304,12 @@
         <v>12.53333333333333</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="n">
-        <v>12.2</v>
-      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="n">
         <v>12.1</v>
       </c>
@@ -7285,14 +7345,12 @@
         <v>12.51</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="n">
-        <v>12.2</v>
-      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="n">
         <v>12.1</v>
       </c>
@@ -7328,14 +7386,12 @@
         <v>12.48666666666667</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="n">
-        <v>12.2</v>
-      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="n">
         <v>12.1</v>
       </c>
@@ -7371,14 +7427,12 @@
         <v>12.46333333333333</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="n">
-        <v>12.2</v>
-      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="n">
         <v>12.1</v>
       </c>
@@ -7414,14 +7468,12 @@
         <v>12.44333333333333</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="n">
-        <v>12.2</v>
-      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="n">
         <v>12.1</v>
       </c>
@@ -7457,14 +7509,12 @@
         <v>12.42666666666667</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="n">
-        <v>12.2</v>
-      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="n">
         <v>12.1</v>
       </c>
@@ -7500,14 +7550,12 @@
         <v>12.40833333333333</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="n">
         <v>12.1</v>
       </c>
@@ -7543,14 +7591,12 @@
         <v>12.38833333333334</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="n">
-        <v>12.2</v>
-      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="n">
         <v>12.1</v>
       </c>
@@ -7586,14 +7632,12 @@
         <v>12.36833333333334</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="n">
-        <v>12.2</v>
-      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="n">
         <v>12.1</v>
       </c>
@@ -7629,14 +7673,12 @@
         <v>12.35</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="n">
-        <v>12.2</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="n">
         <v>12.1</v>
       </c>
@@ -7672,14 +7714,12 @@
         <v>12.33166666666667</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="n">
-        <v>12.2</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="n">
         <v>12.1</v>
       </c>
@@ -7715,14 +7755,12 @@
         <v>12.31500000000001</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="n">
-        <v>12.3</v>
-      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="n">
         <v>12.1</v>
       </c>
@@ -7758,14 +7796,12 @@
         <v>12.29666666666667</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="n">
-        <v>12.3</v>
-      </c>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="n">
         <v>12.1</v>
       </c>
@@ -7801,24 +7837,22 @@
         <v>12.27500000000001</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208" t="n">
-        <v>1</v>
-      </c>
-      <c r="J208" t="n">
-        <v>12.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="n">
         <v>12.1</v>
       </c>
       <c r="L208" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M208" t="n">
-        <v>1.003264462809917</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
@@ -7851,11 +7885,11 @@
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M209" t="n">
@@ -7885,20 +7919,18 @@
         <v>12.23666666666668</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="L210" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M210" t="n">
@@ -7928,18 +7960,20 @@
         <v>12.21666666666668</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="n">
         <v>12.1</v>
       </c>
-      <c r="L211" t="inlineStr"/>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -7967,20 +8001,18 @@
         <v>12.19666666666668</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="n">
         <v>12.1</v>
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M212" t="n">
@@ -8010,20 +8042,18 @@
         <v>12.17500000000001</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="n">
-        <v>12</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="n">
         <v>12.1</v>
       </c>
       <c r="L213" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M213" t="n">
@@ -8053,14 +8083,12 @@
         <v>12.16000000000001</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="n">
-        <v>12</v>
-      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="n">
         <v>12.1</v>
       </c>
@@ -8096,14 +8124,12 @@
         <v>12.14666666666668</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="n">
         <v>12.1</v>
       </c>
@@ -8139,14 +8165,12 @@
         <v>12.13666666666668</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="n">
         <v>12.1</v>
       </c>
@@ -8182,14 +8206,12 @@
         <v>12.13000000000001</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="n">
         <v>12.1</v>
       </c>
@@ -8225,14 +8247,12 @@
         <v>12.12333333333335</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="n">
         <v>12.1</v>
       </c>
@@ -8268,14 +8288,12 @@
         <v>12.12333333333335</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="n">
-        <v>12</v>
-      </c>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="n">
         <v>12.1</v>
       </c>
@@ -8311,14 +8329,12 @@
         <v>12.12666666666668</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="n">
         <v>12.1</v>
       </c>
@@ -8354,14 +8370,12 @@
         <v>12.12500000000001</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="n">
         <v>12.1</v>
       </c>
@@ -8397,14 +8411,12 @@
         <v>12.12500000000001</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="n">
-        <v>12</v>
-      </c>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="n">
         <v>12.1</v>
       </c>
@@ -8440,14 +8452,12 @@
         <v>12.12333333333335</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="n">
         <v>12.1</v>
       </c>
@@ -8483,14 +8493,12 @@
         <v>12.12000000000001</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="n">
         <v>12.1</v>
       </c>
@@ -8526,14 +8534,12 @@
         <v>12.12000000000001</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="n">
         <v>12.1</v>
       </c>
@@ -8569,14 +8575,12 @@
         <v>12.12000000000001</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="n">
-        <v>12</v>
-      </c>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="n">
         <v>12.1</v>
       </c>
@@ -8612,14 +8616,12 @@
         <v>12.12000000000001</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="n">
-        <v>12</v>
-      </c>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="n">
         <v>12.1</v>
       </c>
@@ -8655,14 +8657,12 @@
         <v>12.11666666666668</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="n">
-        <v>12.3</v>
-      </c>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="n">
         <v>12.1</v>
       </c>
@@ -8698,14 +8698,12 @@
         <v>12.11666666666668</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="n">
-        <v>12.3</v>
-      </c>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="n">
         <v>12.1</v>
       </c>
@@ -8741,14 +8739,12 @@
         <v>12.11666666666668</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="n">
-        <v>12.2</v>
-      </c>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="n">
         <v>12.1</v>
       </c>
@@ -8784,14 +8780,12 @@
         <v>12.11666666666668</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="n">
-        <v>12.3</v>
-      </c>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="n">
         <v>12.1</v>
       </c>
@@ -8827,14 +8821,12 @@
         <v>12.11500000000001</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="n">
-        <v>12.2</v>
-      </c>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="n">
         <v>12.1</v>
       </c>
@@ -8870,14 +8862,12 @@
         <v>12.11333333333335</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="n">
-        <v>12.2</v>
-      </c>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="n">
         <v>12.1</v>
       </c>
@@ -8913,14 +8903,12 @@
         <v>12.11166666666668</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="n">
-        <v>12.2</v>
-      </c>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="n">
         <v>12.1</v>
       </c>
@@ -8956,14 +8944,12 @@
         <v>12.11166666666668</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="n">
-        <v>12.3</v>
-      </c>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="n">
         <v>12.1</v>
       </c>
@@ -8999,14 +8985,12 @@
         <v>12.11333333333335</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="n">
-        <v>12.3</v>
-      </c>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="n">
         <v>12.1</v>
       </c>
@@ -9042,14 +9026,12 @@
         <v>12.11666666666668</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="n">
-        <v>12.2</v>
-      </c>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="n">
         <v>12.1</v>
       </c>
@@ -9085,14 +9067,12 @@
         <v>12.12333333333335</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="n">
-        <v>12.2</v>
-      </c>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="n">
         <v>12.1</v>
       </c>
@@ -9128,14 +9108,12 @@
         <v>12.13000000000002</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="n">
-        <v>12.3</v>
-      </c>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="n">
         <v>12.1</v>
       </c>
@@ -9171,14 +9149,12 @@
         <v>12.13333333333335</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="n">
-        <v>12.3</v>
-      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="n">
         <v>12.1</v>
       </c>
@@ -9214,14 +9190,12 @@
         <v>12.13833333333335</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="n">
-        <v>12.3</v>
-      </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="n">
         <v>12.1</v>
       </c>
@@ -9257,14 +9231,12 @@
         <v>12.14333333333335</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242" t="n">
-        <v>12.4</v>
-      </c>
+      <c r="J242" t="inlineStr"/>
       <c r="K242" t="n">
         <v>12.1</v>
       </c>
@@ -9300,14 +9272,12 @@
         <v>12.15166666666668</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
       </c>
-      <c r="J243" t="n">
-        <v>12.5</v>
-      </c>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="n">
         <v>12.1</v>
       </c>
@@ -9551,7 +9521,7 @@
         <v>0</v>
       </c>
       <c r="I249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="n">
@@ -9559,11 +9529,11 @@
       </c>
       <c r="L249" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M249" t="n">
-        <v>1</v>
+        <v>1.036322314049587</v>
       </c>
     </row>
     <row r="250">
@@ -9592,17 +9562,11 @@
         <v>0</v>
       </c>
       <c r="I250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="inlineStr"/>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -9633,17 +9597,11 @@
         <v>0</v>
       </c>
       <c r="I251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="inlineStr"/>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -9674,17 +9632,11 @@
         <v>0</v>
       </c>
       <c r="I252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="inlineStr"/>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -9715,17 +9667,11 @@
         <v>0</v>
       </c>
       <c r="I253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="inlineStr"/>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -9756,17 +9702,11 @@
         <v>0</v>
       </c>
       <c r="I254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="inlineStr"/>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -9797,17 +9737,11 @@
         <v>0</v>
       </c>
       <c r="I255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="inlineStr"/>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -9838,17 +9772,11 @@
         <v>0</v>
       </c>
       <c r="I256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="inlineStr"/>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -9879,17 +9807,11 @@
         <v>0</v>
       </c>
       <c r="I257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="inlineStr"/>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -9920,17 +9842,11 @@
         <v>0</v>
       </c>
       <c r="I258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="inlineStr"/>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -9964,14 +9880,8 @@
         <v>0</v>
       </c>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="inlineStr"/>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -10002,17 +9912,11 @@
         <v>0</v>
       </c>
       <c r="I260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="inlineStr"/>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -10046,14 +9950,8 @@
         <v>0</v>
       </c>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="inlineStr"/>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -10087,14 +9985,8 @@
         <v>0</v>
       </c>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="inlineStr"/>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -10128,14 +10020,8 @@
         <v>0</v>
       </c>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="inlineStr"/>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -10169,14 +10055,8 @@
         <v>0</v>
       </c>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="inlineStr"/>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -10210,14 +10090,8 @@
         <v>0</v>
       </c>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="inlineStr"/>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -10251,14 +10125,8 @@
         <v>0</v>
       </c>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="inlineStr"/>
       <c r="M266" t="n">
         <v>1</v>
       </c>
@@ -10292,14 +10160,8 @@
         <v>0</v>
       </c>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="inlineStr"/>
       <c r="M267" t="n">
         <v>1</v>
       </c>
@@ -10333,14 +10195,8 @@
         <v>0</v>
       </c>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="inlineStr"/>
       <c r="M268" t="n">
         <v>1</v>
       </c>
@@ -10374,14 +10230,8 @@
         <v>0</v>
       </c>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="inlineStr"/>
       <c r="M269" t="n">
         <v>1</v>
       </c>
@@ -10415,14 +10265,8 @@
         <v>0</v>
       </c>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="inlineStr"/>
       <c r="M270" t="n">
         <v>1</v>
       </c>
@@ -10456,14 +10300,8 @@
         <v>0</v>
       </c>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="inlineStr"/>
       <c r="M271" t="n">
         <v>1</v>
       </c>
@@ -10497,14 +10335,8 @@
         <v>0</v>
       </c>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="inlineStr"/>
       <c r="M272" t="n">
         <v>1</v>
       </c>
@@ -10538,14 +10370,8 @@
         <v>0</v>
       </c>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="inlineStr"/>
       <c r="M273" t="n">
         <v>1</v>
       </c>
@@ -10579,14 +10405,8 @@
         <v>0</v>
       </c>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="inlineStr"/>
       <c r="M274" t="n">
         <v>1</v>
       </c>
@@ -10614,22 +10434,14 @@
         <v>12.28500000000001</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
       </c>
-      <c r="J275" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K275" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
+      <c r="L275" t="inlineStr"/>
       <c r="M275" t="n">
         <v>1</v>
       </c>
@@ -10657,22 +10469,14 @@
         <v>12.28833333333334</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
       </c>
-      <c r="J276" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K276" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="inlineStr"/>
       <c r="M276" t="n">
         <v>1</v>
       </c>
@@ -10706,14 +10510,8 @@
         <v>0</v>
       </c>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="inlineStr"/>
       <c r="M277" t="n">
         <v>1</v>
       </c>
@@ -10747,14 +10545,8 @@
         <v>0</v>
       </c>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
+      <c r="L278" t="inlineStr"/>
       <c r="M278" t="n">
         <v>1</v>
       </c>
@@ -10788,14 +10580,8 @@
         <v>0</v>
       </c>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
+      <c r="L279" t="inlineStr"/>
       <c r="M279" t="n">
         <v>1</v>
       </c>
@@ -10829,14 +10615,8 @@
         <v>0</v>
       </c>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
+      <c r="L280" t="inlineStr"/>
       <c r="M280" t="n">
         <v>1</v>
       </c>
@@ -10870,14 +10650,8 @@
         <v>0</v>
       </c>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
+      <c r="L281" t="inlineStr"/>
       <c r="M281" t="n">
         <v>1</v>
       </c>
@@ -10911,14 +10685,8 @@
         <v>0</v>
       </c>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
+      <c r="L282" t="inlineStr"/>
       <c r="M282" t="n">
         <v>1</v>
       </c>
@@ -10952,14 +10720,8 @@
         <v>0</v>
       </c>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
+      <c r="L283" t="inlineStr"/>
       <c r="M283" t="n">
         <v>1</v>
       </c>
@@ -10993,14 +10755,8 @@
         <v>0</v>
       </c>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
+      <c r="L284" t="inlineStr"/>
       <c r="M284" t="n">
         <v>1</v>
       </c>
@@ -11034,14 +10790,8 @@
         <v>0</v>
       </c>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
+      <c r="L285" t="inlineStr"/>
       <c r="M285" t="n">
         <v>1</v>
       </c>
@@ -11075,14 +10825,8 @@
         <v>0</v>
       </c>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
+      <c r="L286" t="inlineStr"/>
       <c r="M286" t="n">
         <v>1</v>
       </c>
@@ -11116,14 +10860,8 @@
         <v>0</v>
       </c>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
+      <c r="L287" t="inlineStr"/>
       <c r="M287" t="n">
         <v>1</v>
       </c>
@@ -11157,14 +10895,8 @@
         <v>0</v>
       </c>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
+      <c r="L288" t="inlineStr"/>
       <c r="M288" t="n">
         <v>1</v>
       </c>
@@ -11198,14 +10930,8 @@
         <v>0</v>
       </c>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
+      <c r="L289" t="inlineStr"/>
       <c r="M289" t="n">
         <v>1</v>
       </c>
@@ -11239,14 +10965,8 @@
         <v>0</v>
       </c>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
+      <c r="L290" t="inlineStr"/>
       <c r="M290" t="n">
         <v>1</v>
       </c>
@@ -11280,14 +11000,8 @@
         <v>0</v>
       </c>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
+      <c r="L291" t="inlineStr"/>
       <c r="M291" t="n">
         <v>1</v>
       </c>
@@ -11321,14 +11035,8 @@
         <v>0</v>
       </c>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
+      <c r="L292" t="inlineStr"/>
       <c r="M292" t="n">
         <v>1</v>
       </c>
@@ -11362,14 +11070,8 @@
         <v>0</v>
       </c>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
+      <c r="L293" t="inlineStr"/>
       <c r="M293" t="n">
         <v>1</v>
       </c>
@@ -11403,14 +11105,8 @@
         <v>0</v>
       </c>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
+      <c r="L294" t="inlineStr"/>
       <c r="M294" t="n">
         <v>1</v>
       </c>
@@ -11444,14 +11140,8 @@
         <v>0</v>
       </c>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
+      <c r="L295" t="inlineStr"/>
       <c r="M295" t="n">
         <v>1</v>
       </c>
@@ -11485,14 +11175,8 @@
         <v>0</v>
       </c>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
+      <c r="L296" t="inlineStr"/>
       <c r="M296" t="n">
         <v>1</v>
       </c>
@@ -11526,14 +11210,8 @@
         <v>0</v>
       </c>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
+      <c r="L297" t="inlineStr"/>
       <c r="M297" t="n">
         <v>1</v>
       </c>
@@ -11567,14 +11245,8 @@
         <v>0</v>
       </c>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
+      <c r="L298" t="inlineStr"/>
       <c r="M298" t="n">
         <v>1</v>
       </c>
@@ -11608,14 +11280,8 @@
         <v>0</v>
       </c>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
+      <c r="L299" t="inlineStr"/>
       <c r="M299" t="n">
         <v>1</v>
       </c>
@@ -11649,14 +11315,8 @@
         <v>0</v>
       </c>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
+      <c r="L300" t="inlineStr"/>
       <c r="M300" t="n">
         <v>1</v>
       </c>
@@ -11690,14 +11350,8 @@
         <v>0</v>
       </c>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
+      <c r="L301" t="inlineStr"/>
       <c r="M301" t="n">
         <v>1</v>
       </c>
@@ -11731,14 +11385,8 @@
         <v>0</v>
       </c>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
+      <c r="L302" t="inlineStr"/>
       <c r="M302" t="n">
         <v>1</v>
       </c>
@@ -11772,14 +11420,8 @@
         <v>0</v>
       </c>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
+      <c r="L303" t="inlineStr"/>
       <c r="M303" t="n">
         <v>1</v>
       </c>
@@ -11813,14 +11455,8 @@
         <v>0</v>
       </c>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
+      <c r="L304" t="inlineStr"/>
       <c r="M304" t="n">
         <v>1</v>
       </c>
@@ -11854,14 +11490,8 @@
         <v>0</v>
       </c>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
+      <c r="L305" t="inlineStr"/>
       <c r="M305" t="n">
         <v>1</v>
       </c>
@@ -11895,14 +11525,8 @@
         <v>0</v>
       </c>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
+      <c r="L306" t="inlineStr"/>
       <c r="M306" t="n">
         <v>1</v>
       </c>
@@ -11936,14 +11560,8 @@
         <v>0</v>
       </c>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
+      <c r="L307" t="inlineStr"/>
       <c r="M307" t="n">
         <v>1</v>
       </c>
@@ -11977,14 +11595,8 @@
         <v>0</v>
       </c>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
+      <c r="L308" t="inlineStr"/>
       <c r="M308" t="n">
         <v>1</v>
       </c>
@@ -12018,14 +11630,8 @@
         <v>0</v>
       </c>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
+      <c r="L309" t="inlineStr"/>
       <c r="M309" t="n">
         <v>1</v>
       </c>
@@ -12056,19 +11662,13 @@
         <v>0</v>
       </c>
       <c r="I310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L310" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
+      <c r="L310" t="inlineStr"/>
       <c r="M310" t="n">
-        <v>1.011528925619835</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311">
@@ -12097,7 +11697,7 @@
         <v>0</v>
       </c>
       <c r="I311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
@@ -12132,7 +11732,7 @@
         <v>0</v>
       </c>
       <c r="I312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
@@ -12167,7 +11767,7 @@
         <v>0</v>
       </c>
       <c r="I313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
@@ -12517,7 +12117,7 @@
         <v>0</v>
       </c>
       <c r="I323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr"/>
@@ -12587,7 +12187,7 @@
         <v>0</v>
       </c>
       <c r="I325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr"/>
@@ -12622,7 +12222,7 @@
         <v>0</v>
       </c>
       <c r="I326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr"/>
@@ -12759,17 +12359,13 @@
         <v>12.32999999999999</v>
       </c>
       <c r="H330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
       </c>
-      <c r="J330" t="n">
-        <v>12</v>
-      </c>
-      <c r="K330" t="n">
-        <v>12</v>
-      </c>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="inlineStr"/>
       <c r="M330" t="n">
         <v>1</v>
@@ -12798,22 +12394,14 @@
         <v>12.32499999999999</v>
       </c>
       <c r="H331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
       </c>
-      <c r="J331" t="n">
-        <v>12</v>
-      </c>
-      <c r="K331" t="n">
-        <v>12</v>
-      </c>
-      <c r="L331" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
+      <c r="L331" t="inlineStr"/>
       <c r="M331" t="n">
         <v>1</v>
       </c>
@@ -12841,22 +12429,14 @@
         <v>12.32499999999999</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
       </c>
-      <c r="J332" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K332" t="n">
-        <v>12</v>
-      </c>
-      <c r="L332" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
+      <c r="L332" t="inlineStr"/>
       <c r="M332" t="n">
         <v>1</v>
       </c>
@@ -12884,17 +12464,13 @@
         <v>12.32499999999999</v>
       </c>
       <c r="H333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
       </c>
-      <c r="J333" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K333" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="inlineStr"/>
       <c r="M333" t="n">
         <v>1</v>
@@ -12923,22 +12499,14 @@
         <v>12.32166666666666</v>
       </c>
       <c r="H334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
       </c>
-      <c r="J334" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K334" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L334" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
+      <c r="L334" t="inlineStr"/>
       <c r="M334" t="n">
         <v>1</v>
       </c>
@@ -12966,22 +12534,14 @@
         <v>12.31833333333333</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
       </c>
-      <c r="J335" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K335" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L335" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
+      <c r="L335" t="inlineStr"/>
       <c r="M335" t="n">
         <v>1</v>
       </c>
@@ -13009,17 +12569,13 @@
         <v>12.31666666666666</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
       </c>
-      <c r="J336" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K336" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="inlineStr"/>
       <c r="M336" t="n">
         <v>1</v>
@@ -13048,22 +12604,14 @@
         <v>12.31333333333333</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
       </c>
-      <c r="J337" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K337" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L337" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
+      <c r="L337" t="inlineStr"/>
       <c r="M337" t="n">
         <v>1</v>
       </c>
@@ -13091,22 +12639,14 @@
         <v>12.31166666666666</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
       </c>
-      <c r="J338" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K338" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
+      <c r="L338" t="inlineStr"/>
       <c r="M338" t="n">
         <v>1</v>
       </c>
@@ -13134,22 +12674,14 @@
         <v>12.30833333333333</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
       </c>
-      <c r="J339" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K339" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
+      <c r="L339" t="inlineStr"/>
       <c r="M339" t="n">
         <v>1</v>
       </c>
@@ -13177,22 +12709,14 @@
         <v>12.30166666666667</v>
       </c>
       <c r="H340" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
       </c>
-      <c r="J340" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K340" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
+      <c r="L340" t="inlineStr"/>
       <c r="M340" t="n">
         <v>1</v>
       </c>
@@ -13220,22 +12744,14 @@
         <v>12.29666666666667</v>
       </c>
       <c r="H341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
       </c>
-      <c r="J341" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K341" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
+      <c r="L341" t="inlineStr"/>
       <c r="M341" t="n">
         <v>1</v>
       </c>
@@ -13263,22 +12779,14 @@
         <v>12.29</v>
       </c>
       <c r="H342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
       </c>
-      <c r="J342" t="n">
-        <v>12</v>
-      </c>
-      <c r="K342" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
+      <c r="L342" t="inlineStr"/>
       <c r="M342" t="n">
         <v>1</v>
       </c>
@@ -13306,22 +12814,14 @@
         <v>12.285</v>
       </c>
       <c r="H343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
       </c>
-      <c r="J343" t="n">
-        <v>12</v>
-      </c>
-      <c r="K343" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
+      <c r="L343" t="inlineStr"/>
       <c r="M343" t="n">
         <v>1</v>
       </c>
@@ -13349,22 +12849,14 @@
         <v>12.27666666666667</v>
       </c>
       <c r="H344" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
       </c>
-      <c r="J344" t="n">
-        <v>12</v>
-      </c>
-      <c r="K344" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
+      <c r="L344" t="inlineStr"/>
       <c r="M344" t="n">
         <v>1</v>
       </c>
@@ -13392,22 +12884,14 @@
         <v>12.27166666666667</v>
       </c>
       <c r="H345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
       </c>
-      <c r="J345" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K345" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
+      <c r="L345" t="inlineStr"/>
       <c r="M345" t="n">
         <v>1</v>
       </c>
@@ -13435,22 +12919,14 @@
         <v>12.27166666666667</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
       </c>
-      <c r="J346" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K346" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
+      <c r="L346" t="inlineStr"/>
       <c r="M346" t="n">
         <v>1</v>
       </c>
@@ -13478,22 +12954,14 @@
         <v>12.26833333333334</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
       </c>
-      <c r="J347" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K347" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
+      <c r="L347" t="inlineStr"/>
       <c r="M347" t="n">
         <v>1</v>
       </c>
@@ -13521,22 +12989,14 @@
         <v>12.265</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
       </c>
-      <c r="J348" t="n">
-        <v>12</v>
-      </c>
-      <c r="K348" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
+      <c r="L348" t="inlineStr"/>
       <c r="M348" t="n">
         <v>1</v>
       </c>
@@ -13564,22 +13024,14 @@
         <v>12.26166666666667</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
       </c>
-      <c r="J349" t="n">
-        <v>12</v>
-      </c>
-      <c r="K349" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
+      <c r="L349" t="inlineStr"/>
       <c r="M349" t="n">
         <v>1</v>
       </c>
@@ -13607,22 +13059,14 @@
         <v>12.255</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
       </c>
-      <c r="J350" t="n">
-        <v>12</v>
-      </c>
-      <c r="K350" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
+      <c r="L350" t="inlineStr"/>
       <c r="M350" t="n">
         <v>1</v>
       </c>
@@ -13650,22 +13094,14 @@
         <v>12.25166666666667</v>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
       </c>
-      <c r="J351" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K351" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
+      <c r="L351" t="inlineStr"/>
       <c r="M351" t="n">
         <v>1</v>
       </c>
@@ -13693,22 +13129,14 @@
         <v>12.24666666666667</v>
       </c>
       <c r="H352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
       </c>
-      <c r="J352" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K352" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
+      <c r="L352" t="inlineStr"/>
       <c r="M352" t="n">
         <v>1</v>
       </c>
@@ -13736,22 +13164,14 @@
         <v>12.24</v>
       </c>
       <c r="H353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
       </c>
-      <c r="J353" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K353" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
+      <c r="L353" t="inlineStr"/>
       <c r="M353" t="n">
         <v>1</v>
       </c>
@@ -13779,22 +13199,14 @@
         <v>12.23333333333334</v>
       </c>
       <c r="H354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
       </c>
-      <c r="J354" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K354" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
+      <c r="L354" t="inlineStr"/>
       <c r="M354" t="n">
         <v>1</v>
       </c>
@@ -13822,22 +13234,14 @@
         <v>12.22833333333334</v>
       </c>
       <c r="H355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
       </c>
-      <c r="J355" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K355" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
+      <c r="L355" t="inlineStr"/>
       <c r="M355" t="n">
         <v>1</v>
       </c>
@@ -13865,22 +13269,14 @@
         <v>12.22333333333334</v>
       </c>
       <c r="H356" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
       </c>
-      <c r="J356" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K356" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
+      <c r="L356" t="inlineStr"/>
       <c r="M356" t="n">
         <v>1</v>
       </c>
@@ -13908,22 +13304,14 @@
         <v>12.21833333333334</v>
       </c>
       <c r="H357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
       </c>
-      <c r="J357" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K357" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
+      <c r="L357" t="inlineStr"/>
       <c r="M357" t="n">
         <v>1</v>
       </c>
@@ -13951,22 +13339,14 @@
         <v>12.21166666666667</v>
       </c>
       <c r="H358" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
       </c>
-      <c r="J358" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K358" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
+      <c r="L358" t="inlineStr"/>
       <c r="M358" t="n">
         <v>1</v>
       </c>
@@ -13994,22 +13374,14 @@
         <v>12.20833333333334</v>
       </c>
       <c r="H359" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
       </c>
-      <c r="J359" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K359" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
+      <c r="L359" t="inlineStr"/>
       <c r="M359" t="n">
         <v>1</v>
       </c>
@@ -14037,22 +13409,14 @@
         <v>12.20666666666668</v>
       </c>
       <c r="H360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
       </c>
-      <c r="J360" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K360" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
+      <c r="L360" t="inlineStr"/>
       <c r="M360" t="n">
         <v>1</v>
       </c>
@@ -14080,22 +13444,14 @@
         <v>12.20333333333334</v>
       </c>
       <c r="H361" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
       </c>
-      <c r="J361" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K361" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
+      <c r="L361" t="inlineStr"/>
       <c r="M361" t="n">
         <v>1</v>
       </c>
@@ -14123,22 +13479,14 @@
         <v>12.20166666666668</v>
       </c>
       <c r="H362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
       </c>
-      <c r="J362" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K362" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
+      <c r="L362" t="inlineStr"/>
       <c r="M362" t="n">
         <v>1</v>
       </c>
@@ -14166,22 +13514,14 @@
         <v>12.20000000000001</v>
       </c>
       <c r="H363" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
       </c>
-      <c r="J363" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K363" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
+      <c r="L363" t="inlineStr"/>
       <c r="M363" t="n">
         <v>1</v>
       </c>
@@ -14209,22 +13549,14 @@
         <v>12.20000000000001</v>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I364" t="n">
         <v>0</v>
       </c>
-      <c r="J364" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K364" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
+      <c r="L364" t="inlineStr"/>
       <c r="M364" t="n">
         <v>1</v>
       </c>
@@ -14252,22 +13584,14 @@
         <v>12.19666666666668</v>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
       </c>
-      <c r="J365" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K365" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
+      <c r="L365" t="inlineStr"/>
       <c r="M365" t="n">
         <v>1</v>
       </c>
@@ -14295,22 +13619,14 @@
         <v>12.19666666666668</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
       </c>
-      <c r="J366" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K366" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
+      <c r="L366" t="inlineStr"/>
       <c r="M366" t="n">
         <v>1</v>
       </c>
@@ -14344,14 +13660,8 @@
         <v>0</v>
       </c>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K367" t="inlineStr"/>
+      <c r="L367" t="inlineStr"/>
       <c r="M367" t="n">
         <v>1</v>
       </c>
@@ -14385,14 +13695,8 @@
         <v>0</v>
       </c>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K368" t="inlineStr"/>
+      <c r="L368" t="inlineStr"/>
       <c r="M368" t="n">
         <v>1</v>
       </c>
@@ -14426,14 +13730,8 @@
         <v>0</v>
       </c>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K369" t="inlineStr"/>
+      <c r="L369" t="inlineStr"/>
       <c r="M369" t="n">
         <v>1</v>
       </c>
@@ -14464,17 +13762,11 @@
         <v>0</v>
       </c>
       <c r="I370" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K370" t="inlineStr"/>
+      <c r="L370" t="inlineStr"/>
       <c r="M370" t="n">
         <v>1</v>
       </c>
@@ -14505,17 +13797,11 @@
         <v>0</v>
       </c>
       <c r="I371" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K371" t="inlineStr"/>
+      <c r="L371" t="inlineStr"/>
       <c r="M371" t="n">
         <v>1</v>
       </c>
@@ -14546,17 +13832,11 @@
         <v>0</v>
       </c>
       <c r="I372" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K372" t="inlineStr"/>
+      <c r="L372" t="inlineStr"/>
       <c r="M372" t="n">
         <v>1</v>
       </c>
@@ -14587,17 +13867,11 @@
         <v>0</v>
       </c>
       <c r="I373" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K373" t="inlineStr"/>
+      <c r="L373" t="inlineStr"/>
       <c r="M373" t="n">
         <v>1</v>
       </c>
@@ -14628,17 +13902,11 @@
         <v>0</v>
       </c>
       <c r="I374" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K374" t="inlineStr"/>
+      <c r="L374" t="inlineStr"/>
       <c r="M374" t="n">
         <v>1</v>
       </c>
@@ -14672,14 +13940,8 @@
         <v>0</v>
       </c>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K375" t="inlineStr"/>
+      <c r="L375" t="inlineStr"/>
       <c r="M375" t="n">
         <v>1</v>
       </c>
@@ -14713,14 +13975,8 @@
         <v>0</v>
       </c>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K376" t="inlineStr"/>
+      <c r="L376" t="inlineStr"/>
       <c r="M376" t="n">
         <v>1</v>
       </c>
@@ -14751,17 +14007,11 @@
         <v>0</v>
       </c>
       <c r="I377" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K377" t="inlineStr"/>
+      <c r="L377" t="inlineStr"/>
       <c r="M377" t="n">
         <v>1</v>
       </c>
@@ -14792,17 +14042,11 @@
         <v>0</v>
       </c>
       <c r="I378" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K378" t="inlineStr"/>
+      <c r="L378" t="inlineStr"/>
       <c r="M378" t="n">
         <v>1</v>
       </c>
@@ -14833,17 +14077,11 @@
         <v>0</v>
       </c>
       <c r="I379" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K379" t="inlineStr"/>
+      <c r="L379" t="inlineStr"/>
       <c r="M379" t="n">
         <v>1</v>
       </c>
@@ -14874,17 +14112,11 @@
         <v>0</v>
       </c>
       <c r="I380" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K380" t="inlineStr"/>
+      <c r="L380" t="inlineStr"/>
       <c r="M380" t="n">
         <v>1</v>
       </c>
@@ -14915,17 +14147,11 @@
         <v>0</v>
       </c>
       <c r="I381" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K381" t="inlineStr"/>
+      <c r="L381" t="inlineStr"/>
       <c r="M381" t="n">
         <v>1</v>
       </c>
@@ -14959,14 +14185,8 @@
         <v>0</v>
       </c>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K382" t="inlineStr"/>
+      <c r="L382" t="inlineStr"/>
       <c r="M382" t="n">
         <v>1</v>
       </c>
@@ -15000,14 +14220,8 @@
         <v>0</v>
       </c>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K383" t="inlineStr"/>
+      <c r="L383" t="inlineStr"/>
       <c r="M383" t="n">
         <v>1</v>
       </c>
@@ -15041,14 +14255,8 @@
         <v>0</v>
       </c>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K384" t="inlineStr"/>
+      <c r="L384" t="inlineStr"/>
       <c r="M384" t="n">
         <v>1</v>
       </c>
@@ -15082,14 +14290,8 @@
         <v>0</v>
       </c>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K385" t="inlineStr"/>
+      <c r="L385" t="inlineStr"/>
       <c r="M385" t="n">
         <v>1</v>
       </c>
@@ -15123,14 +14325,8 @@
         <v>0</v>
       </c>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K386" t="inlineStr"/>
+      <c r="L386" t="inlineStr"/>
       <c r="M386" t="n">
         <v>1</v>
       </c>
@@ -15164,14 +14360,8 @@
         <v>0</v>
       </c>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K387" t="inlineStr"/>
+      <c r="L387" t="inlineStr"/>
       <c r="M387" t="n">
         <v>1</v>
       </c>
@@ -15205,14 +14395,8 @@
         <v>0</v>
       </c>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K388" t="inlineStr"/>
+      <c r="L388" t="inlineStr"/>
       <c r="M388" t="n">
         <v>1</v>
       </c>
@@ -15246,14 +14430,8 @@
         <v>0</v>
       </c>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K389" t="inlineStr"/>
+      <c r="L389" t="inlineStr"/>
       <c r="M389" t="n">
         <v>1</v>
       </c>
@@ -15287,14 +14465,8 @@
         <v>0</v>
       </c>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K390" t="inlineStr"/>
+      <c r="L390" t="inlineStr"/>
       <c r="M390" t="n">
         <v>1</v>
       </c>
@@ -15328,14 +14500,8 @@
         <v>0</v>
       </c>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K391" t="inlineStr"/>
+      <c r="L391" t="inlineStr"/>
       <c r="M391" t="n">
         <v>1</v>
       </c>
@@ -15369,14 +14535,8 @@
         <v>0</v>
       </c>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K392" t="inlineStr"/>
+      <c r="L392" t="inlineStr"/>
       <c r="M392" t="n">
         <v>1</v>
       </c>
@@ -15404,22 +14564,14 @@
         <v>12.245</v>
       </c>
       <c r="H393" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I393" t="n">
         <v>0</v>
       </c>
-      <c r="J393" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K393" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
+      <c r="L393" t="inlineStr"/>
       <c r="M393" t="n">
         <v>1</v>
       </c>
@@ -15447,22 +14599,14 @@
         <v>12.24833333333334</v>
       </c>
       <c r="H394" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I394" t="n">
         <v>0</v>
       </c>
-      <c r="J394" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K394" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
+      <c r="L394" t="inlineStr"/>
       <c r="M394" t="n">
         <v>1</v>
       </c>
@@ -15496,14 +14640,8 @@
         <v>0</v>
       </c>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K395" t="inlineStr"/>
+      <c r="L395" t="inlineStr"/>
       <c r="M395" t="n">
         <v>1</v>
       </c>
@@ -15537,14 +14675,8 @@
         <v>0</v>
       </c>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K396" t="inlineStr"/>
+      <c r="L396" t="inlineStr"/>
       <c r="M396" t="n">
         <v>1</v>
       </c>
@@ -15578,14 +14710,8 @@
         <v>0</v>
       </c>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K397" t="inlineStr"/>
+      <c r="L397" t="inlineStr"/>
       <c r="M397" t="n">
         <v>1</v>
       </c>
@@ -15619,14 +14745,8 @@
         <v>0</v>
       </c>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K398" t="inlineStr"/>
+      <c r="L398" t="inlineStr"/>
       <c r="M398" t="n">
         <v>1</v>
       </c>
@@ -15660,14 +14780,8 @@
         <v>0</v>
       </c>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K399" t="inlineStr"/>
+      <c r="L399" t="inlineStr"/>
       <c r="M399" t="n">
         <v>1</v>
       </c>
@@ -15701,14 +14815,8 @@
         <v>0</v>
       </c>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K400" t="inlineStr"/>
+      <c r="L400" t="inlineStr"/>
       <c r="M400" t="n">
         <v>1</v>
       </c>
@@ -15742,14 +14850,8 @@
         <v>0</v>
       </c>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K401" t="inlineStr"/>
+      <c r="L401" t="inlineStr"/>
       <c r="M401" t="n">
         <v>1</v>
       </c>
@@ -15783,14 +14885,8 @@
         <v>0</v>
       </c>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K402" t="inlineStr"/>
+      <c r="L402" t="inlineStr"/>
       <c r="M402" t="n">
         <v>1</v>
       </c>
@@ -15824,14 +14920,8 @@
         <v>0</v>
       </c>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K403" t="inlineStr"/>
+      <c r="L403" t="inlineStr"/>
       <c r="M403" t="n">
         <v>1</v>
       </c>
@@ -15865,14 +14955,8 @@
         <v>0</v>
       </c>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K404" t="inlineStr"/>
+      <c r="L404" t="inlineStr"/>
       <c r="M404" t="n">
         <v>1</v>
       </c>
@@ -15906,14 +14990,8 @@
         <v>0</v>
       </c>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K405" t="inlineStr"/>
+      <c r="L405" t="inlineStr"/>
       <c r="M405" t="n">
         <v>1</v>
       </c>
@@ -15947,14 +15025,8 @@
         <v>0</v>
       </c>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K406" t="inlineStr"/>
+      <c r="L406" t="inlineStr"/>
       <c r="M406" t="n">
         <v>1</v>
       </c>
@@ -15988,14 +15060,8 @@
         <v>0</v>
       </c>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K407" t="inlineStr"/>
+      <c r="L407" t="inlineStr"/>
       <c r="M407" t="n">
         <v>1</v>
       </c>
@@ -16029,14 +15095,8 @@
         <v>0</v>
       </c>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K408" t="inlineStr"/>
+      <c r="L408" t="inlineStr"/>
       <c r="M408" t="n">
         <v>1</v>
       </c>
@@ -16070,14 +15130,8 @@
         <v>0</v>
       </c>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K409" t="inlineStr"/>
+      <c r="L409" t="inlineStr"/>
       <c r="M409" t="n">
         <v>1</v>
       </c>
@@ -16111,14 +15165,8 @@
         <v>0</v>
       </c>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K410" t="inlineStr"/>
+      <c r="L410" t="inlineStr"/>
       <c r="M410" t="n">
         <v>1</v>
       </c>
@@ -16152,14 +15200,8 @@
         <v>0</v>
       </c>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K411" t="inlineStr"/>
+      <c r="L411" t="inlineStr"/>
       <c r="M411" t="n">
         <v>1</v>
       </c>
@@ -16190,19 +15232,13 @@
         <v>0</v>
       </c>
       <c r="I412" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L412" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K412" t="inlineStr"/>
+      <c r="L412" t="inlineStr"/>
       <c r="M412" t="n">
-        <v>1.036322314049587</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413">
@@ -16266,7 +15302,7 @@
         <v>0</v>
       </c>
       <c r="I414" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr"/>
@@ -17176,7 +16212,7 @@
         <v>0</v>
       </c>
       <c r="I440" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr"/>
@@ -17211,7 +16247,7 @@
         <v>0</v>
       </c>
       <c r="I441" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr"/>
@@ -17246,7 +16282,7 @@
         <v>0</v>
       </c>
       <c r="I442" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr"/>

--- a/BackTest/2019-10-24 BackTest ORBS.xlsx
+++ b/BackTest/2019-10-24 BackTest ORBS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -715,7 +715,7 @@
         <v>2939171.727683526</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>2935112.610083526</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>2134475.337683526</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>7101093.286717234</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>8345447.38604822</v>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>8345447.38604822</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>8345447.38604822</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>8345447.38604822</v>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>6906318.01004822</v>
       </c>
       <c r="H53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>6906318.01004822</v>
       </c>
       <c r="H54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>6925158.84264822</v>
       </c>
       <c r="H55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>6965770.22464822</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>6965770.22464822</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>6965770.22464822</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>6965770.22464822</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>6964525.11834822</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>6964525.11834822</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>6887712.30264822</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>6887712.30264822</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>7145700.65284822</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>7123257.86304822</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>7281870.12034822</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>7118182.23064822</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>7130468.728548219</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>6602372.511648219</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>6602372.511648219</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>6602372.511648219</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>6863836.672148219</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>6850930.304748219</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>6858998.608048219</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>6858998.608048219</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>6880009.906448219</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>6583269.692948219</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>6583269.692948219</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>6519068.853548219</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>6519068.853548219</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>6519068.853548219</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>6519068.853548219</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>6457532.247348219</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>6490688.170048219</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>6490688.170048219</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>6268405.596648219</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>6268405.596648219</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>6268405.596648219</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>6268405.596648219</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>6268405.596648219</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>6268405.596648219</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>5795378.068048219</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>4622413.537248219</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>4622413.537248219</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>4861777.15814822</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>4861777.15814822</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>4919077.43314822</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>4919077.43314822</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>4779051.17574822</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>4779061.17574822</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>4779061.17574822</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>4771541.17574822</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>4602304.98174822</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>4602304.98174822</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>4568769.869048219</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>4614624.836248219</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>4970072.234248219</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>4970072.234248219</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>4823131.271448219</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>4955665.43024822</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>4982023.389748219</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>4981973.389748219</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>5101771.155648219</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>5101771.155648219</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>5101771.155648219</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>5101771.155648219</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>5101771.155648219</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>4842442.518048219</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>4581204.04584822</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>5010501.871648219</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>5003170.989048219</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>5003170.989048219</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>5003170.989048219</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>5127777.266348219</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>5127777.266348219</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>5127777.266348219</v>
       </c>
       <c r="H155" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>5071573.02234822</v>
       </c>
       <c r="H156" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>5071573.02234822</v>
       </c>
       <c r="H157" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>5071573.02234822</v>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>5071573.02234822</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>5073573.02234822</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>5173573.02234822</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>5057786.102548219</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>5057786.102548219</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>5213743.88524822</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>5213743.88524822</v>
       </c>
       <c r="H165" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>5220986.711335176</v>
       </c>
       <c r="H166" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>5213788.128535176</v>
       </c>
       <c r="H167" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>5153425.979135175</v>
       </c>
       <c r="H168" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>5154183.517935175</v>
       </c>
       <c r="H169" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>5114832.816735175</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>5114832.816735175</v>
       </c>
       <c r="H171" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>5115832.816735175</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>5098595.973935176</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>5098595.973935176</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>5098595.973935176</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>5098595.973935176</v>
       </c>
       <c r="H176" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>5098595.973935176</v>
       </c>
       <c r="H177" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>5098595.973935176</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>5076259.448335175</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>5118457.859135175</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>5118457.859135175</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>5118457.859135175</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>5027232.971135175</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>5027232.971135175</v>
       </c>
       <c r="H184" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>5027232.971135175</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>5019902.088435175</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>5019902.088435175</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>5019902.088435175</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>5019902.088435175</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>5021800.614835175</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>5503051.050135175</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>5503051.050135175</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>5503051.050135175</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>5503051.050135175</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>5503051.050135175</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>5503051.050135175</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>5440568.650835176</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>5481743.733535176</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>5481743.733535176</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>5440453.056135176</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>5440453.056135176</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>5440453.056135176</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>5666602.384435176</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>6162664.976935176</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>6148518.788235176</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>6189538.529535176</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>5609410.960635177</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>5420724.531335177</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>5068799.513635177</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>5052023.686335177</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>4318854.682035177</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>4190826.177135177</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>4233534.320635177</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>3794241.345135177</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>4189518.981535177</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>3840650.117935177</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -9295,10 +9295,14 @@
         <v>3836970.416735177</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="J270" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
@@ -9328,11 +9332,19 @@
         <v>3836970.416735177</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="J271" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9361,12 +9373,14 @@
         <v>3378917.737835177</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I272" t="n">
         <v>12.1</v>
       </c>
-      <c r="J272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K272" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -9400,12 +9414,14 @@
         <v>3386328.486735177</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I273" t="n">
         <v>12</v>
       </c>
-      <c r="J273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9439,12 +9455,14 @@
         <v>3386328.486735177</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I274" t="n">
         <v>12.1</v>
       </c>
-      <c r="J274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9478,12 +9496,14 @@
         <v>3284322.536535177</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I275" t="n">
         <v>12.1</v>
       </c>
-      <c r="J275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9517,12 +9537,14 @@
         <v>3284342.536535177</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I276" t="n">
         <v>12</v>
       </c>
-      <c r="J276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9556,12 +9578,14 @@
         <v>3043271.064335177</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I277" t="n">
         <v>12.1</v>
       </c>
-      <c r="J277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9595,12 +9619,14 @@
         <v>3138329.292535177</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I278" t="n">
         <v>12</v>
       </c>
-      <c r="J278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9634,12 +9660,14 @@
         <v>3138329.292535177</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I279" t="n">
         <v>12.1</v>
       </c>
-      <c r="J279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9673,12 +9701,14 @@
         <v>3138329.292535177</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I280" t="n">
         <v>12.1</v>
       </c>
-      <c r="J280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9712,12 +9742,14 @@
         <v>3138319.292535177</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I281" t="n">
         <v>12.1</v>
       </c>
-      <c r="J281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9751,12 +9783,14 @@
         <v>3152598.970135177</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I282" t="n">
         <v>12</v>
       </c>
-      <c r="J282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9790,12 +9824,14 @@
         <v>3149338.647735177</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I283" t="n">
         <v>12.1</v>
       </c>
-      <c r="J283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9829,12 +9865,14 @@
         <v>3149338.647735177</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I284" t="n">
         <v>12</v>
       </c>
-      <c r="J284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9868,12 +9906,14 @@
         <v>3541728.783335177</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I285" t="n">
         <v>12</v>
       </c>
-      <c r="J285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9907,12 +9947,14 @@
         <v>3541728.783335177</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I286" t="n">
         <v>12.1</v>
       </c>
-      <c r="J286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9946,12 +9988,14 @@
         <v>3541728.783335177</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I287" t="n">
         <v>12.1</v>
       </c>
-      <c r="J287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9985,12 +10029,14 @@
         <v>3680963.909635177</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I288" t="n">
         <v>12.1</v>
       </c>
-      <c r="J288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10024,12 +10070,14 @@
         <v>3680963.909635177</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I289" t="n">
         <v>12.3</v>
       </c>
-      <c r="J289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10063,10 +10111,14 @@
         <v>3680963.909635177</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="J290" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10100,12 +10152,14 @@
         <v>3680953.909635177</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I291" t="n">
         <v>12.3</v>
       </c>
-      <c r="J291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10139,12 +10193,14 @@
         <v>3680953.909635177</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I292" t="n">
         <v>12.2</v>
       </c>
-      <c r="J292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10178,12 +10234,14 @@
         <v>3670754.745235177</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I293" t="n">
         <v>12.2</v>
       </c>
-      <c r="J293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10217,12 +10275,14 @@
         <v>3710764.745235177</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I294" t="n">
         <v>12.1</v>
       </c>
-      <c r="J294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10256,12 +10316,14 @@
         <v>3710764.745235177</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I295" t="n">
         <v>12.2</v>
       </c>
-      <c r="J295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10295,12 +10357,14 @@
         <v>3710764.745235177</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I296" t="n">
         <v>12.2</v>
       </c>
-      <c r="J296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10334,12 +10398,14 @@
         <v>3724154.464935177</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I297" t="n">
         <v>12.2</v>
       </c>
-      <c r="J297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10373,12 +10439,14 @@
         <v>3724154.464935177</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I298" t="n">
         <v>12.3</v>
       </c>
-      <c r="J298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10412,12 +10480,14 @@
         <v>3724154.464935177</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I299" t="n">
         <v>12.3</v>
       </c>
-      <c r="J299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10451,12 +10521,14 @@
         <v>3737245.464935177</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I300" t="n">
         <v>12.3</v>
       </c>
-      <c r="J300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10490,12 +10562,14 @@
         <v>3737245.464935177</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I301" t="n">
         <v>12.4</v>
       </c>
-      <c r="J301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10529,10 +10603,14 @@
         <v>3944609.349435177</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I302" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="J302" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10569,7 +10647,9 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10606,7 +10686,9 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10643,7 +10725,9 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10680,7 +10764,9 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10717,7 +10803,9 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10754,7 +10842,9 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10791,7 +10881,9 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10828,7 +10920,9 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10865,7 +10959,9 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10902,7 +10998,9 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10939,7 +11037,9 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10976,7 +11076,9 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11013,7 +11115,9 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11050,7 +11154,9 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11087,7 +11193,9 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11124,7 +11232,9 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11161,7 +11271,9 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11198,7 +11310,9 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11235,7 +11349,9 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11272,7 +11388,9 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11306,10 +11424,14 @@
         <v>3739005.319635177</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
-      </c>
-      <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I323" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J323" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11343,10 +11465,14 @@
         <v>3739005.319635177</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
-      </c>
-      <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I324" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J324" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11380,10 +11506,14 @@
         <v>3744865.753135176</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
-      </c>
-      <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I325" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J325" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11417,10 +11547,14 @@
         <v>3744865.753135176</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
-      </c>
-      <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I326" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="J326" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11454,12 +11588,12 @@
         <v>3702608.168435176</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
-      </c>
-      <c r="I327" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="J327" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11493,12 +11627,12 @@
         <v>3702618.168435176</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
-      </c>
-      <c r="I328" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J328" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11532,12 +11666,12 @@
         <v>3702618.168435176</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
-      </c>
-      <c r="I329" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="J329" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11571,10 +11705,14 @@
         <v>3702618.168435176</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
-      </c>
-      <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I330" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="J330" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11608,10 +11746,14 @@
         <v>3543149.064735177</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
-      </c>
-      <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I331" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="J331" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11645,10 +11787,14 @@
         <v>3543149.064735177</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
-      </c>
-      <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I332" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="J332" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11682,10 +11828,14 @@
         <v>3822006.016935177</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
-      </c>
-      <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I333" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="J333" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11722,7 +11872,9 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11759,7 +11911,9 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11796,7 +11950,9 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11833,7 +11989,9 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11870,7 +12028,9 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11907,7 +12067,9 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11944,7 +12106,9 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11981,7 +12145,9 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12018,7 +12184,9 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12055,7 +12223,9 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12092,7 +12262,9 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12129,7 +12301,9 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12166,7 +12340,9 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12203,7 +12379,9 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12240,7 +12418,9 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12277,7 +12457,9 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12314,7 +12496,9 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12351,7 +12535,9 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12388,7 +12574,9 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12425,7 +12613,9 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12462,7 +12652,9 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12499,7 +12691,9 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12536,7 +12730,9 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12573,7 +12769,9 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12610,7 +12808,9 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12647,7 +12847,9 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12684,7 +12886,9 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12721,7 +12925,9 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12758,7 +12964,9 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12795,7 +13003,9 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12832,7 +13042,9 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12869,7 +13081,9 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12906,7 +13120,9 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12943,7 +13159,9 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12980,7 +13198,9 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13017,7 +13237,9 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13054,7 +13276,9 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13091,7 +13315,9 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13128,7 +13354,9 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13165,7 +13393,9 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13202,7 +13432,9 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13239,7 +13471,9 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13276,7 +13510,9 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13313,7 +13549,9 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13350,7 +13588,9 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13387,7 +13627,9 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13424,7 +13666,9 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13461,7 +13705,9 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13498,7 +13744,9 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13535,7 +13783,9 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13572,7 +13822,9 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13609,7 +13861,9 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13646,7 +13900,9 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13683,7 +13939,9 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13720,7 +13978,9 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13757,7 +14017,9 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13794,7 +14056,9 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13828,10 +14092,14 @@
         <v>3695767.635335177</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
-      </c>
-      <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I391" t="n">
+        <v>12</v>
+      </c>
+      <c r="J391" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13868,7 +14136,9 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13902,10 +14172,14 @@
         <v>3695767.635335177</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
-      </c>
-      <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I393" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="J393" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13939,10 +14213,14 @@
         <v>3695767.635335177</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
-      </c>
-      <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I394" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="J394" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13976,10 +14254,14 @@
         <v>3695767.635335177</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
-      </c>
-      <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I395" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="J395" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14013,10 +14295,14 @@
         <v>3900314.530735177</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
-      </c>
-      <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I396" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="J396" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14050,12 +14336,14 @@
         <v>3900314.530735177</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I397" t="n">
         <v>12.2</v>
       </c>
-      <c r="J397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14092,7 +14380,9 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14129,7 +14419,9 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14166,7 +14458,9 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14200,10 +14494,14 @@
         <v>3814145.739035177</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
-      </c>
-      <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I401" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="J401" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14237,10 +14535,14 @@
         <v>3814145.739035177</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
-      </c>
-      <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I402" t="n">
+        <v>12</v>
+      </c>
+      <c r="J402" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14274,10 +14576,14 @@
         <v>3814145.739035177</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
-      </c>
-      <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I403" t="n">
+        <v>12</v>
+      </c>
+      <c r="J403" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14311,12 +14617,14 @@
         <v>3816085.739035177</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I404" t="n">
         <v>12</v>
       </c>
-      <c r="J404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14350,12 +14658,14 @@
         <v>3816085.739035177</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I405" t="n">
         <v>12.2</v>
       </c>
-      <c r="J405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14392,7 +14702,9 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14426,12 +14738,14 @@
         <v>3792517.014435177</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I407" t="n">
         <v>12.1</v>
       </c>
-      <c r="J407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14465,10 +14779,14 @@
         <v>3792517.014435177</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
-      </c>
-      <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I408" t="n">
+        <v>12</v>
+      </c>
+      <c r="J408" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14502,10 +14820,14 @@
         <v>3792517.014435177</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
-      </c>
-      <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I409" t="n">
+        <v>12</v>
+      </c>
+      <c r="J409" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14539,12 +14861,14 @@
         <v>3920337.871135177</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I410" t="n">
         <v>12</v>
       </c>
-      <c r="J410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14578,12 +14902,14 @@
         <v>3920337.871135177</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I411" t="n">
         <v>12.1</v>
       </c>
-      <c r="J411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14617,12 +14943,14 @@
         <v>3920337.871135177</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I412" t="n">
         <v>12.1</v>
       </c>
-      <c r="J412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14656,12 +14984,14 @@
         <v>3943116.560535177</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I413" t="n">
         <v>12.1</v>
       </c>
-      <c r="J413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14695,12 +15025,14 @@
         <v>3943116.560535177</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I414" t="n">
         <v>12.2</v>
       </c>
-      <c r="J414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14734,12 +15066,14 @@
         <v>3943116.560535177</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I415" t="n">
         <v>12.2</v>
       </c>
-      <c r="J415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14773,12 +15107,14 @@
         <v>3943106.560535177</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I416" t="n">
         <v>12.2</v>
       </c>
-      <c r="J416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14812,12 +15148,14 @@
         <v>3943106.560535177</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I417" t="n">
         <v>12.1</v>
       </c>
-      <c r="J417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14851,12 +15189,14 @@
         <v>3968911.314535177</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I418" t="n">
         <v>12.1</v>
       </c>
-      <c r="J418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14890,12 +15230,14 @@
         <v>3968911.314535177</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I419" t="n">
         <v>12.2</v>
       </c>
-      <c r="J419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14929,12 +15271,12 @@
         <v>3968911.314535177</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
-      </c>
-      <c r="I420" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J420" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14968,12 +15310,12 @@
         <v>4007935.704779079</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
-      </c>
-      <c r="I421" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J421" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15007,10 +15349,14 @@
         <v>4007935.704779079</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
-      </c>
-      <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I422" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="J422" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15047,7 +15393,9 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15084,7 +15432,9 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15121,7 +15471,9 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15158,7 +15510,9 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15195,7 +15549,9 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15232,7 +15588,9 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15269,7 +15627,9 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15306,7 +15666,9 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15343,7 +15705,9 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15380,7 +15744,9 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15417,7 +15783,9 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15454,7 +15822,9 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15491,7 +15861,9 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15528,7 +15900,9 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15562,12 +15936,12 @@
         <v>3916949.075779079</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
-      </c>
-      <c r="I437" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="J437" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15604,7 +15978,9 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15638,12 +16014,12 @@
         <v>3894665.440379079</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
-      </c>
-      <c r="I439" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="J439" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15677,10 +16053,14 @@
         <v>3911957.95647908</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
-      </c>
-      <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I440" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="J440" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15714,10 +16094,14 @@
         <v>3874052.95647908</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
-      </c>
-      <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I441" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="J441" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15751,10 +16135,14 @@
         <v>3874052.95647908</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
-      </c>
-      <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I442" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="J442" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15788,10 +16176,14 @@
         <v>3874052.95647908</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
-      </c>
-      <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I443" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="J443" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15828,7 +16220,9 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15865,7 +16259,9 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15902,7 +16298,9 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15939,7 +16337,9 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15976,7 +16376,9 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16013,7 +16415,9 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16047,10 +16451,14 @@
         <v>3791081.59677908</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
-      </c>
-      <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I450" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J450" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16084,10 +16492,14 @@
         <v>3823164.90627908</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
-      </c>
-      <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I451" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="J451" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16121,10 +16533,14 @@
         <v>3823354.66227908</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
-      </c>
-      <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I452" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J452" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16161,7 +16577,9 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16198,7 +16616,9 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16235,7 +16655,9 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16272,7 +16694,9 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16309,7 +16733,9 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16346,7 +16772,9 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16383,7 +16811,9 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16420,7 +16850,9 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16457,7 +16889,9 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16494,7 +16928,9 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16531,7 +16967,9 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16568,7 +17006,9 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16605,7 +17045,9 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16642,7 +17084,9 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16679,7 +17123,9 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16716,7 +17162,9 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16753,7 +17201,9 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16790,7 +17240,9 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16827,7 +17279,9 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16864,7 +17318,9 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16901,7 +17357,9 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16938,7 +17396,9 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16975,7 +17435,9 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17012,7 +17474,9 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17049,7 +17513,9 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17086,7 +17552,9 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17123,7 +17591,9 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17160,7 +17630,9 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17197,7 +17669,9 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17234,7 +17708,9 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17271,7 +17747,9 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17308,7 +17786,9 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17345,7 +17825,9 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17382,7 +17864,9 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17419,7 +17903,9 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17456,7 +17942,9 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17493,7 +17981,9 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17530,7 +18020,9 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17567,7 +18059,9 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17604,7 +18098,9 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17641,7 +18137,9 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17678,7 +18176,9 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17715,7 +18215,9 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17752,7 +18254,9 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17789,7 +18293,9 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K497" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17826,7 +18332,9 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K498" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17863,7 +18371,9 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K499" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17900,7 +18410,9 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K500" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17937,7 +18449,9 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K501" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17974,7 +18488,9 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K502" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18011,7 +18527,9 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K503" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18048,7 +18566,9 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K504" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18085,7 +18605,9 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K505" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18122,7 +18644,9 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K506" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18159,7 +18683,9 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K507" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18196,7 +18722,9 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K508" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18233,7 +18761,9 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K509" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18270,7 +18800,9 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K510" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18307,7 +18839,9 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K511" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18344,7 +18878,9 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K512" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18381,7 +18917,9 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
+      <c r="J513" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K513" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18418,7 +18956,9 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
+      <c r="J514" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K514" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18455,7 +18995,9 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
+      <c r="J515" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K515" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18492,7 +19034,9 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="inlineStr"/>
+      <c r="J516" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K516" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18529,7 +19073,9 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
+      <c r="J517" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K517" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18566,7 +19112,9 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
+      <c r="J518" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K518" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18603,7 +19151,9 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
+      <c r="J519" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K519" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18640,7 +19190,9 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
+      <c r="J520" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K520" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18677,7 +19229,9 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
+      <c r="J521" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K521" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18714,7 +19268,9 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
+      <c r="J522" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K522" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18751,7 +19307,9 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
+      <c r="J523" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K523" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18788,7 +19346,9 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
+      <c r="J524" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K524" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18825,7 +19385,9 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
+      <c r="J525" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K525" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18862,7 +19424,9 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
+      <c r="J526" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K526" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18899,7 +19463,9 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
+      <c r="J527" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K527" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18936,7 +19502,9 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
+      <c r="J528" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K528" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18973,7 +19541,9 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="inlineStr"/>
+      <c r="J529" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K529" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19010,7 +19580,9 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="inlineStr"/>
+      <c r="J530" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K530" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19047,7 +19619,9 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="inlineStr"/>
+      <c r="J531" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K531" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19084,7 +19658,9 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="inlineStr"/>
+      <c r="J532" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K532" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19121,7 +19697,9 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="inlineStr"/>
+      <c r="J533" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K533" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19158,7 +19736,9 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="inlineStr"/>
+      <c r="J534" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K534" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19195,7 +19775,9 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="inlineStr"/>
+      <c r="J535" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K535" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19232,7 +19814,9 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="inlineStr"/>
+      <c r="J536" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K536" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19266,10 +19850,12 @@
         <v>4206894.761979081</v>
       </c>
       <c r="H537" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="inlineStr"/>
+      <c r="J537" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K537" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19303,10 +19889,12 @@
         <v>4206894.761979081</v>
       </c>
       <c r="H538" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="inlineStr"/>
+      <c r="J538" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K538" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19340,10 +19928,12 @@
         <v>4050554.929979081</v>
       </c>
       <c r="H539" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="inlineStr"/>
+      <c r="J539" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K539" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19377,10 +19967,12 @@
         <v>3544938.870679081</v>
       </c>
       <c r="H540" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="inlineStr"/>
+      <c r="J540" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K540" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19414,10 +20006,12 @@
         <v>3544938.870679081</v>
       </c>
       <c r="H541" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="inlineStr"/>
+      <c r="J541" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K541" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19451,10 +20045,12 @@
         <v>3659226.250179081</v>
       </c>
       <c r="H542" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="inlineStr"/>
+      <c r="J542" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K542" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19488,10 +20084,12 @@
         <v>3659226.250179081</v>
       </c>
       <c r="H543" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="inlineStr"/>
+      <c r="J543" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K543" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19503,6 +20101,6 @@
       <c r="M543" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-24 BackTest ORBS.xlsx
+++ b/BackTest/2019-10-24 BackTest ORBS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>3558274.960683526</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>3905118.340483527</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>1318387.625283526</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>6906318.01004822</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>6925158.84264822</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>6965770.22464822</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>6965770.22464822</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>6965770.22464822</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>6965770.22464822</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>6964525.11834822</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>6964525.11834822</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>6887712.30264822</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>6887712.30264822</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>7145700.65284822</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>7123257.86304822</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>7281870.12034822</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>7118182.23064822</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>7130468.728548219</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>6602372.511648219</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>6602372.511648219</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>6602372.511648219</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>6863836.672148219</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>6850930.304748219</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>6858998.608048219</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>6858998.608048219</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>6519068.853548219</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>6519068.853548219</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>6519068.853548219</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>6457532.247348219</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>6490688.170048219</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>6490688.170048219</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>6268405.596648219</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>6268405.596648219</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>6268405.596648219</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>6268405.596648219</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>6268405.596648219</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>6268405.596648219</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>5795378.068048219</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>4622413.537248219</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>4622413.537248219</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>4861777.15814822</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>4861777.15814822</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>4919077.43314822</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>4919077.43314822</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>4779051.17574822</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>4779061.17574822</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>4779061.17574822</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>4771541.17574822</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>4602304.98174822</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>4602304.98174822</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>4568769.869048219</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>4614624.836248219</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>4970072.234248219</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>4970072.234248219</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>4823131.271448219</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>4955665.43024822</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>4982023.389748219</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>4981973.389748219</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>5101771.155648219</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>5101771.155648219</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>5101771.155648219</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>5101771.155648219</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>5101771.155648219</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>5003170.989048219</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>5003170.989048219</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>5003170.989048219</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>5071573.02234822</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>5071573.02234822</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>5071573.02234822</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>5071573.02234822</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>5073573.02234822</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>5173573.02234822</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>5057786.102548219</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>5057786.102548219</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>5213743.88524822</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>5213743.88524822</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>5220986.711335176</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>5213788.128535176</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>5153425.979135175</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>5154183.517935175</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>5114832.816735175</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>5114832.816735175</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>5115832.816735175</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>5098595.973935176</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>5098595.973935176</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>5098595.973935176</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>5098595.973935176</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>5098595.973935176</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>5098595.973935176</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>5076259.448335175</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>5118457.859135175</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>5118457.859135175</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>5118457.859135175</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>5027232.971135175</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>5027232.971135175</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>5027232.971135175</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>5019902.088435175</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>5019902.088435175</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>5019902.088435175</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>5019902.088435175</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>5021800.614835175</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>5503051.050135175</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>5503051.050135175</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>5503051.050135175</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>5503051.050135175</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>5503051.050135175</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>5503051.050135175</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>5440568.650835176</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>5481743.733535176</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>5481743.733535176</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>5440453.056135176</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7711,11 +7711,17 @@
         <v>4189518.981535177</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>12</v>
+      </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7744,11 +7750,17 @@
         <v>4189518.981535177</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>12.2</v>
+      </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7781,7 +7793,11 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7814,7 +7830,11 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7843,11 +7863,17 @@
         <v>4458128.641735177</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>12.1</v>
+      </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7876,11 +7902,17 @@
         <v>4470258.028335177</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>12.1</v>
+      </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7913,7 +7945,11 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7946,7 +7982,11 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -7975,11 +8015,17 @@
         <v>4470258.028335177</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I230" t="n">
+        <v>12.3</v>
+      </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8012,7 +8058,11 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8045,7 +8095,11 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8078,7 +8132,11 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8111,7 +8169,11 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8144,7 +8206,11 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8177,7 +8243,11 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8210,7 +8280,11 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8239,11 +8313,17 @@
         <v>3711098.746135178</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I238" t="n">
+        <v>11.9</v>
+      </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8272,11 +8352,17 @@
         <v>3995979.499535177</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I239" t="n">
+        <v>11.9</v>
+      </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8305,11 +8391,17 @@
         <v>3995979.499535177</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I240" t="n">
+        <v>12.1</v>
+      </c>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8342,7 +8434,11 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8375,7 +8471,11 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8408,7 +8508,11 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8441,7 +8545,11 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8474,7 +8582,11 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8503,11 +8615,17 @@
         <v>3781652.043735177</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>12</v>
+      </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8536,11 +8654,17 @@
         <v>3781652.043735177</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>12</v>
+      </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8569,11 +8693,17 @@
         <v>3717037.005635177</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>12</v>
+      </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8602,11 +8732,17 @@
         <v>3717091.964235177</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>11.9</v>
+      </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8635,11 +8771,17 @@
         <v>3669165.795735177</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>12.1</v>
+      </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8668,11 +8810,17 @@
         <v>3669165.795735177</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I251" t="n">
+        <v>12</v>
+      </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8701,11 +8849,17 @@
         <v>4001463.075735177</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>12</v>
+      </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8734,11 +8888,17 @@
         <v>4187532.747835177</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>12.1</v>
+      </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8771,7 +8931,11 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8804,7 +8968,11 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8837,7 +9005,11 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8870,7 +9042,11 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8903,7 +9079,11 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -8936,7 +9116,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -8969,7 +9153,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9002,7 +9190,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9035,7 +9227,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9068,7 +9264,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9101,7 +9301,11 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9134,7 +9338,11 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9167,7 +9375,11 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9200,7 +9412,11 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9233,7 +9449,11 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9266,7 +9486,11 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9295,15 +9519,15 @@
         <v>3836970.416735177</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
-      </c>
-      <c r="I270" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="J270" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K270" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9332,17 +9556,13 @@
         <v>3836970.416735177</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
-      </c>
-      <c r="I271" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="J271" t="n">
-        <v>12.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L271" t="n">
@@ -9378,12 +9598,10 @@
       <c r="I272" t="n">
         <v>12.1</v>
       </c>
-      <c r="J272" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L272" t="n">
@@ -9419,9 +9637,7 @@
       <c r="I273" t="n">
         <v>12</v>
       </c>
-      <c r="J273" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9460,9 +9676,7 @@
       <c r="I274" t="n">
         <v>12.1</v>
       </c>
-      <c r="J274" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9501,9 +9715,7 @@
       <c r="I275" t="n">
         <v>12.1</v>
       </c>
-      <c r="J275" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9542,9 +9754,7 @@
       <c r="I276" t="n">
         <v>12</v>
       </c>
-      <c r="J276" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9583,9 +9793,7 @@
       <c r="I277" t="n">
         <v>12.1</v>
       </c>
-      <c r="J277" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9624,9 +9832,7 @@
       <c r="I278" t="n">
         <v>12</v>
       </c>
-      <c r="J278" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9665,9 +9871,7 @@
       <c r="I279" t="n">
         <v>12.1</v>
       </c>
-      <c r="J279" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9706,9 +9910,7 @@
       <c r="I280" t="n">
         <v>12.1</v>
       </c>
-      <c r="J280" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9747,9 +9949,7 @@
       <c r="I281" t="n">
         <v>12.1</v>
       </c>
-      <c r="J281" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9788,9 +9988,7 @@
       <c r="I282" t="n">
         <v>12</v>
       </c>
-      <c r="J282" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9829,9 +10027,7 @@
       <c r="I283" t="n">
         <v>12.1</v>
       </c>
-      <c r="J283" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9870,9 +10066,7 @@
       <c r="I284" t="n">
         <v>12</v>
       </c>
-      <c r="J284" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9911,9 +10105,7 @@
       <c r="I285" t="n">
         <v>12</v>
       </c>
-      <c r="J285" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9952,9 +10144,7 @@
       <c r="I286" t="n">
         <v>12.1</v>
       </c>
-      <c r="J286" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9993,9 +10183,7 @@
       <c r="I287" t="n">
         <v>12.1</v>
       </c>
-      <c r="J287" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10034,9 +10222,7 @@
       <c r="I288" t="n">
         <v>12.1</v>
       </c>
-      <c r="J288" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10070,14 +10256,10 @@
         <v>3680963.909635177</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
-      </c>
-      <c r="I289" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="J289" t="n">
-        <v>12.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
+      <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10111,14 +10293,10 @@
         <v>3680963.909635177</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
-      </c>
-      <c r="I290" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="J290" t="n">
-        <v>12.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
+      <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10152,14 +10330,10 @@
         <v>3680953.909635177</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
-      </c>
-      <c r="I291" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="J291" t="n">
-        <v>12.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
+      <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10193,14 +10367,10 @@
         <v>3680953.909635177</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
-      </c>
-      <c r="I292" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J292" t="n">
-        <v>12.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
+      <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10234,14 +10404,10 @@
         <v>3670754.745235177</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
-      </c>
-      <c r="I293" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J293" t="n">
-        <v>12.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
+      <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10275,14 +10441,10 @@
         <v>3710764.745235177</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
-      </c>
-      <c r="I294" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="J294" t="n">
-        <v>12.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
+      <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10316,14 +10478,10 @@
         <v>3710764.745235177</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
-      </c>
-      <c r="I295" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J295" t="n">
-        <v>12.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
+      <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10357,14 +10515,10 @@
         <v>3710764.745235177</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
-      </c>
-      <c r="I296" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J296" t="n">
-        <v>12.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
+      <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10398,14 +10552,10 @@
         <v>3724154.464935177</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
-      </c>
-      <c r="I297" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J297" t="n">
-        <v>12.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
+      <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10439,14 +10589,10 @@
         <v>3724154.464935177</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
-      </c>
-      <c r="I298" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="J298" t="n">
-        <v>12.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
+      <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10480,14 +10626,10 @@
         <v>3724154.464935177</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
-      </c>
-      <c r="I299" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="J299" t="n">
-        <v>12.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
+      <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10521,14 +10663,10 @@
         <v>3737245.464935177</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
-      </c>
-      <c r="I300" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="J300" t="n">
-        <v>12.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
+      <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10562,14 +10700,10 @@
         <v>3737245.464935177</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
-      </c>
-      <c r="I301" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="J301" t="n">
-        <v>12.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
+      <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10603,14 +10737,10 @@
         <v>3944609.349435177</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
-      </c>
-      <c r="I302" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="J302" t="n">
-        <v>12.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
+      <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10647,9 +10777,7 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10686,9 +10814,7 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10725,9 +10851,7 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10764,9 +10888,7 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10803,9 +10925,7 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10842,9 +10962,7 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10881,9 +10999,7 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10917,20 +11033,16 @@
         <v>3973940.123635177</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L310" t="n">
-        <v>1</v>
-      </c>
+      <c r="L310" t="inlineStr"/>
       <c r="M310" t="inlineStr"/>
     </row>
     <row r="311">
@@ -10956,17 +11068,11 @@
         <v>3686338.414735177</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10995,17 +11101,11 @@
         <v>3763278.811535177</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11034,17 +11134,11 @@
         <v>3763278.811535177</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11073,17 +11167,11 @@
         <v>3763278.811535177</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11112,17 +11200,11 @@
         <v>3745016.905035177</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11154,14 +11236,8 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11193,14 +11269,8 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11232,14 +11302,8 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11271,14 +11335,8 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11310,14 +11368,8 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11349,14 +11401,8 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11388,14 +11434,8 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11424,19 +11464,11 @@
         <v>3739005.319635177</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
-      </c>
-      <c r="I323" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J323" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I323" t="inlineStr"/>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11465,19 +11497,11 @@
         <v>3739005.319635177</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
-      </c>
-      <c r="I324" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J324" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11506,19 +11530,11 @@
         <v>3744865.753135176</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
-      </c>
-      <c r="I325" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J325" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11547,19 +11563,11 @@
         <v>3744865.753135176</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
-      </c>
-      <c r="I326" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="J326" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I326" t="inlineStr"/>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11591,14 +11599,8 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11630,14 +11632,8 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11669,14 +11665,8 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11705,19 +11695,11 @@
         <v>3702618.168435176</v>
       </c>
       <c r="H330" t="n">
-        <v>1</v>
-      </c>
-      <c r="I330" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="J330" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I330" t="inlineStr"/>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11746,19 +11728,11 @@
         <v>3543149.064735177</v>
       </c>
       <c r="H331" t="n">
-        <v>1</v>
-      </c>
-      <c r="I331" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="J331" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I331" t="inlineStr"/>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11787,19 +11761,11 @@
         <v>3543149.064735177</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
-      </c>
-      <c r="I332" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="J332" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I332" t="inlineStr"/>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11836,11 +11802,7 @@
       <c r="J333" t="n">
         <v>12.1</v>
       </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11877,7 +11839,7 @@
       </c>
       <c r="K334" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L334" t="n">
@@ -11916,7 +11878,7 @@
       </c>
       <c r="K335" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L335" t="n">
@@ -11950,14 +11912,8 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11989,14 +11945,8 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12028,14 +11978,8 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12067,14 +12011,8 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12106,14 +12044,8 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12145,14 +12077,8 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12184,14 +12110,8 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12223,14 +12143,8 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12262,14 +12176,8 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12301,14 +12209,8 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12340,14 +12242,8 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12379,14 +12275,8 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12418,14 +12308,8 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12457,14 +12341,8 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12496,14 +12374,8 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12535,14 +12407,8 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12574,14 +12440,8 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12613,14 +12473,8 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12652,14 +12506,8 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12691,14 +12539,8 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12730,14 +12572,8 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12769,14 +12605,8 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12808,14 +12638,8 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12847,14 +12671,8 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12886,14 +12704,8 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12925,14 +12737,8 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12964,14 +12770,8 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13003,14 +12803,8 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13042,14 +12836,8 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13078,17 +12866,11 @@
         <v>4454411.997735177</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13117,17 +12899,11 @@
         <v>4454421.997735177</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13156,17 +12932,11 @@
         <v>4390624.476235177</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13198,14 +12968,8 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13237,14 +13001,8 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13276,14 +13034,8 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13315,14 +13067,8 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13354,14 +13100,8 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13393,14 +13133,8 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13432,14 +13166,8 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13471,14 +13199,8 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13510,14 +13232,8 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13549,14 +13265,8 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13588,14 +13298,8 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13627,14 +13331,8 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13666,14 +13364,8 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13705,14 +13397,8 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13744,14 +13430,8 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13783,14 +13463,8 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13822,14 +13496,8 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13861,14 +13529,8 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13900,14 +13562,8 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13939,14 +13595,8 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13978,14 +13628,8 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14017,14 +13661,8 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14056,14 +13694,8 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14092,19 +13724,11 @@
         <v>3695767.635335177</v>
       </c>
       <c r="H391" t="n">
-        <v>1</v>
-      </c>
-      <c r="I391" t="n">
-        <v>12</v>
-      </c>
-      <c r="J391" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I391" t="inlineStr"/>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14136,14 +13760,8 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14172,19 +13790,11 @@
         <v>3695767.635335177</v>
       </c>
       <c r="H393" t="n">
-        <v>1</v>
-      </c>
-      <c r="I393" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="J393" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I393" t="inlineStr"/>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14213,19 +13823,11 @@
         <v>3695767.635335177</v>
       </c>
       <c r="H394" t="n">
-        <v>1</v>
-      </c>
-      <c r="I394" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="J394" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I394" t="inlineStr"/>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14254,19 +13856,11 @@
         <v>3695767.635335177</v>
       </c>
       <c r="H395" t="n">
-        <v>1</v>
-      </c>
-      <c r="I395" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="J395" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I395" t="inlineStr"/>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14295,19 +13889,11 @@
         <v>3900314.530735177</v>
       </c>
       <c r="H396" t="n">
-        <v>1</v>
-      </c>
-      <c r="I396" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="J396" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I396" t="inlineStr"/>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14336,19 +13922,11 @@
         <v>3900314.530735177</v>
       </c>
       <c r="H397" t="n">
-        <v>1</v>
-      </c>
-      <c r="I397" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J397" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I397" t="inlineStr"/>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14380,14 +13958,8 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14419,14 +13991,8 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14458,14 +14024,8 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14494,19 +14054,11 @@
         <v>3814145.739035177</v>
       </c>
       <c r="H401" t="n">
-        <v>1</v>
-      </c>
-      <c r="I401" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="J401" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I401" t="inlineStr"/>
+      <c r="J401" t="inlineStr"/>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14535,19 +14087,11 @@
         <v>3814145.739035177</v>
       </c>
       <c r="H402" t="n">
-        <v>1</v>
-      </c>
-      <c r="I402" t="n">
-        <v>12</v>
-      </c>
-      <c r="J402" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I402" t="inlineStr"/>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14582,13 +14126,9 @@
         <v>12</v>
       </c>
       <c r="J403" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14623,11 +14163,11 @@
         <v>12</v>
       </c>
       <c r="J404" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="K404" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L404" t="n">
@@ -14658,17 +14198,15 @@
         <v>3816085.739035177</v>
       </c>
       <c r="H405" t="n">
-        <v>1</v>
-      </c>
-      <c r="I405" t="n">
-        <v>12.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I405" t="inlineStr"/>
       <c r="J405" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="K405" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L405" t="n">
@@ -14702,14 +14240,8 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J406" t="inlineStr"/>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14738,19 +14270,11 @@
         <v>3792517.014435177</v>
       </c>
       <c r="H407" t="n">
-        <v>1</v>
-      </c>
-      <c r="I407" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="J407" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I407" t="inlineStr"/>
+      <c r="J407" t="inlineStr"/>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14779,19 +14303,11 @@
         <v>3792517.014435177</v>
       </c>
       <c r="H408" t="n">
-        <v>1</v>
-      </c>
-      <c r="I408" t="n">
-        <v>12</v>
-      </c>
-      <c r="J408" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I408" t="inlineStr"/>
+      <c r="J408" t="inlineStr"/>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14820,19 +14336,11 @@
         <v>3792517.014435177</v>
       </c>
       <c r="H409" t="n">
-        <v>1</v>
-      </c>
-      <c r="I409" t="n">
-        <v>12</v>
-      </c>
-      <c r="J409" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I409" t="inlineStr"/>
+      <c r="J409" t="inlineStr"/>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14861,19 +14369,11 @@
         <v>3920337.871135177</v>
       </c>
       <c r="H410" t="n">
-        <v>1</v>
-      </c>
-      <c r="I410" t="n">
-        <v>12</v>
-      </c>
-      <c r="J410" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I410" t="inlineStr"/>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14902,19 +14402,11 @@
         <v>3920337.871135177</v>
       </c>
       <c r="H411" t="n">
-        <v>1</v>
-      </c>
-      <c r="I411" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="J411" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I411" t="inlineStr"/>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14943,19 +14435,11 @@
         <v>3920337.871135177</v>
       </c>
       <c r="H412" t="n">
-        <v>1</v>
-      </c>
-      <c r="I412" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="J412" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I412" t="inlineStr"/>
+      <c r="J412" t="inlineStr"/>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14984,19 +14468,11 @@
         <v>3943116.560535177</v>
       </c>
       <c r="H413" t="n">
-        <v>1</v>
-      </c>
-      <c r="I413" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="J413" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I413" t="inlineStr"/>
+      <c r="J413" t="inlineStr"/>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15025,19 +14501,11 @@
         <v>3943116.560535177</v>
       </c>
       <c r="H414" t="n">
-        <v>1</v>
-      </c>
-      <c r="I414" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J414" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I414" t="inlineStr"/>
+      <c r="J414" t="inlineStr"/>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15066,19 +14534,11 @@
         <v>3943116.560535177</v>
       </c>
       <c r="H415" t="n">
-        <v>1</v>
-      </c>
-      <c r="I415" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J415" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I415" t="inlineStr"/>
+      <c r="J415" t="inlineStr"/>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15107,19 +14567,11 @@
         <v>3943106.560535177</v>
       </c>
       <c r="H416" t="n">
-        <v>1</v>
-      </c>
-      <c r="I416" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J416" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I416" t="inlineStr"/>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15148,19 +14600,11 @@
         <v>3943106.560535177</v>
       </c>
       <c r="H417" t="n">
-        <v>1</v>
-      </c>
-      <c r="I417" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="J417" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I417" t="inlineStr"/>
+      <c r="J417" t="inlineStr"/>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15197,11 +14641,7 @@
       <c r="J418" t="n">
         <v>12.1</v>
       </c>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15230,17 +14670,15 @@
         <v>3968911.314535177</v>
       </c>
       <c r="H419" t="n">
-        <v>1</v>
-      </c>
-      <c r="I419" t="n">
-        <v>12.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I419" t="inlineStr"/>
       <c r="J419" t="n">
         <v>12.1</v>
       </c>
       <c r="K419" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L419" t="n">
@@ -15279,7 +14717,7 @@
       </c>
       <c r="K420" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L420" t="n">
@@ -15313,14 +14751,8 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J421" t="inlineStr"/>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15349,19 +14781,11 @@
         <v>4007935.704779079</v>
       </c>
       <c r="H422" t="n">
-        <v>1</v>
-      </c>
-      <c r="I422" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="J422" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I422" t="inlineStr"/>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15393,14 +14817,8 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J423" t="inlineStr"/>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15432,14 +14850,8 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J424" t="inlineStr"/>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15471,14 +14883,8 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J425" t="inlineStr"/>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15510,14 +14916,8 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J426" t="inlineStr"/>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15549,14 +14949,8 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15588,14 +14982,8 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J428" t="inlineStr"/>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15627,14 +15015,8 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J429" t="inlineStr"/>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15666,14 +15048,8 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J430" t="inlineStr"/>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15705,14 +15081,8 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J431" t="inlineStr"/>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15744,14 +15114,8 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J432" t="inlineStr"/>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15783,14 +15147,8 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J433" t="inlineStr"/>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15822,14 +15180,8 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J434" t="inlineStr"/>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15861,14 +15213,8 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J435" t="inlineStr"/>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15900,14 +15246,8 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J436" t="inlineStr"/>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15936,17 +15276,11 @@
         <v>3916949.075779079</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15975,17 +15309,11 @@
         <v>3894665.440379079</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J438" t="inlineStr"/>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -16017,14 +15345,8 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J439" t="inlineStr"/>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -16053,19 +15375,11 @@
         <v>3911957.95647908</v>
       </c>
       <c r="H440" t="n">
-        <v>1</v>
-      </c>
-      <c r="I440" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="J440" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I440" t="inlineStr"/>
+      <c r="J440" t="inlineStr"/>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -16094,19 +15408,11 @@
         <v>3874052.95647908</v>
       </c>
       <c r="H441" t="n">
-        <v>1</v>
-      </c>
-      <c r="I441" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="J441" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I441" t="inlineStr"/>
+      <c r="J441" t="inlineStr"/>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -16135,19 +15441,11 @@
         <v>3874052.95647908</v>
       </c>
       <c r="H442" t="n">
-        <v>1</v>
-      </c>
-      <c r="I442" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="J442" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I442" t="inlineStr"/>
+      <c r="J442" t="inlineStr"/>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -16176,19 +15474,11 @@
         <v>3874052.95647908</v>
       </c>
       <c r="H443" t="n">
-        <v>1</v>
-      </c>
-      <c r="I443" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="J443" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I443" t="inlineStr"/>
+      <c r="J443" t="inlineStr"/>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -16220,14 +15510,8 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J444" t="inlineStr"/>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -16259,14 +15543,8 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J445" t="inlineStr"/>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -16298,14 +15576,8 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J446" t="inlineStr"/>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -16337,14 +15609,8 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J447" t="inlineStr"/>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -16376,14 +15642,8 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J448" t="inlineStr"/>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -16415,14 +15675,8 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J449" t="inlineStr"/>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -16451,19 +15705,11 @@
         <v>3791081.59677908</v>
       </c>
       <c r="H450" t="n">
-        <v>1</v>
-      </c>
-      <c r="I450" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J450" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I450" t="inlineStr"/>
+      <c r="J450" t="inlineStr"/>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -16492,19 +15738,11 @@
         <v>3823164.90627908</v>
       </c>
       <c r="H451" t="n">
-        <v>1</v>
-      </c>
-      <c r="I451" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="J451" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I451" t="inlineStr"/>
+      <c r="J451" t="inlineStr"/>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -16533,19 +15771,11 @@
         <v>3823354.66227908</v>
       </c>
       <c r="H452" t="n">
-        <v>1</v>
-      </c>
-      <c r="I452" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J452" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I452" t="inlineStr"/>
+      <c r="J452" t="inlineStr"/>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -16577,14 +15807,8 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J453" t="inlineStr"/>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -16616,14 +15840,8 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J454" t="inlineStr"/>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -16655,14 +15873,8 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J455" t="inlineStr"/>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16694,14 +15906,8 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J456" t="inlineStr"/>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16730,17 +15936,11 @@
         <v>3857484.321379079</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J457" t="inlineStr"/>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16769,17 +15969,11 @@
         <v>3857484.321379079</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J458" t="inlineStr"/>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16808,17 +16002,11 @@
         <v>3837484.321379079</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J459" t="inlineStr"/>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16847,17 +16035,11 @@
         <v>3914550.28427908</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J460" t="inlineStr"/>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16886,17 +16068,11 @@
         <v>3914550.28427908</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J461" t="inlineStr"/>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16928,14 +16104,8 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J462" t="inlineStr"/>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16967,14 +16137,8 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J463" t="inlineStr"/>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -17006,14 +16170,8 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J464" t="inlineStr"/>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -17042,17 +16200,11 @@
         <v>4073879.10287908</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J465" t="inlineStr"/>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -17084,14 +16236,8 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J466" t="inlineStr"/>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -17123,14 +16269,8 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J467" t="inlineStr"/>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -17162,14 +16302,8 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J468" t="inlineStr"/>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -17198,17 +16332,11 @@
         <v>4014534.70287908</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J469" t="inlineStr"/>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -17240,14 +16368,8 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J470" t="inlineStr"/>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -17279,14 +16401,8 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J471" t="inlineStr"/>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -17318,14 +16434,8 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J472" t="inlineStr"/>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -17357,14 +16467,8 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J473" t="inlineStr"/>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -17396,14 +16500,8 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J474" t="inlineStr"/>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -17435,14 +16533,8 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J475" t="inlineStr"/>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -17474,14 +16566,8 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J476" t="inlineStr"/>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -17513,14 +16599,8 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J477" t="inlineStr"/>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -17552,14 +16632,8 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J478" t="inlineStr"/>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -17591,14 +16665,8 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J479" t="inlineStr"/>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -17630,14 +16698,8 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J480" t="inlineStr"/>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -17669,14 +16731,8 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J481" t="inlineStr"/>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -17708,14 +16764,8 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J482" t="inlineStr"/>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -17747,14 +16797,8 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J483" t="inlineStr"/>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -17786,14 +16830,8 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J484" t="inlineStr"/>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -17825,14 +16863,8 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J485" t="inlineStr"/>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -17864,14 +16896,8 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J486" t="inlineStr"/>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17903,14 +16929,8 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J487" t="inlineStr"/>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17942,14 +16962,8 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J488" t="inlineStr"/>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17981,14 +16995,8 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J489" t="inlineStr"/>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -18020,14 +17028,8 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J490" t="inlineStr"/>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -18059,14 +17061,8 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J491" t="inlineStr"/>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -18098,14 +17094,8 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J492" t="inlineStr"/>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -18137,14 +17127,8 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J493" t="inlineStr"/>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -18176,14 +17160,8 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J494" t="inlineStr"/>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -18215,14 +17193,8 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J495" t="inlineStr"/>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -18254,14 +17226,8 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J496" t="inlineStr"/>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -18293,14 +17259,8 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J497" t="inlineStr"/>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -18332,14 +17292,8 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J498" t="inlineStr"/>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -18371,14 +17325,8 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J499" t="inlineStr"/>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -18410,14 +17358,8 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J500" t="inlineStr"/>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -18449,14 +17391,8 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J501" t="inlineStr"/>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -18488,14 +17424,8 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J502" t="inlineStr"/>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -18527,14 +17457,8 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J503" t="inlineStr"/>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -18566,14 +17490,8 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J504" t="inlineStr"/>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -18605,14 +17523,8 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J505" t="inlineStr"/>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -18644,14 +17556,8 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J506" t="inlineStr"/>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -18683,14 +17589,8 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J507" t="inlineStr"/>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -18722,14 +17622,8 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J508" t="inlineStr"/>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -18761,14 +17655,8 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J509" t="inlineStr"/>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -18800,14 +17688,8 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J510" t="inlineStr"/>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -18839,14 +17721,8 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J511" t="inlineStr"/>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -18878,14 +17754,8 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J512" t="inlineStr"/>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -18917,14 +17787,8 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J513" t="inlineStr"/>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -18956,14 +17820,8 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J514" t="inlineStr"/>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -18995,14 +17853,8 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J515" t="inlineStr"/>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -19034,14 +17886,8 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J516" t="inlineStr"/>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -19073,14 +17919,8 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J517" t="inlineStr"/>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -19109,17 +17949,15 @@
         <v>2491718.08467908</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
-      </c>
-      <c r="I518" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I518" t="n">
+        <v>12.2</v>
+      </c>
       <c r="J518" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>12.2</v>
+      </c>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -19148,15 +17986,17 @@
         <v>2219578.33307908</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
-      </c>
-      <c r="I519" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I519" t="n">
+        <v>12.3</v>
+      </c>
       <c r="J519" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="K519" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L519" t="n">
@@ -19187,15 +18027,17 @@
         <v>2323267.63747908</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
-      </c>
-      <c r="I520" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I520" t="n">
+        <v>12.2</v>
+      </c>
       <c r="J520" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="K520" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L520" t="n">
@@ -19226,17 +18068,15 @@
         <v>2323267.63747908</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
-      </c>
-      <c r="I521" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I521" t="n">
+        <v>12.3</v>
+      </c>
       <c r="J521" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>12.3</v>
+      </c>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -19265,15 +18105,17 @@
         <v>2736777.06127908</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
-      </c>
-      <c r="I522" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I522" t="n">
+        <v>12.3</v>
+      </c>
       <c r="J522" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="K522" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L522" t="n">
@@ -19308,7 +18150,7 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="K523" t="inlineStr">
         <is>
@@ -19347,7 +18189,7 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="K524" t="inlineStr">
         <is>
@@ -19386,7 +18228,7 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="K525" t="inlineStr">
         <is>
@@ -19425,7 +18267,7 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="K526" t="inlineStr">
         <is>
@@ -19464,7 +18306,7 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="K527" t="inlineStr">
         <is>
@@ -19503,7 +18345,7 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="K528" t="inlineStr">
         <is>
@@ -19542,7 +18384,7 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="K529" t="inlineStr">
         <is>
@@ -19581,7 +18423,7 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="K530" t="inlineStr">
         <is>
@@ -19616,11 +18458,11 @@
         <v>4020999.65827908</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="K531" t="inlineStr">
         <is>
@@ -19655,11 +18497,11 @@
         <v>4259407.78637908</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="K532" t="inlineStr">
         <is>
@@ -19694,21 +18536,23 @@
         <v>4320945.836079081</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="K533" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L533" t="n">
-        <v>1</v>
-      </c>
-      <c r="M533" t="inlineStr"/>
+        <v>1.060040650406504</v>
+      </c>
+      <c r="M533" t="n">
+        <v>1.211864406779661</v>
+      </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
@@ -19733,17 +18577,11 @@
         <v>4320945.836079081</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J534" t="inlineStr"/>
+      <c r="K534" t="inlineStr"/>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -19772,17 +18610,11 @@
         <v>4179685.161979081</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J535" t="inlineStr"/>
+      <c r="K535" t="inlineStr"/>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -19811,17 +18643,11 @@
         <v>4206894.761979081</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J536" t="inlineStr"/>
+      <c r="K536" t="inlineStr"/>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -19850,17 +18676,11 @@
         <v>4206894.761979081</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J537" t="inlineStr"/>
+      <c r="K537" t="inlineStr"/>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -19889,17 +18709,11 @@
         <v>4206894.761979081</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J538" t="inlineStr"/>
+      <c r="K538" t="inlineStr"/>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -19928,17 +18742,11 @@
         <v>4050554.929979081</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J539" t="inlineStr"/>
+      <c r="K539" t="inlineStr"/>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -19967,17 +18775,11 @@
         <v>3544938.870679081</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J540" t="inlineStr"/>
+      <c r="K540" t="inlineStr"/>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -20006,17 +18808,11 @@
         <v>3544938.870679081</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J541" t="inlineStr"/>
+      <c r="K541" t="inlineStr"/>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -20045,17 +18841,11 @@
         <v>3659226.250179081</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J542" t="inlineStr"/>
+      <c r="K542" t="inlineStr"/>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -20084,23 +18874,17 @@
         <v>3659226.250179081</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J543" t="inlineStr"/>
+      <c r="K543" t="inlineStr"/>
       <c r="L543" t="n">
         <v>1</v>
       </c>
       <c r="M543" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-24 BackTest ORBS.xlsx
+++ b/BackTest/2019-10-24 BackTest ORBS.xlsx
@@ -451,7 +451,7 @@
         <v>3558274.960683526</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>3905118.340483527</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>1318387.625283526</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>6701518.323017234</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>7101093.286717234</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>8345447.38604822</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>8345447.38604822</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>8345447.38604822</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>8345447.38604822</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>6906318.01004822</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>6906318.01004822</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>6925158.84264822</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>6925158.84264822</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>6862138.26804822</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>6921991.90634822</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>6921991.90634822</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>6965770.22464822</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>6965770.22464822</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>6965770.22464822</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>6965770.22464822</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>6964525.11834822</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>6887712.30264822</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>7118182.23064822</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -7711,17 +7711,11 @@
         <v>4189518.981535177</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
-      </c>
-      <c r="I222" t="n">
-        <v>12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7750,17 +7744,11 @@
         <v>4189518.981535177</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I223" t="n">
-        <v>12.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7793,11 +7781,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7830,11 +7814,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7863,17 +7843,11 @@
         <v>4458128.641735177</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>12.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7902,17 +7876,11 @@
         <v>4470258.028335177</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>12.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7945,11 +7913,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7982,11 +7946,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8015,17 +7975,11 @@
         <v>4470258.028335177</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
-      </c>
-      <c r="I230" t="n">
-        <v>12.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8058,11 +8012,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8095,11 +8045,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8132,11 +8078,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8169,11 +8111,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8206,11 +8144,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8243,11 +8177,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8280,11 +8210,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8313,17 +8239,11 @@
         <v>3711098.746135178</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
-      </c>
-      <c r="I238" t="n">
-        <v>11.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8352,17 +8272,11 @@
         <v>3995979.499535177</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
-      </c>
-      <c r="I239" t="n">
-        <v>11.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8391,17 +8305,11 @@
         <v>3995979.499535177</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
-      </c>
-      <c r="I240" t="n">
-        <v>12.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8434,11 +8342,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8471,11 +8375,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8508,11 +8408,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8545,11 +8441,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8582,11 +8474,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8615,17 +8503,11 @@
         <v>3781652.043735177</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
-      </c>
-      <c r="I246" t="n">
-        <v>12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8654,17 +8536,11 @@
         <v>3781652.043735177</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I247" t="n">
-        <v>12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8693,17 +8569,11 @@
         <v>3717037.005635177</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
-      </c>
-      <c r="I248" t="n">
-        <v>12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8732,17 +8602,11 @@
         <v>3717091.964235177</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
-      </c>
-      <c r="I249" t="n">
-        <v>11.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8771,17 +8635,11 @@
         <v>3669165.795735177</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
-      </c>
-      <c r="I250" t="n">
-        <v>12.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8810,17 +8668,11 @@
         <v>3669165.795735177</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
-      </c>
-      <c r="I251" t="n">
-        <v>12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8849,17 +8701,11 @@
         <v>4001463.075735177</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I252" t="n">
-        <v>12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8888,17 +8734,11 @@
         <v>4187532.747835177</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I253" t="n">
-        <v>12.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8931,11 +8771,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8968,11 +8804,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9005,11 +8837,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9042,11 +8870,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9079,11 +8903,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9116,11 +8936,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9153,11 +8969,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9190,11 +9002,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9227,11 +9035,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9264,11 +9068,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9301,11 +9101,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9338,11 +9134,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9375,11 +9167,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9412,11 +9200,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9449,11 +9233,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9486,11 +9266,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9523,11 +9299,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9560,11 +9332,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9601,7 +9369,7 @@
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L272" t="n">
@@ -10256,9 +10024,11 @@
         <v>3680963.909635177</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I289" t="n">
+        <v>12.3</v>
+      </c>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr">
         <is>
@@ -10293,9 +10063,11 @@
         <v>3680963.909635177</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>12.3</v>
+      </c>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr">
         <is>
@@ -10330,9 +10102,11 @@
         <v>3680953.909635177</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
+        <v>12.3</v>
+      </c>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr">
         <is>
@@ -10367,9 +10141,11 @@
         <v>3680953.909635177</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>12.2</v>
+      </c>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr">
         <is>
@@ -10404,9 +10180,11 @@
         <v>3670754.745235177</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>12.2</v>
+      </c>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr">
         <is>
@@ -10441,9 +10219,11 @@
         <v>3710764.745235177</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I294" t="n">
+        <v>12.1</v>
+      </c>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr">
         <is>
@@ -10478,9 +10258,11 @@
         <v>3710764.745235177</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>12.2</v>
+      </c>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
@@ -10515,9 +10297,11 @@
         <v>3710764.745235177</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I296" t="n">
+        <v>12.2</v>
+      </c>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr">
         <is>
@@ -10552,9 +10336,11 @@
         <v>3724154.464935177</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>12.2</v>
+      </c>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
@@ -10589,9 +10375,11 @@
         <v>3724154.464935177</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>12.3</v>
+      </c>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr">
         <is>
@@ -10626,9 +10414,11 @@
         <v>3724154.464935177</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>12.3</v>
+      </c>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
@@ -10663,9 +10453,11 @@
         <v>3737245.464935177</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>12.3</v>
+      </c>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>
@@ -10700,9 +10492,11 @@
         <v>3737245.464935177</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>12.4</v>
+      </c>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
@@ -10737,9 +10531,11 @@
         <v>3944609.349435177</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I302" t="n">
+        <v>12.4</v>
+      </c>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
@@ -10811,9 +10607,11 @@
         <v>3914387.123635177</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I304" t="n">
+        <v>12.4</v>
+      </c>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
@@ -10848,9 +10646,11 @@
         <v>3973940.123635177</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I305" t="n">
+        <v>12.5</v>
+      </c>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr">
         <is>
@@ -10885,9 +10685,11 @@
         <v>3973940.123635177</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I306" t="n">
+        <v>12.6</v>
+      </c>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr">
         <is>
@@ -11033,16 +10835,18 @@
         <v>3973940.123635177</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L310" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L310" t="n">
+        <v>1</v>
+      </c>
       <c r="M310" t="inlineStr"/>
     </row>
     <row r="311">
@@ -11068,11 +10872,15 @@
         <v>3686338.414735177</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11101,11 +10909,15 @@
         <v>3763278.811535177</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11134,11 +10946,15 @@
         <v>3763278.811535177</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11167,11 +10983,15 @@
         <v>3763278.811535177</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11200,11 +11020,15 @@
         <v>3745016.905035177</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11237,7 +11061,11 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11270,7 +11098,11 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11303,7 +11135,11 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11332,11 +11168,17 @@
         <v>3739005.319635177</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
-      </c>
-      <c r="I319" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I319" t="n">
+        <v>12.2</v>
+      </c>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11365,11 +11207,17 @@
         <v>3739005.319635177</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
-      </c>
-      <c r="I320" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I320" t="n">
+        <v>12.2</v>
+      </c>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11398,11 +11246,17 @@
         <v>3739005.319635177</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I321" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I321" t="n">
+        <v>12.2</v>
+      </c>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11431,11 +11285,17 @@
         <v>3739005.319635177</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
-      </c>
-      <c r="I322" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I322" t="n">
+        <v>12.2</v>
+      </c>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11464,11 +11324,17 @@
         <v>3739005.319635177</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
-      </c>
-      <c r="I323" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I323" t="n">
+        <v>12.2</v>
+      </c>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11497,11 +11363,17 @@
         <v>3739005.319635177</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
-      </c>
-      <c r="I324" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I324" t="n">
+        <v>12.2</v>
+      </c>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11530,11 +11402,17 @@
         <v>3744865.753135176</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
-      </c>
-      <c r="I325" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I325" t="n">
+        <v>12.2</v>
+      </c>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11563,11 +11441,17 @@
         <v>3744865.753135176</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
-      </c>
-      <c r="I326" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I326" t="n">
+        <v>12.3</v>
+      </c>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11596,11 +11480,17 @@
         <v>3702608.168435176</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
-      </c>
-      <c r="I327" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I327" t="n">
+        <v>12.3</v>
+      </c>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11629,11 +11519,17 @@
         <v>3702618.168435176</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
-      </c>
-      <c r="I328" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I328" t="n">
+        <v>12.2</v>
+      </c>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11662,11 +11558,17 @@
         <v>3702618.168435176</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
-      </c>
-      <c r="I329" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I329" t="n">
+        <v>12.3</v>
+      </c>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11695,11 +11597,17 @@
         <v>3702618.168435176</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
-      </c>
-      <c r="I330" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I330" t="n">
+        <v>12.3</v>
+      </c>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11728,11 +11636,17 @@
         <v>3543149.064735177</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
-      </c>
-      <c r="I331" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I331" t="n">
+        <v>12.3</v>
+      </c>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11761,11 +11675,17 @@
         <v>3543149.064735177</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
-      </c>
-      <c r="I332" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I332" t="n">
+        <v>12.1</v>
+      </c>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11799,10 +11719,12 @@
       <c r="I333" t="n">
         <v>12.1</v>
       </c>
-      <c r="J333" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11834,12 +11756,10 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L334" t="n">
@@ -11873,12 +11793,10 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L335" t="n">
@@ -11913,7 +11831,11 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11946,7 +11868,11 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11979,7 +11905,11 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12012,7 +11942,11 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12045,7 +11979,11 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12078,7 +12016,11 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12111,7 +12053,11 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12144,7 +12090,11 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12177,7 +12127,11 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12210,7 +12164,11 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12243,7 +12201,11 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12276,7 +12238,11 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12309,7 +12275,11 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12342,7 +12312,11 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12375,7 +12349,11 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12408,7 +12386,11 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12441,7 +12423,11 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12474,7 +12460,11 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12507,7 +12497,11 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12540,7 +12534,11 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12573,7 +12571,11 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12606,7 +12608,11 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12639,7 +12645,11 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12672,7 +12682,11 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12705,7 +12719,11 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12738,7 +12756,11 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12771,7 +12793,11 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12804,7 +12830,11 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12837,7 +12867,11 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12866,11 +12900,15 @@
         <v>4454411.997735177</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12899,11 +12937,15 @@
         <v>4454421.997735177</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12932,11 +12974,15 @@
         <v>4390624.476235177</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12969,7 +13015,11 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13002,7 +13052,11 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13035,7 +13089,11 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13068,7 +13126,11 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13101,7 +13163,11 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13134,7 +13200,11 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13167,7 +13237,11 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13200,7 +13274,11 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13233,7 +13311,11 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13266,7 +13348,11 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13299,7 +13385,11 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13332,7 +13422,11 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13365,7 +13459,11 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13398,7 +13496,11 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13431,7 +13533,11 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13464,7 +13570,11 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13497,7 +13607,11 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13530,7 +13644,11 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13563,7 +13681,11 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13596,7 +13718,11 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13629,7 +13755,11 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13662,7 +13792,11 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13695,7 +13829,11 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13728,7 +13866,11 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13761,7 +13903,11 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13794,7 +13940,11 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13827,7 +13977,11 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13860,7 +14014,11 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13893,7 +14051,11 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13926,7 +14088,11 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13959,7 +14125,11 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13992,7 +14162,11 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14025,7 +14199,11 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14058,7 +14236,11 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14091,7 +14273,11 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14120,15 +14306,15 @@
         <v>3814145.739035177</v>
       </c>
       <c r="H403" t="n">
-        <v>1</v>
-      </c>
-      <c r="I403" t="n">
-        <v>12</v>
-      </c>
-      <c r="J403" t="n">
-        <v>12</v>
-      </c>
-      <c r="K403" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I403" t="inlineStr"/>
+      <c r="J403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14157,17 +14343,13 @@
         <v>3816085.739035177</v>
       </c>
       <c r="H404" t="n">
-        <v>1</v>
-      </c>
-      <c r="I404" t="n">
-        <v>12</v>
-      </c>
-      <c r="J404" t="n">
-        <v>12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I404" t="inlineStr"/>
+      <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L404" t="n">
@@ -14201,12 +14383,10 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>12</v>
-      </c>
+      <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L405" t="n">
@@ -14241,7 +14421,11 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14274,7 +14458,11 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14307,7 +14495,11 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14336,11 +14528,17 @@
         <v>3792517.014435177</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
-      </c>
-      <c r="I409" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I409" t="n">
+        <v>12</v>
+      </c>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14369,11 +14567,17 @@
         <v>3920337.871135177</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
-      </c>
-      <c r="I410" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I410" t="n">
+        <v>12</v>
+      </c>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14406,7 +14610,11 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14435,11 +14643,17 @@
         <v>3920337.871135177</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
-      </c>
-      <c r="I412" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I412" t="n">
+        <v>12.1</v>
+      </c>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14472,7 +14686,11 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14505,7 +14723,11 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14538,7 +14760,11 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14571,7 +14797,11 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14604,7 +14834,11 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14633,15 +14867,15 @@
         <v>3968911.314535177</v>
       </c>
       <c r="H418" t="n">
-        <v>1</v>
-      </c>
-      <c r="I418" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="J418" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K418" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I418" t="inlineStr"/>
+      <c r="J418" t="inlineStr"/>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14673,12 +14907,10 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L419" t="n">
@@ -14712,12 +14944,10 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L420" t="n">
@@ -14752,7 +14982,11 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14785,7 +15019,11 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14818,7 +15056,11 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14851,7 +15093,11 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14884,7 +15130,11 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14917,7 +15167,11 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14950,7 +15204,11 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14983,7 +15241,11 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15016,7 +15278,11 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15049,7 +15315,11 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15082,7 +15352,11 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15115,7 +15389,11 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15148,7 +15426,11 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15177,11 +15459,17 @@
         <v>3957170.72727908</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
-      </c>
-      <c r="I434" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I434" t="n">
+        <v>12.4</v>
+      </c>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15210,11 +15498,17 @@
         <v>3957936.10857908</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
-      </c>
-      <c r="I435" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I435" t="n">
+        <v>12.3</v>
+      </c>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15243,11 +15537,17 @@
         <v>3957936.10857908</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
-      </c>
-      <c r="I436" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I436" t="n">
+        <v>12.5</v>
+      </c>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15276,11 +15576,17 @@
         <v>3916949.075779079</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
-      </c>
-      <c r="I437" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I437" t="n">
+        <v>12.5</v>
+      </c>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15309,11 +15615,17 @@
         <v>3894665.440379079</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
-      </c>
-      <c r="I438" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I438" t="n">
+        <v>12.4</v>
+      </c>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15342,11 +15654,17 @@
         <v>3894665.440379079</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
-      </c>
-      <c r="I439" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I439" t="n">
+        <v>12.3</v>
+      </c>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15375,11 +15693,17 @@
         <v>3911957.95647908</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
-      </c>
-      <c r="I440" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I440" t="n">
+        <v>12.3</v>
+      </c>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15408,11 +15732,17 @@
         <v>3874052.95647908</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
-      </c>
-      <c r="I441" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I441" t="n">
+        <v>12.4</v>
+      </c>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15441,11 +15771,17 @@
         <v>3874052.95647908</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
-      </c>
-      <c r="I442" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I442" t="n">
+        <v>12.3</v>
+      </c>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15474,11 +15810,17 @@
         <v>3874052.95647908</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
-      </c>
-      <c r="I443" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I443" t="n">
+        <v>12.3</v>
+      </c>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15507,11 +15849,17 @@
         <v>3874052.95647908</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
-      </c>
-      <c r="I444" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I444" t="n">
+        <v>12.3</v>
+      </c>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15540,11 +15888,17 @@
         <v>3874052.95647908</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
-      </c>
-      <c r="I445" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I445" t="n">
+        <v>12.3</v>
+      </c>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15573,11 +15927,17 @@
         <v>3874052.95647908</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
-      </c>
-      <c r="I446" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I446" t="n">
+        <v>12.3</v>
+      </c>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15606,11 +15966,17 @@
         <v>3873052.95647908</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
-      </c>
-      <c r="I447" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I447" t="n">
+        <v>12.3</v>
+      </c>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15639,11 +16005,17 @@
         <v>3873052.95647908</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
-      </c>
-      <c r="I448" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I448" t="n">
+        <v>12.2</v>
+      </c>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15672,11 +16044,17 @@
         <v>3873052.95647908</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
-      </c>
-      <c r="I449" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I449" t="n">
+        <v>12.2</v>
+      </c>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15705,11 +16083,17 @@
         <v>3791081.59677908</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
-      </c>
-      <c r="I450" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I450" t="n">
+        <v>12.2</v>
+      </c>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15738,11 +16122,17 @@
         <v>3823164.90627908</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
-      </c>
-      <c r="I451" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I451" t="n">
+        <v>12.1</v>
+      </c>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15771,11 +16161,17 @@
         <v>3823354.66227908</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
-      </c>
-      <c r="I452" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I452" t="n">
+        <v>12.2</v>
+      </c>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15804,11 +16200,17 @@
         <v>3823354.66227908</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
-      </c>
-      <c r="I453" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I453" t="n">
+        <v>12.3</v>
+      </c>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15837,11 +16239,17 @@
         <v>3837784.85517908</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
-      </c>
-      <c r="I454" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I454" t="n">
+        <v>12.3</v>
+      </c>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15870,11 +16278,17 @@
         <v>3852748.77517908</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
-      </c>
-      <c r="I455" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I455" t="n">
+        <v>12.4</v>
+      </c>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15907,7 +16321,11 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15936,11 +16354,15 @@
         <v>3857484.321379079</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15969,11 +16391,15 @@
         <v>3857484.321379079</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16002,11 +16428,15 @@
         <v>3837484.321379079</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16035,11 +16465,15 @@
         <v>3914550.28427908</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16068,11 +16502,15 @@
         <v>3914550.28427908</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16105,7 +16543,11 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16138,7 +16580,11 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16171,7 +16617,11 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16200,11 +16650,15 @@
         <v>4073879.10287908</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16237,7 +16691,11 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16270,7 +16728,11 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16303,7 +16765,11 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16332,11 +16798,15 @@
         <v>4014534.70287908</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16369,7 +16839,11 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16402,7 +16876,11 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16435,7 +16913,11 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16468,7 +16950,11 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16501,7 +16987,11 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16534,7 +17024,11 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16567,7 +17061,11 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16600,7 +17098,11 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16633,7 +17135,11 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16666,7 +17172,11 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16699,7 +17209,11 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16732,7 +17246,11 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16765,7 +17283,11 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16798,7 +17320,11 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16831,7 +17357,11 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16864,7 +17394,11 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16897,7 +17431,11 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -16930,7 +17468,11 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -16963,7 +17505,11 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -16996,7 +17542,11 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17029,7 +17579,11 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17062,7 +17616,11 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17095,7 +17653,11 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17128,7 +17690,11 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17161,7 +17727,11 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17194,7 +17764,11 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17227,7 +17801,11 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17260,7 +17838,11 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17293,7 +17875,11 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17326,7 +17912,11 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17359,7 +17949,11 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17392,7 +17986,11 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17425,7 +18023,11 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17458,7 +18060,11 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17491,7 +18097,11 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17524,7 +18134,11 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17553,11 +18167,17 @@
         <v>2808675.90707908</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
-      </c>
-      <c r="I506" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I506" t="n">
+        <v>12.2</v>
+      </c>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17590,7 +18210,11 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17623,7 +18247,11 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17656,7 +18284,11 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17689,7 +18321,11 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17722,7 +18358,11 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17755,7 +18395,11 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17788,7 +18432,11 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17821,7 +18469,11 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -17854,7 +18506,11 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -17883,11 +18539,17 @@
         <v>2617428.90417908</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
-      </c>
-      <c r="I516" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I516" t="n">
+        <v>12.2</v>
+      </c>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -17916,11 +18578,17 @@
         <v>2461718.08467908</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
-      </c>
-      <c r="I517" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I517" t="n">
+        <v>12.3</v>
+      </c>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -17954,10 +18622,12 @@
       <c r="I518" t="n">
         <v>12.2</v>
       </c>
-      <c r="J518" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K518" t="inlineStr"/>
+      <c r="J518" t="inlineStr"/>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -17991,12 +18661,10 @@
       <c r="I519" t="n">
         <v>12.3</v>
       </c>
-      <c r="J519" t="n">
-        <v>12.2</v>
-      </c>
+      <c r="J519" t="inlineStr"/>
       <c r="K519" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L519" t="n">
@@ -18032,12 +18700,10 @@
       <c r="I520" t="n">
         <v>12.2</v>
       </c>
-      <c r="J520" t="n">
-        <v>12.2</v>
-      </c>
+      <c r="J520" t="inlineStr"/>
       <c r="K520" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L520" t="n">
@@ -18068,15 +18734,15 @@
         <v>2323267.63747908</v>
       </c>
       <c r="H521" t="n">
-        <v>1</v>
-      </c>
-      <c r="I521" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="J521" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K521" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I521" t="inlineStr"/>
+      <c r="J521" t="inlineStr"/>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -18105,17 +18771,13 @@
         <v>2736777.06127908</v>
       </c>
       <c r="H522" t="n">
-        <v>1</v>
-      </c>
-      <c r="I522" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="J522" t="n">
-        <v>12.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I522" t="inlineStr"/>
+      <c r="J522" t="inlineStr"/>
       <c r="K522" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L522" t="n">
@@ -18149,9 +18811,7 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="n">
-        <v>12.3</v>
-      </c>
+      <c r="J523" t="inlineStr"/>
       <c r="K523" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18188,9 +18848,7 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="n">
-        <v>12.3</v>
-      </c>
+      <c r="J524" t="inlineStr"/>
       <c r="K524" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18227,9 +18885,7 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="n">
-        <v>12.3</v>
-      </c>
+      <c r="J525" t="inlineStr"/>
       <c r="K525" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18266,9 +18922,7 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="n">
-        <v>12.3</v>
-      </c>
+      <c r="J526" t="inlineStr"/>
       <c r="K526" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18305,9 +18959,7 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="n">
-        <v>12.3</v>
-      </c>
+      <c r="J527" t="inlineStr"/>
       <c r="K527" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18344,9 +18996,7 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="n">
-        <v>12.3</v>
-      </c>
+      <c r="J528" t="inlineStr"/>
       <c r="K528" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18383,9 +19033,7 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="n">
-        <v>12.3</v>
-      </c>
+      <c r="J529" t="inlineStr"/>
       <c r="K529" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18422,9 +19070,7 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="n">
-        <v>12.3</v>
-      </c>
+      <c r="J530" t="inlineStr"/>
       <c r="K530" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18458,12 +19104,10 @@
         <v>4020999.65827908</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="n">
-        <v>12.3</v>
-      </c>
+      <c r="J531" t="inlineStr"/>
       <c r="K531" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18497,12 +19141,10 @@
         <v>4259407.78637908</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="n">
-        <v>12.3</v>
-      </c>
+      <c r="J532" t="inlineStr"/>
       <c r="K532" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18536,23 +19178,19 @@
         <v>4320945.836079081</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="n">
-        <v>12.3</v>
-      </c>
+      <c r="J533" t="inlineStr"/>
       <c r="K533" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L533" t="n">
-        <v>1.060040650406504</v>
-      </c>
-      <c r="M533" t="n">
-        <v>1.211864406779661</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M533" t="inlineStr"/>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
@@ -18577,11 +19215,15 @@
         <v>4320945.836079081</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18610,11 +19252,15 @@
         <v>4179685.161979081</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18643,11 +19289,15 @@
         <v>4206894.761979081</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18676,11 +19326,15 @@
         <v>4206894.761979081</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18709,11 +19363,15 @@
         <v>4206894.761979081</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18742,11 +19400,15 @@
         <v>4050554.929979081</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18775,11 +19437,15 @@
         <v>3544938.870679081</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -18808,11 +19474,15 @@
         <v>3544938.870679081</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -18841,11 +19511,15 @@
         <v>3659226.250179081</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -18874,11 +19548,15 @@
         <v>3659226.250179081</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
